--- a/RR/excel/Appriciate_Flow.xlsx
+++ b/RR/excel/Appriciate_Flow.xlsx
@@ -3,16 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6CF45E98-358F-42E6-A07C-CD9552674C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choug\git\RR_Web\RR\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E230DD0-34F8-4558-A061-A831574ED7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1227" sheetId="1" r:id="rId1"/>
-    <sheet name="900" sheetId="2" r:id="rId2"/>
+    <sheet name="C1227" sheetId="1" r:id="rId1"/>
+    <sheet name="C900" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,7 +55,7 @@
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{FB669701-F2FF-496F-8BDD-30ED1D75ED93}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{FBC9A22B-C228-4C51-A9B5-AE6170461400}">
       <text>
         <r>
           <rPr>
@@ -70,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Appriciate By</t>
   </si>
@@ -99,9 +103,6 @@
     <t>bulk</t>
   </si>
   <si>
-    <t>Count If bulk</t>
-  </si>
-  <si>
     <t>team</t>
   </si>
   <si>
@@ -136,13 +137,34 @@
   </si>
   <si>
     <t>Thank you for your Effort</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>testdemo</t>
+  </si>
+  <si>
+    <t>employeeactest1@yopmail.com</t>
+  </si>
+  <si>
+    <t>manageractest1@yopmail.com</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>employeeactest2@yopmail.com</t>
+  </si>
+  <si>
+    <t>employeeactest3@yopmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +186,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -189,16 +219,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -477,16 +510,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:E26"/>
+  <dimension ref="A3:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
     <col min="3" max="3" width="31.5703125" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="31.7109375" customWidth="1"/>
@@ -500,51 +533,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -555,138 +591,172 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="15" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="19" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
         <v>20</v>
       </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{D788E2E1-7C5A-432E-A3FC-10B1D72EA6A6}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{53C84025-42C8-4A66-BD3B-C97EE9B5054C}"/>
+    <hyperlink ref="C30" r:id="rId3" xr:uid="{EA286428-91FD-4FCE-9945-29569AD5D0E1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5715155E-D895-4370-B1A9-378741347274}">
-  <dimension ref="A3:E26"/>
+  <dimension ref="A3:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
     <col min="3" max="3" width="31.5703125" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="E5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -697,57 +767,95 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" t="s">
+      <c r="C11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="19" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{47DE3FE4-F463-4AB2-ABF1-8C6FC3BE9BA8}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{4F83EBF1-044A-4508-BCB9-8D89517ABF72}"/>
+    <hyperlink ref="C30" r:id="rId3" xr:uid="{78970880-1D10-4893-9D69-FDF10E84A11A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/RR/excel/Appriciate_Flow.xlsx
+++ b/RR/excel/Appriciate_Flow.xlsx
@@ -8,15 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choug\git\RR_Web\RR\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E230DD0-34F8-4558-A061-A831574ED7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94E9D86-9825-4D96-8D76-B0AB6553713E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="C1227" sheetId="1" r:id="rId1"/>
-    <sheet name="C900" sheetId="2" r:id="rId2"/>
+    <sheet name="C900" sheetId="2" r:id="rId1"/>
+    <sheet name="C466" sheetId="10" r:id="rId2"/>
+    <sheet name="C1214" sheetId="4" r:id="rId3"/>
+    <sheet name="C1227" sheetId="5" r:id="rId4"/>
+    <sheet name="C1270" sheetId="6" r:id="rId5"/>
+    <sheet name="C943" sheetId="7" r:id="rId6"/>
+    <sheet name="C1083" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +36,7 @@
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{3695F861-CA65-4025-B1AA-E8B2501C422D}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{FBC9A22B-C228-4C51-A9B5-AE6170461400}">
       <text>
         <r>
           <rPr>
@@ -55,7 +60,127 @@
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{FBC9A22B-C228-4C51-A9B5-AE6170461400}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{D4BD7996-1FE7-4277-A182-2287B9851769}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>if team is there then need to add mail according to count</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dheeraj Chougule</author>
+  </authors>
+  <commentList>
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{A9BF3E29-11D6-4B6D-AAF5-7AC07B8E93CB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>if team is there then need to add mail according to count</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dheeraj Chougule</author>
+  </authors>
+  <commentList>
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{9C06724C-AB9B-48EC-99C6-1EB05475350A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>if team is there then need to add mail according to count</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dheeraj Chougule</author>
+  </authors>
+  <commentList>
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{BDDF7AB5-86D2-455A-8A79-A874112D8D3C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>if team is there then need to add mail according to count</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dheeraj Chougule</author>
+  </authors>
+  <commentList>
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{748E4592-464C-4918-A856-8FB9C715417D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>if team is there then need to add mail according to count</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dheeraj Chougule</author>
+  </authors>
+  <commentList>
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{09C216B5-72D1-43D7-9345-5E1FDE4540DA}">
       <text>
         <r>
           <rPr>
@@ -74,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="84">
   <si>
     <t>Appriciate By</t>
   </si>
@@ -118,9 +243,6 @@
     <t>known</t>
   </si>
   <si>
-    <t>any</t>
-  </si>
-  <si>
     <t>single</t>
   </si>
   <si>
@@ -145,9 +267,6 @@
     <t>testdemo</t>
   </si>
   <si>
-    <t>employeeactest1@yopmail.com</t>
-  </si>
-  <si>
     <t>manageractest1@yopmail.com</t>
   </si>
   <si>
@@ -158,13 +277,187 @@
   </si>
   <si>
     <t>employeeactest3@yopmail.com</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>projectmanager.satven@outlook.com</t>
+  </si>
+  <si>
+    <t>Advantage!1270</t>
+  </si>
+  <si>
+    <t>Nominee1.satven@outlook.com</t>
+  </si>
+  <si>
+    <t>Error Validation message</t>
+  </si>
+  <si>
+    <t>Mail wrong and submit</t>
+  </si>
+  <si>
+    <t>Mail not given and submit</t>
+  </si>
+  <si>
+    <t>Add at least one recipient.</t>
+  </si>
+  <si>
+    <t>Please enter valid email or name.</t>
+  </si>
+  <si>
+    <t>Same mail given 2 times</t>
+  </si>
+  <si>
+    <t>Please select a different user.</t>
+  </si>
+  <si>
+    <t>employeeacte@yopmail.com</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Cases</t>
+  </si>
+  <si>
+    <t>Not selecting award and submit</t>
+  </si>
+  <si>
+    <t>Mandetory</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Mandetory / Non-Mandetory</t>
+  </si>
+  <si>
+    <t>No message and Submit</t>
+  </si>
+  <si>
+    <t>Please provide the message.</t>
+  </si>
+  <si>
+    <t>card Specific (Available)</t>
+  </si>
+  <si>
+    <t>card Specific (Required)</t>
+  </si>
+  <si>
+    <t>card Specific (Name)</t>
+  </si>
+  <si>
+    <t>Card Needed</t>
+  </si>
+  <si>
+    <t>manager1.sentiss@yopmail.com</t>
+  </si>
+  <si>
+    <t>Advantage!1214</t>
+  </si>
+  <si>
+    <t>employee1.sentiss@yopmail.com</t>
+  </si>
+  <si>
+    <t>Add an award.</t>
+  </si>
+  <si>
+    <t>manager1.ac@yopmail.com</t>
+  </si>
+  <si>
+    <t>employee1.ac@yopmail.com</t>
+  </si>
+  <si>
+    <t>employee2.ac@yopmail.com</t>
+  </si>
+  <si>
+    <t>Advantage!0198</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>nominatorsteel@ac.in</t>
+  </si>
+  <si>
+    <t>advantage!943</t>
+  </si>
+  <si>
+    <t>buheadsteel@ac.in</t>
+  </si>
+  <si>
+    <t>Satven</t>
+  </si>
+  <si>
+    <t>employeeactest4@yopmail.com</t>
+  </si>
+  <si>
+    <t>manager1.tf@yopmail.com</t>
+  </si>
+  <si>
+    <t>employee1.tf@yopmail.com</t>
+  </si>
+  <si>
+    <t>Advantage!1084</t>
+  </si>
+  <si>
+    <t>NewsFeed Testing</t>
+  </si>
+  <si>
+    <t>Like (Available)</t>
+  </si>
+  <si>
+    <t>Comment (Availble)</t>
+  </si>
+  <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>Like (Required)</t>
+  </si>
+  <si>
+    <t>Comment (Required)</t>
+  </si>
+  <si>
+    <t>Nicely Done</t>
+  </si>
+  <si>
+    <t>manageractest2@yopmail.com</t>
+  </si>
+  <si>
+    <t>Multiple buzz Created ??</t>
+  </si>
+  <si>
+    <t>employee5.ac@yopmail.com</t>
+  </si>
+  <si>
+    <t>employee3.ac@yopmail.com</t>
+  </si>
+  <si>
+    <t>manager16@rewards-demo.com</t>
+  </si>
+  <si>
+    <t>ZZXDI4VW</t>
+  </si>
+  <si>
+    <t>kabir@yopmail.com</t>
+  </si>
+  <si>
+    <t>manager17@rewards-demo.com</t>
+  </si>
+  <si>
+    <t>employee1@rewards-demo.com</t>
+  </si>
+  <si>
+    <t>employee2@rewards-demo.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +484,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -223,12 +523,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -509,20 +813,686 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:E31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5715155E-D895-4370-B1A9-378741347274}">
+  <dimension ref="A3:I66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{47DE3FE4-F463-4AB2-ABF1-8C6FC3BE9BA8}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{4F83EBF1-044A-4508-BCB9-8D89517ABF72}"/>
+    <hyperlink ref="C52" r:id="rId3" xr:uid="{8723B52D-DB5F-4456-B419-F6E169BED2D0}"/>
+    <hyperlink ref="D11" r:id="rId4" xr:uid="{D63146EF-4505-478D-BF64-CBF7D1C68569}"/>
+    <hyperlink ref="E11" r:id="rId5" xr:uid="{B0B674D2-7470-4A17-99D0-3AF3DA1347D2}"/>
+    <hyperlink ref="C30" r:id="rId6" xr:uid="{3AEE9EA8-375A-4C2C-95D0-E1CEBECC9267}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+  <legacyDrawing r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C353D1-B0D2-4862-AB53-0799460CD224}">
+  <dimension ref="A3:I66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C11" r:id="rId1" xr:uid="{A6CA4FFC-409F-4606-A31C-944634A51C40}"/>
+    <hyperlink ref="C52" r:id="rId2" xr:uid="{42C7859C-AE64-435F-B93B-369BA83A29D7}"/>
+    <hyperlink ref="E11" r:id="rId3" xr:uid="{10B33063-5355-449F-93A1-972067C3E1E9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1904D5E4-442E-4BF4-A39A-8D603AE31D02}">
+  <dimension ref="A3:F66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" customWidth="1"/>
     <col min="3" max="3" width="31.5703125" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -538,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -552,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -566,7 +1536,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -580,6 +1550,12 @@
         <v>3</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -599,7 +1575,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -609,96 +1585,233 @@
         <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
       <c r="C29" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>21</v>
-      </c>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>22</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{D788E2E1-7C5A-432E-A3FC-10B1D72EA6A6}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{53C84025-42C8-4A66-BD3B-C97EE9B5054C}"/>
-    <hyperlink ref="C30" r:id="rId3" xr:uid="{EA286428-91FD-4FCE-9945-29569AD5D0E1}"/>
+    <hyperlink ref="C52" r:id="rId1" xr:uid="{E8410BE1-72E6-4B49-BB6C-E6E714101565}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5715155E-D895-4370-B1A9-378741347274}">
-  <dimension ref="A3:E31"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89CAEB5-4F1C-4B6A-A4C1-C7B6352E777E}">
+  <dimension ref="A3:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" customWidth="1"/>
     <col min="3" max="3" width="31.5703125" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -714,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -728,7 +1841,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -742,7 +1855,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -756,6 +1869,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -775,87 +1896,1203 @@
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{2B3985A1-2482-4253-9AD3-AF2AD120032D}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{DFC35F61-603F-4F0A-8821-B5FDDEA55313}"/>
+    <hyperlink ref="C30" r:id="rId3" xr:uid="{635C71BF-90BC-488F-97A6-D838A2AF2B3A}"/>
+    <hyperlink ref="C52" r:id="rId4" xr:uid="{AAE3206D-281E-433C-88D3-31DEE0CF5F9D}"/>
+    <hyperlink ref="D11" r:id="rId5" xr:uid="{4B37A0C8-9902-4B3A-8C48-207A62C2C440}"/>
+    <hyperlink ref="E11" r:id="rId6" xr:uid="{AB02DB5B-9CF2-4711-B7D2-2BBEB97F4072}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+  <legacyDrawing r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01DDC2E-4DD9-4530-B52D-604A1B3036DF}">
+  <dimension ref="A1:F66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C1" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="D21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>21</v>
-      </c>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{47DE3FE4-F463-4AB2-ABF1-8C6FC3BE9BA8}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{4F83EBF1-044A-4508-BCB9-8D89517ABF72}"/>
-    <hyperlink ref="C30" r:id="rId3" xr:uid="{78970880-1D10-4893-9D69-FDF10E84A11A}"/>
+    <hyperlink ref="C52" r:id="rId1" xr:uid="{515FEB38-EE19-44E2-B45D-E3DDAF284025}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139DD397-4634-4FB8-8587-B601CEB59A8E}">
+  <dimension ref="A3:F66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{6FADE9A6-F4AE-4526-AB84-08443FE54E83}"/>
+    <hyperlink ref="C30" r:id="rId2" xr:uid="{C95B1009-3F41-446C-A97E-6DC19A2A2D9D}"/>
+    <hyperlink ref="C52" r:id="rId3" xr:uid="{06276366-17F9-4D02-B30E-7BF065BC7B1D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF140F85-C10E-4600-8D6D-D3607B55159B}">
+  <dimension ref="A3:F66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C30" r:id="rId1" xr:uid="{688DD04C-2ED4-437E-B80B-D0F57FC7FD52}"/>
+    <hyperlink ref="C52" r:id="rId2" xr:uid="{2F75E27C-219D-409E-BE3A-5717289E23AF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/RR/excel/Appriciate_Flow.xlsx
+++ b/RR/excel/Appriciate_Flow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choug\git\RR_Web\RR\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94E9D86-9825-4D96-8D76-B0AB6553713E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE5FF39-C2A7-479F-A28C-CB14A0C7A38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C900" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,12 @@
     <sheet name="C1270" sheetId="6" r:id="rId5"/>
     <sheet name="C943" sheetId="7" r:id="rId6"/>
     <sheet name="C1083" sheetId="9" r:id="rId7"/>
+    <sheet name="C841" sheetId="11" r:id="rId8"/>
+    <sheet name="C1045" sheetId="12" r:id="rId9"/>
+    <sheet name="C1207" sheetId="13" r:id="rId10"/>
+    <sheet name="C1030" sheetId="14" r:id="rId11"/>
+    <sheet name="C1151" sheetId="15" r:id="rId12"/>
+    <sheet name="C1167" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,6 +43,102 @@
   </authors>
   <commentList>
     <comment ref="A11" authorId="0" shapeId="0" xr:uid="{FBC9A22B-C228-4C51-A9B5-AE6170461400}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>if team is there then need to add mail according to count</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dheeraj Chougule</author>
+  </authors>
+  <commentList>
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{6E66091A-FCBB-4163-995A-3CB7E68C6B08}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>if team is there then need to add mail according to count</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dheeraj Chougule</author>
+  </authors>
+  <commentList>
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{A961C0FF-7436-4A3D-A4BC-1E6D0BE4ACE1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>if team is there then need to add mail according to count</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dheeraj Chougule</author>
+  </authors>
+  <commentList>
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{349BA5FA-1B11-4F11-A571-82488D55E6BC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>if team is there then need to add mail according to count</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dheeraj Chougule</author>
+  </authors>
+  <commentList>
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{C3F56BBB-2B7C-4619-99CE-991D282A3373}">
       <text>
         <r>
           <rPr>
@@ -198,8 +300,56 @@
 </comments>
 </file>
 
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dheeraj Chougule</author>
+  </authors>
+  <commentList>
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{1E896772-83AD-4799-B87C-6ECA3E1DC36F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>if team is there then need to add mail according to count</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dheeraj Chougule</author>
+  </authors>
+  <commentList>
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{52DF1EEF-AAAC-4432-800B-768EB7D533AD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>if team is there then need to add mail according to count</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="135">
   <si>
     <t>Appriciate By</t>
   </si>
@@ -324,9 +474,6 @@
     <t>Not selecting award and submit</t>
   </si>
   <si>
-    <t>Mandetory</t>
-  </si>
-  <si>
     <t>Required</t>
   </si>
   <si>
@@ -366,9 +513,6 @@
     <t>manager1.ac@yopmail.com</t>
   </si>
   <si>
-    <t>employee1.ac@yopmail.com</t>
-  </si>
-  <si>
     <t>employee2.ac@yopmail.com</t>
   </si>
   <si>
@@ -432,9 +576,6 @@
     <t>employee5.ac@yopmail.com</t>
   </si>
   <si>
-    <t>employee3.ac@yopmail.com</t>
-  </si>
-  <si>
     <t>manager16@rewards-demo.com</t>
   </si>
   <si>
@@ -451,13 +592,175 @@
   </si>
   <si>
     <t>employee2@rewards-demo.com</t>
+  </si>
+  <si>
+    <t>Advantage Club - Testing</t>
+  </si>
+  <si>
+    <t>Reward Demo</t>
+  </si>
+  <si>
+    <t>Sentiss Pharma</t>
+  </si>
+  <si>
+    <t>QA - Test</t>
+  </si>
+  <si>
+    <t>TATA Steel</t>
+  </si>
+  <si>
+    <t>TechnipFMC</t>
+  </si>
+  <si>
+    <t>manager.ac2kotak@yopmail.com</t>
+  </si>
+  <si>
+    <t>Kotak!01</t>
+  </si>
+  <si>
+    <t>employee.ac6@yopmail.com</t>
+  </si>
+  <si>
+    <t>employee.ac8@yopmail.com</t>
+  </si>
+  <si>
+    <t>employee.ac9@yopmail.com</t>
+  </si>
+  <si>
+    <t>manager.ac3@yopmail.com</t>
+  </si>
+  <si>
+    <t>kotak</t>
+  </si>
+  <si>
+    <t>Advantage!01</t>
+  </si>
+  <si>
+    <t>manager.dp1@yopmail.com</t>
+  </si>
+  <si>
+    <t>approver.dp1@yopmail.com</t>
+  </si>
+  <si>
+    <t>approver.dp2@yopmail.com</t>
+  </si>
+  <si>
+    <t>manager.dp2@yopmail.com</t>
+  </si>
+  <si>
+    <t>DP World</t>
+  </si>
+  <si>
+    <t>Advantage!1045</t>
+  </si>
+  <si>
+    <t>Security Bank</t>
+  </si>
+  <si>
+    <t>sbc.ee@yopmail.com</t>
+  </si>
+  <si>
+    <t>sbc1@yopmail.com</t>
+  </si>
+  <si>
+    <t>sbc2@yopmail.com</t>
+  </si>
+  <si>
+    <t>sbc3@yopmail.com</t>
+  </si>
+  <si>
+    <t>Advantage!1030</t>
+  </si>
+  <si>
+    <t>user1.ac@yopmail.com</t>
+  </si>
+  <si>
+    <t>user2.ac@yopmail.com</t>
+  </si>
+  <si>
+    <t>TEAC01-tepl</t>
+  </si>
+  <si>
+    <t>TATA Electronics</t>
+  </si>
+  <si>
+    <t>Negative Cases</t>
+  </si>
+  <si>
+    <t>login without location popup</t>
+  </si>
+  <si>
+    <t>employee6.ac@yopmail.com</t>
+  </si>
+  <si>
+    <t>employee7.ac@yopmail.com</t>
+  </si>
+  <si>
+    <t>employee8.ac@yopmail.com</t>
+  </si>
+  <si>
+    <t>Error in popup (Message)</t>
+  </si>
+  <si>
+    <t>advantage!1151</t>
+  </si>
+  <si>
+    <t>test.p@yopmail.com</t>
+  </si>
+  <si>
+    <t>user.eclerx@yopmail.com</t>
+  </si>
+  <si>
+    <t>user1.eclerx@yopmail.com</t>
+  </si>
+  <si>
+    <t>Eclerx</t>
+  </si>
+  <si>
+    <t>TATA 1 mg</t>
+  </si>
+  <si>
+    <t>emp3mg1@yopmail.com</t>
+  </si>
+  <si>
+    <t>advantage!1167</t>
+  </si>
+  <si>
+    <t>emp2mg1@yopmail.com</t>
+  </si>
+  <si>
+    <t>emp4mg1@yopmail.com</t>
+  </si>
+  <si>
+    <t>emp5mg1@yopmail.com</t>
+  </si>
+  <si>
+    <t>Please Enter the message.</t>
+  </si>
+  <si>
+    <t>Award and Card Details</t>
+  </si>
+  <si>
+    <t>NewsFeed Details</t>
+  </si>
+  <si>
+    <t>Negative Cases Need to do??</t>
+  </si>
+  <si>
+    <t>CC Details</t>
+  </si>
+  <si>
+    <t>Custom Message Details</t>
+  </si>
+  <si>
+    <t>Appriciate Details</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,8 +798,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -506,6 +837,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,7 +866,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -533,6 +876,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -814,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5715155E-D895-4370-B1A9-378741347274}">
-  <dimension ref="A3:I66"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,9 +1189,20 @@
     <col min="5" max="5" width="31.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" customWidth="1"/>
+    <col min="9" max="9" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" s="17"/>
+    </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -839,6 +1210,10 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -850,6 +1225,7 @@
       <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E5" s="1"/>
@@ -889,7 +1265,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C9" s="3"/>
       <c r="I9" s="6"/>
@@ -919,7 +1295,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -936,12 +1312,20 @@
         <v>21</v>
       </c>
     </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I13" s="7"/>
+    </row>
+    <row r="17" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -955,7 +1339,7 @@
         <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
@@ -973,7 +1357,7 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -986,16 +1370,27 @@
         <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" s="3"/>
+    </row>
+    <row r="24" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>43</v>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1006,8 +1401,14 @@
         <v>23</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="28" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1026,7 +1427,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1037,22 +1438,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>67</v>
+    <row r="35" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>23</v>
@@ -1060,10 +1461,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>18</v>
@@ -1071,19 +1472,29 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="B50" s="1" t="s">
         <v>30</v>
       </c>
@@ -1123,15 +1534,15 @@
         <v>40</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1149,12 +1560,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C353D1-B0D2-4862-AB53-0799460CD224}">
-  <dimension ref="A3:I66"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485064A4-CC6B-45B9-A6DD-B169EE3FBB61}">
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,6 +1580,16 @@
     <col min="9" max="9" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -1176,17 +1597,25 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>79</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E5" s="1"/>
@@ -1221,12 +1650,12 @@
         <v>12</v>
       </c>
       <c r="C8" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>23</v>
@@ -1252,13 +1681,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1269,12 +1698,17 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
+    <row r="17" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1288,7 +1722,7 @@
         <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
@@ -1306,9 +1740,11 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1316,19 +1752,32 @@
         <v>17</v>
       </c>
       <c r="B21" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>43</v>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1338,9 +1787,17 @@
       <c r="B26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" t="s">
+      <c r="C26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="28" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1348,7 +1805,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -1358,9 +1815,7 @@
       <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
@@ -1368,22 +1823,22 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>67</v>
+    <row r="35" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>23</v>
@@ -1391,10 +1846,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>18</v>
@@ -1402,13 +1857,26 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1418,7 +1886,7 @@
       <c r="B50" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1454,15 +1922,1530 @@
         <v>40</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>44</v>
       </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C52" r:id="rId1" xr:uid="{3B63C9EC-4871-40EB-9FD9-716E57E9F088}"/>
+    <hyperlink ref="D11" r:id="rId2" xr:uid="{EBBF2286-289D-4326-AE48-A38F65E5CB29}"/>
+    <hyperlink ref="E11" r:id="rId3" xr:uid="{80083916-6677-4410-85E6-002C6A2E272F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B233BE38-8AB1-4066-902A-FFC08B2D13F9}">
+  <dimension ref="A1:I66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="17" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="24" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="28" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="35" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B66" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C52" r:id="rId1" xr:uid="{D42CC671-0E32-42B0-B98D-6A59DDB0102B}"/>
+    <hyperlink ref="D11" r:id="rId2" xr:uid="{312E2F8F-2BDC-47D9-836D-1DEBC94B888A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9400B77-53B7-4A89-8885-C72339356CB4}">
+  <dimension ref="A1:I66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="17" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>45</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="24" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="35" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C52" r:id="rId1" xr:uid="{66838BAB-4F4A-4139-9A71-B95B95008010}"/>
+    <hyperlink ref="D11" r:id="rId2" xr:uid="{B7B8E4FA-46F2-4C36-9FEF-18A0DF0CF119}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6370453B-3C7C-4AB3-863B-FE324147CDE9}">
+  <dimension ref="A1:I66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="17" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="24" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="35" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C52" r:id="rId1" xr:uid="{9E96DD94-5C0E-4BE5-8596-8132B2844316}"/>
+    <hyperlink ref="D11" r:id="rId2" xr:uid="{16B2C7C3-072D-419F-9DDB-EE855CD3E23F}"/>
+    <hyperlink ref="E11" r:id="rId3" xr:uid="{17EB70C0-64B9-4E7E-ADD8-FF297D90187B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C353D1-B0D2-4862-AB53-0799460CD224}">
+  <dimension ref="A1:I66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="17" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="24" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="28" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="35" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1479,10 +3462,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1904D5E4-442E-4BF4-A39A-8D603AE31D02}">
-  <dimension ref="A3:F66"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1493,31 +3476,46 @@
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="31.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1531,7 +3529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1542,7 +3540,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1550,13 +3548,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1567,7 +3565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1575,24 +3573,29 @@
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
+    <row r="17" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -1607,7 +3610,7 @@
         <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
@@ -1625,7 +3628,7 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1638,16 +3641,27 @@
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" s="3"/>
+    </row>
+    <row r="24" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>43</v>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1658,17 +3672,25 @@
         <v>23</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="28" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
       </c>
@@ -1678,7 +3700,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1686,25 +3708,25 @@
         <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>23</v>
@@ -1712,10 +3734,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>18</v>
@@ -1723,13 +3745,26 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1775,15 +3810,15 @@
         <v>40</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1798,10 +3833,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89CAEB5-4F1C-4B6A-A4C1-C7B6352E777E}">
-  <dimension ref="A3:F66"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1812,31 +3847,46 @@
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="31.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1850,7 +3900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1861,7 +3911,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1869,15 +3919,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1888,7 +3938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1896,28 +3946,31 @@
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
+    <row r="17" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>23</v>
@@ -1934,7 +3987,7 @@
         <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
@@ -1952,7 +4005,7 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>23</v>
@@ -1967,18 +4020,29 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" s="3">
         <v>3</v>
       </c>
     </row>
+    <row r="24" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>43</v>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1989,8 +4053,14 @@
         <v>23</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="28" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2009,7 +4079,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2018,22 +4088,22 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>67</v>
+    <row r="35" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>23</v>
@@ -2041,10 +4111,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>18</v>
@@ -2052,13 +4122,26 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -2104,15 +4187,15 @@
         <v>40</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2132,10 +4215,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01DDC2E-4DD9-4530-B52D-604A1B3036DF}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2146,22 +4229,33 @@
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="31.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C1" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="5"/>
+      <c r="I1" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2172,10 +4266,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2189,7 +4283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -2200,7 +4294,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -2208,13 +4302,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -2225,7 +4319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -2238,7 +4332,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
@@ -2248,12 +4342,17 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
+    <row r="17" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2267,7 +4366,7 @@
         <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
@@ -2283,7 +4382,7 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -2294,16 +4393,27 @@
       </c>
       <c r="B21" s="3"/>
       <c r="D21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" s="3"/>
+    </row>
+    <row r="24" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>43</v>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2314,8 +4424,14 @@
         <v>23</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="28" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2323,7 +4439,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -2345,22 +4461,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>67</v>
+    <row r="35" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>23</v>
@@ -2368,10 +4484,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>18</v>
@@ -2379,13 +4495,26 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -2431,15 +4560,15 @@
         <v>40</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2454,10 +4583,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139DD397-4634-4FB8-8587-B601CEB59A8E}">
-  <dimension ref="A3:F66"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2468,31 +4597,46 @@
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="31.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2506,7 +4650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -2517,7 +4661,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -2525,13 +4669,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -2542,7 +4686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -2550,27 +4694,32 @@
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
+    <row r="17" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2584,7 +4733,7 @@
         <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
@@ -2602,7 +4751,7 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -2615,16 +4764,27 @@
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" s="3"/>
+    </row>
+    <row r="24" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>43</v>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2635,8 +4795,14 @@
         <v>23</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="28" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2644,7 +4810,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -2655,7 +4821,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2666,22 +4832,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>67</v>
+    <row r="35" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>23</v>
@@ -2689,10 +4855,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>18</v>
@@ -2700,13 +4866,26 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -2752,22 +4931,22 @@
         <v>40</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{6FADE9A6-F4AE-4526-AB84-08443FE54E83}"/>
+    <hyperlink ref="C52" r:id="rId1" xr:uid="{06276366-17F9-4D02-B30E-7BF065BC7B1D}"/>
     <hyperlink ref="C30" r:id="rId2" xr:uid="{C95B1009-3F41-446C-A97E-6DC19A2A2D9D}"/>
-    <hyperlink ref="C52" r:id="rId3" xr:uid="{06276366-17F9-4D02-B30E-7BF065BC7B1D}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{6FADE9A6-F4AE-4526-AB84-08443FE54E83}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -2777,10 +4956,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF140F85-C10E-4600-8D6D-D3607B55159B}">
-  <dimension ref="A3:F66"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2791,31 +4970,46 @@
     <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2829,7 +5023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -2840,7 +5034,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -2848,13 +5042,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -2865,35 +5059,40 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
-        <v>65</v>
+      <c r="C11" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
-        <v>66</v>
+      <c r="C12" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
+    <row r="17" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2907,7 +5106,7 @@
         <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
@@ -2925,7 +5124,7 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -2938,16 +5137,27 @@
         <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" s="3"/>
+    </row>
+    <row r="24" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>43</v>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2958,8 +5168,14 @@
         <v>23</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="28" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2967,7 +5183,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -2989,22 +5205,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>67</v>
+    <row r="35" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>23</v>
@@ -3012,10 +5228,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>18</v>
@@ -3023,13 +5239,26 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -3075,15 +5304,15 @@
         <v>40</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3095,4 +5324,761 @@
   <pageSetup orientation="portrait" r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD74D389-5D6E-4899-8856-F6FE3EC60AC4}">
+  <dimension ref="A1:I66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="17" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="24" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="28" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="35" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C52" r:id="rId1" xr:uid="{5F23E1DA-8CC2-460E-8948-893B109B8AC8}"/>
+    <hyperlink ref="D11" r:id="rId2" xr:uid="{B854BE6D-0298-4608-985F-639F3B9954FB}"/>
+    <hyperlink ref="E11" r:id="rId3" xr:uid="{966691AF-CEA6-4AA1-8503-B428B1D232FC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91D6FFF-E89E-4EA4-8B32-D6E335F4E9F1}">
+  <dimension ref="A1:I66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="17" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="24" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="35" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C52" r:id="rId1" xr:uid="{C1367403-7189-41DE-98F8-23360E081840}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{AB086270-D9E1-4883-8603-067D838F0F9F}"/>
+    <hyperlink ref="D11" r:id="rId3" xr:uid="{8B904716-4C15-40AD-AEDA-1565F5882494}"/>
+    <hyperlink ref="C30" r:id="rId4" xr:uid="{80AE16C2-8497-4662-91B4-C661E02AFDBB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
+</worksheet>
 </file>
--- a/RR/excel/Appriciate_Flow.xlsx
+++ b/RR/excel/Appriciate_Flow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choug\git\RR_Web\RR\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE5FF39-C2A7-479F-A28C-CB14A0C7A38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23239476-A672-4A84-908C-1D9DA1B48AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C900" sheetId="2" r:id="rId1"/>
@@ -349,7 +349,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="138">
   <si>
     <t>Appriciate By</t>
   </si>
@@ -754,6 +754,15 @@
   </si>
   <si>
     <t>Appriciate Details</t>
+  </si>
+  <si>
+    <t>nominee1.satven@outlook.com</t>
+  </si>
+  <si>
+    <t>employee2.tf@yopmail.com</t>
+  </si>
+  <si>
+    <t>nominee2.satven@outlook.com</t>
   </si>
 </sst>
 </file>
@@ -866,7 +875,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -881,11 +890,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1177,7 +1185,7 @@
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,11 +1205,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:9" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="I2" s="17"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -1213,7 +1221,7 @@
       <c r="D3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1315,8 +1323,8 @@
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I13" s="7"/>
     </row>
-    <row r="17" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1374,8 +1382,8 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="24" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1406,8 +1414,8 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="28" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+    <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1438,8 +1446,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+    <row r="35" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1481,8 +1489,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+    <row r="48" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1564,7 +1572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485064A4-CC6B-45B9-A6DD-B169EE3FBB61}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1585,8 +1593,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1600,7 +1608,7 @@
       <c r="D3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1698,8 +1706,8 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="17" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1761,8 +1769,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1795,8 +1803,8 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="28" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+    <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1823,8 +1831,8 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="35" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+    <row r="35" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1866,8 +1874,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+    <row r="48" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1949,7 +1957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B233BE38-8AB1-4066-902A-FFC08B2D13F9}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1970,8 +1978,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1985,7 +1993,7 @@
       <c r="D3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2079,8 +2087,8 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="17" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2138,8 +2146,8 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="24" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2172,8 +2180,8 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="28" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+    <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2200,8 +2208,8 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="35" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+    <row r="35" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2243,8 +2251,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+    <row r="48" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2326,7 +2334,7 @@
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2347,8 +2355,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2362,9 +2370,9 @@
       <c r="D3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -2458,8 +2466,8 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="17" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2517,8 +2525,8 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="24" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2553,8 +2561,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+    <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2581,8 +2589,8 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="35" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+    <row r="35" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2624,8 +2632,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+    <row r="48" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2728,8 +2736,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2743,9 +2751,9 @@
       <c r="D3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -2841,8 +2849,8 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="17" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2900,8 +2908,8 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="24" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2936,8 +2944,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+    <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2964,8 +2972,8 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="35" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+    <row r="35" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3007,8 +3015,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+    <row r="48" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3091,7 +3099,7 @@
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3111,8 +3119,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3126,7 +3134,7 @@
       <c r="D3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -3220,8 +3228,8 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="17" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3279,8 +3287,8 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="24" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3311,8 +3319,8 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="28" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+    <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3341,8 +3349,8 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="35" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+    <row r="35" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3384,8 +3392,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+    <row r="48" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3464,8 +3472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1904D5E4-442E-4BF4-A39A-8D603AE31D02}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3484,8 +3492,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3499,7 +3507,7 @@
       <c r="D3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -3588,8 +3596,8 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="17" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3645,8 +3653,8 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="24" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3679,8 +3687,8 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="28" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+    <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3711,8 +3719,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+    <row r="35" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3754,8 +3762,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+    <row r="48" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3835,8 +3843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89CAEB5-4F1C-4B6A-A4C1-C7B6352E777E}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3855,8 +3863,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3870,7 +3878,7 @@
       <c r="D3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -3963,8 +3971,8 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="17" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4026,8 +4034,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4058,8 +4066,8 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="28" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+    <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4088,8 +4096,8 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="35" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+    <row r="35" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4131,8 +4139,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+    <row r="48" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4217,8 +4225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01DDC2E-4DD9-4530-B52D-604A1B3036DF}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4226,7 +4234,7 @@
     <col min="1" max="1" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" customWidth="1"/>
     <col min="3" max="3" width="31.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" customWidth="1"/>
     <col min="5" max="5" width="31.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" customWidth="1"/>
@@ -4238,8 +4246,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4253,7 +4261,7 @@
       <c r="D3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -4299,14 +4307,16 @@
         <v>12</v>
       </c>
       <c r="C8" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
@@ -4327,9 +4337,11 @@
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>135</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -4342,8 +4354,8 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="17" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4397,8 +4409,8 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="24" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4429,8 +4441,8 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="28" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+    <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4457,12 +4469,10 @@
       <c r="B31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="35" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4504,8 +4514,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+    <row r="48" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4513,7 +4523,7 @@
       <c r="A49" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4524,7 +4534,7 @@
       <c r="B50" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4574,10 +4584,12 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C52" r:id="rId1" xr:uid="{515FEB38-EE19-44E2-B45D-E3DDAF284025}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{23C4E822-AB0F-47BA-8A6E-31A11B3D3271}"/>
+    <hyperlink ref="D11" r:id="rId3" xr:uid="{C044701A-FC3A-44DA-9469-2143A5F00FFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -4605,8 +4617,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4620,7 +4632,7 @@
       <c r="D3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -4709,8 +4721,8 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="17" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4768,8 +4780,8 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="24" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4800,8 +4812,8 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="28" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+    <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4832,8 +4844,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+    <row r="35" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4875,8 +4887,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+    <row r="48" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4959,7 +4971,7 @@
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4978,8 +4990,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4993,7 +5005,7 @@
       <c r="D3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -5039,14 +5051,16 @@
         <v>12</v>
       </c>
       <c r="C8" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
@@ -5069,7 +5083,9 @@
       <c r="C11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -5079,11 +5095,13 @@
       <c r="C12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="17" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5141,8 +5159,8 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="24" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5173,8 +5191,8 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="28" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+    <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5205,8 +5223,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+    <row r="35" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5248,8 +5266,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+    <row r="48" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5319,10 +5337,11 @@
   <hyperlinks>
     <hyperlink ref="C30" r:id="rId1" xr:uid="{688DD04C-2ED4-437E-B80B-D0F57FC7FD52}"/>
     <hyperlink ref="C52" r:id="rId2" xr:uid="{2F75E27C-219D-409E-BE3A-5717289E23AF}"/>
+    <hyperlink ref="D11" r:id="rId3" xr:uid="{8E7AAA6B-E9FE-4FBF-B15C-70EC5A4180C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -5330,7 +5349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD74D389-5D6E-4899-8856-F6FE3EC60AC4}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -5351,8 +5370,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5460,8 +5479,8 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="17" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5519,8 +5538,8 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="24" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5551,8 +5570,8 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="28" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+    <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5581,8 +5600,8 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="35" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+    <row r="35" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5624,8 +5643,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+    <row r="48" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5728,8 +5747,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5743,7 +5762,7 @@
       <c r="D3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -5835,8 +5854,8 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="17" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5894,8 +5913,8 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="24" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5930,8 +5949,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+    <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5960,8 +5979,8 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="35" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+    <row r="35" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>65</v>
       </c>
     </row>
@@ -6003,8 +6022,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+    <row r="48" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
         <v>111</v>
       </c>
     </row>

--- a/RR/excel/Appriciate_Flow.xlsx
+++ b/RR/excel/Appriciate_Flow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choug\git\RR_Web\RR\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23239476-A672-4A84-908C-1D9DA1B48AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86607F49-4A7C-4E20-8F58-FE9B488414BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C900" sheetId="2" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="C1030" sheetId="14" r:id="rId11"/>
     <sheet name="C1151" sheetId="15" r:id="rId12"/>
     <sheet name="C1167" sheetId="16" r:id="rId13"/>
+    <sheet name="C1218" sheetId="17" r:id="rId14"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -139,6 +140,30 @@
   </authors>
   <commentList>
     <comment ref="A11" authorId="0" shapeId="0" xr:uid="{C3F56BBB-2B7C-4619-99CE-991D282A3373}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>if team is there then need to add mail according to count</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dheeraj Chougule</author>
+  </authors>
+  <commentList>
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{161C0670-6226-4398-8663-35D86AE88AB6}">
       <text>
         <r>
           <rPr>
@@ -349,7 +374,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="144">
   <si>
     <t>Appriciate By</t>
   </si>
@@ -763,6 +788,24 @@
   </si>
   <si>
     <t>nominee2.satven@outlook.com</t>
+  </si>
+  <si>
+    <t>Advantage!1218</t>
+  </si>
+  <si>
+    <t>emp2.airindia@yopmail.com</t>
+  </si>
+  <si>
+    <t>emp3.airindia@yopmail.com</t>
+  </si>
+  <si>
+    <t>AIR - INDIA</t>
+  </si>
+  <si>
+    <t>tl4.ainindia@yopmail.com</t>
+  </si>
+  <si>
+    <t>tl1.ainindia@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -875,7 +918,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -900,6 +943,9 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1185,7 +1231,7 @@
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3094,6 +3140,396 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6E741F-8C66-4FFE-B62A-99CC18C85D65}">
+  <dimension ref="A1:I66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="34.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I13" s="7"/>
+    </row>
+    <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="17">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{F2DBB776-7DAE-4C18-894E-997909308306}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{6E22C4BA-B77E-4F9B-BE42-D45F0874ADAD}"/>
+    <hyperlink ref="C52" r:id="rId3" xr:uid="{F5C98C2B-0FC7-4EFE-975B-C595C3687E2C}"/>
+    <hyperlink ref="C30" r:id="rId4" xr:uid="{705EEC51-DB29-4AA5-B9A1-B2EA15B94095}"/>
+    <hyperlink ref="D11" r:id="rId5" xr:uid="{B40E7941-66E1-4026-AA06-9E4867898BF3}"/>
+    <hyperlink ref="E11" r:id="rId6" xr:uid="{91AE0BD6-C465-4E2A-A9E5-705B885EEC09}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+  <legacyDrawing r:id="rId8"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C353D1-B0D2-4862-AB53-0799460CD224}">
   <dimension ref="A1:I66"/>
@@ -3473,7 +3909,7 @@
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3844,7 +4280,7 @@
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4225,7 +4661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01DDC2E-4DD9-4530-B52D-604A1B3036DF}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -4597,8 +5033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139DD397-4634-4FB8-8587-B601CEB59A8E}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4971,7 +5407,7 @@
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C11" sqref="C11:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5350,7 +5786,7 @@
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RR/excel/Appriciate_Flow.xlsx
+++ b/RR/excel/Appriciate_Flow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choug\git\RR_Web\RR\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86607F49-4A7C-4E20-8F58-FE9B488414BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE8B255-A480-4DD5-BD8B-BC55A039513C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C900" sheetId="2" r:id="rId1"/>
@@ -374,7 +374,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="153">
   <si>
     <t>Appriciate By</t>
   </si>
@@ -604,12 +604,6 @@
     <t>manager16@rewards-demo.com</t>
   </si>
   <si>
-    <t>ZZXDI4VW</t>
-  </si>
-  <si>
-    <t>kabir@yopmail.com</t>
-  </si>
-  <si>
     <t>manager17@rewards-demo.com</t>
   </si>
   <si>
@@ -806,13 +800,46 @@
   </si>
   <si>
     <t>tl1.ainindia@yopmail.com</t>
+  </si>
+  <si>
+    <t>014kx4gnxx</t>
+  </si>
+  <si>
+    <t>lukecooper@yopmail.com</t>
+  </si>
+  <si>
+    <t>Luke Cooper</t>
+  </si>
+  <si>
+    <t>MY PROFILE</t>
+  </si>
+  <si>
+    <t>Wallet Name</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Wellness</t>
+  </si>
+  <si>
+    <t>Wallet Count</t>
+  </si>
+  <si>
+    <t>Appreciated list</t>
+  </si>
+  <si>
+    <t>Awarded list</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -878,6 +905,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -918,7 +953,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -946,6 +981,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1230,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5715155E-D895-4370-B1A9-378741347274}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,12 +1286,12 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I2" s="16"/>
     </row>
@@ -1265,9 +1303,11 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="3"/>
+        <v>110</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1371,7 +1411,7 @@
     </row>
     <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1430,7 +1470,7 @@
     </row>
     <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1444,7 +1484,7 @@
         <v>18</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1462,7 +1502,7 @@
     </row>
     <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1537,12 +1577,12 @@
     </row>
     <row r="48" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B49" t="s">
         <v>23</v>
@@ -1636,12 +1676,12 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I1" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1652,7 +1692,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>23</v>
@@ -1663,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="3"/>
@@ -1735,13 +1775,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1754,7 +1794,7 @@
     </row>
     <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1817,7 +1857,7 @@
     </row>
     <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1831,7 +1871,7 @@
         <v>18</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1851,7 +1891,7 @@
     </row>
     <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1922,12 +1962,12 @@
     </row>
     <row r="48" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B49" t="s">
         <v>56</v>
@@ -2021,12 +2061,12 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I1" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2037,7 +2077,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>23</v>
@@ -2048,10 +2088,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="3"/>
@@ -2118,10 +2158,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E11" s="4"/>
     </row>
@@ -2135,7 +2175,7 @@
     </row>
     <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2194,7 +2234,7 @@
     </row>
     <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2208,7 +2248,7 @@
         <v>18</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2228,7 +2268,7 @@
     </row>
     <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2299,12 +2339,12 @@
     </row>
     <row r="48" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B49" t="s">
         <v>23</v>
@@ -2398,12 +2438,12 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I1" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2414,7 +2454,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="10"/>
@@ -2425,10 +2465,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="3"/>
@@ -2497,10 +2537,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E11" s="4"/>
     </row>
@@ -2514,7 +2554,7 @@
     </row>
     <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2573,7 +2613,7 @@
     </row>
     <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2587,7 +2627,7 @@
         <v>18</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2609,7 +2649,7 @@
     </row>
     <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2680,12 +2720,12 @@
     </row>
     <row r="48" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B49" t="s">
         <v>23</v>
@@ -2779,12 +2819,12 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I1" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2795,7 +2835,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="10"/>
@@ -2806,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="3"/>
@@ -2878,13 +2918,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2897,7 +2937,7 @@
     </row>
     <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2956,7 +2996,7 @@
     </row>
     <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2970,7 +3010,7 @@
         <v>18</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2992,7 +3032,7 @@
     </row>
     <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -3063,12 +3103,12 @@
     </row>
     <row r="48" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B49" t="s">
         <v>23</v>
@@ -3125,7 +3165,7 @@
         <v>43</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3144,8 +3184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6E741F-8C66-4FFE-B62A-99CC18C85D65}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3162,12 +3202,12 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I2" s="16"/>
     </row>
@@ -3179,7 +3219,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -3188,10 +3228,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -3259,13 +3299,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3273,13 +3313,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -3287,7 +3327,7 @@
     </row>
     <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3346,7 +3386,7 @@
     </row>
     <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3360,7 +3400,7 @@
         <v>18</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -3378,7 +3418,7 @@
     </row>
     <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -3453,12 +3493,12 @@
     </row>
     <row r="48" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B49" t="s">
         <v>23</v>
@@ -3532,10 +3572,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C353D1-B0D2-4862-AB53-0799460CD224}">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3552,12 +3592,12 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3568,7 +3608,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -3580,7 +3620,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -3647,13 +3687,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3664,9 +3704,14 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
     <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3716,7 +3761,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>47</v>
@@ -3725,7 +3770,7 @@
     </row>
     <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3739,7 +3784,7 @@
         <v>18</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -3757,7 +3802,7 @@
     </row>
     <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -3776,7 +3821,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -3830,12 +3875,12 @@
     </row>
     <row r="48" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B49" t="s">
         <v>23</v>
@@ -3884,7 +3929,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>43</v>
       </c>
@@ -3892,7 +3937,58 @@
         <v>44</v>
       </c>
     </row>
+    <row r="71" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B79" t="s">
+        <v>147</v>
+      </c>
+      <c r="C79" t="s">
+        <v>148</v>
+      </c>
+      <c r="D79" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B82" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B83" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A76:E76"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="C11" r:id="rId1" xr:uid="{A6CA4FFC-409F-4606-A31C-944634A51C40}"/>
     <hyperlink ref="C52" r:id="rId2" xr:uid="{42C7859C-AE64-435F-B93B-369BA83A29D7}"/>
@@ -3925,12 +4021,12 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I1" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3941,7 +4037,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -4034,7 +4130,7 @@
     </row>
     <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4091,7 +4187,7 @@
     </row>
     <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -4105,7 +4201,7 @@
         <v>18</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -4125,7 +4221,7 @@
     </row>
     <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -4200,12 +4296,12 @@
     </row>
     <row r="48" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B49" t="s">
         <v>23</v>
@@ -4280,7 +4376,7 @@
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4296,12 +4392,12 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I1" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4312,7 +4408,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -4390,13 +4486,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -4409,7 +4505,7 @@
     </row>
     <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4472,7 +4568,7 @@
     </row>
     <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -4486,7 +4582,7 @@
         <v>18</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -4504,7 +4600,7 @@
     </row>
     <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -4577,12 +4673,12 @@
     </row>
     <row r="48" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B49" t="s">
         <v>23</v>
@@ -4684,7 +4780,7 @@
     </row>
     <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4695,7 +4791,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -4773,10 +4869,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -4792,7 +4888,7 @@
     </row>
     <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4847,7 +4943,7 @@
     </row>
     <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -4861,7 +4957,7 @@
         <v>18</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -4879,7 +4975,7 @@
     </row>
     <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -4952,12 +5048,12 @@
     </row>
     <row r="48" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>23</v>
@@ -5050,12 +5146,12 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5066,7 +5162,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -5159,7 +5255,7 @@
     </row>
     <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5218,7 +5314,7 @@
     </row>
     <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -5232,7 +5328,7 @@
         <v>18</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5250,7 +5346,7 @@
     </row>
     <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -5282,7 +5378,7 @@
     </row>
     <row r="35" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -5325,12 +5421,12 @@
     </row>
     <row r="48" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B49" t="s">
         <v>23</v>
@@ -5423,12 +5519,12 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5439,7 +5535,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -5520,7 +5616,7 @@
         <v>63</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E11" s="4"/>
     </row>
@@ -5538,7 +5634,7 @@
     </row>
     <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5597,7 +5693,7 @@
     </row>
     <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -5611,7 +5707,7 @@
         <v>18</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5629,7 +5725,7 @@
     </row>
     <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -5704,12 +5800,12 @@
     </row>
     <row r="48" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B49" t="s">
         <v>23</v>
@@ -5803,12 +5899,12 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5819,7 +5915,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -5828,10 +5924,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5898,13 +5994,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -5917,7 +6013,7 @@
     </row>
     <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5976,7 +6072,7 @@
     </row>
     <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -5990,7 +6086,7 @@
         <v>18</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -6008,7 +6104,7 @@
     </row>
     <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -6027,7 +6123,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -6081,12 +6177,12 @@
     </row>
     <row r="48" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B49" t="s">
         <v>23</v>
@@ -6180,12 +6276,12 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I1" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -6196,7 +6292,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -6205,10 +6301,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -6275,10 +6371,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E11" s="4"/>
     </row>
@@ -6292,7 +6388,7 @@
     </row>
     <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -6351,7 +6447,7 @@
     </row>
     <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -6365,7 +6461,7 @@
         <v>18</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -6387,7 +6483,7 @@
     </row>
     <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -6406,7 +6502,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -6460,12 +6556,12 @@
     </row>
     <row r="48" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B49" t="s">
         <v>23</v>

--- a/RR/excel/Appriciate_Flow.xlsx
+++ b/RR/excel/Appriciate_Flow.xlsx
@@ -9,22 +9,23 @@
   <sheets>
     <sheet name="C900" sheetId="2" r:id="rId1"/>
     <sheet name="C466" sheetId="10" r:id="rId2"/>
-    <sheet name="C1170" sheetId="21" r:id="rId3"/>
-    <sheet name="C1328" sheetId="20" r:id="rId4"/>
-    <sheet name="C1214" sheetId="4" r:id="rId5"/>
-    <sheet name="C1127" sheetId="5" r:id="rId6"/>
-    <sheet name="C1270" sheetId="6" r:id="rId7"/>
-    <sheet name="C943" sheetId="7" r:id="rId8"/>
-    <sheet name="C1083" sheetId="9" r:id="rId9"/>
-    <sheet name="C841" sheetId="11" r:id="rId10"/>
-    <sheet name="C1045" sheetId="12" r:id="rId11"/>
-    <sheet name="C1207" sheetId="13" r:id="rId12"/>
-    <sheet name="C1030" sheetId="14" r:id="rId13"/>
-    <sheet name="C1151" sheetId="15" r:id="rId14"/>
-    <sheet name="C1167" sheetId="16" r:id="rId15"/>
-    <sheet name="C1218" sheetId="17" r:id="rId16"/>
-    <sheet name="C1291" sheetId="18" r:id="rId17"/>
-    <sheet name="C1095" sheetId="19" r:id="rId18"/>
+    <sheet name="C1307" sheetId="22" r:id="rId3"/>
+    <sheet name="C1170" sheetId="21" r:id="rId4"/>
+    <sheet name="C1328" sheetId="20" r:id="rId5"/>
+    <sheet name="C1214" sheetId="4" r:id="rId6"/>
+    <sheet name="C1127" sheetId="5" r:id="rId7"/>
+    <sheet name="C1270" sheetId="6" r:id="rId8"/>
+    <sheet name="C943" sheetId="7" r:id="rId9"/>
+    <sheet name="C1083" sheetId="9" r:id="rId10"/>
+    <sheet name="C841" sheetId="11" r:id="rId11"/>
+    <sheet name="C1045" sheetId="12" r:id="rId12"/>
+    <sheet name="C1207" sheetId="13" r:id="rId13"/>
+    <sheet name="C1030" sheetId="14" r:id="rId14"/>
+    <sheet name="C1151" sheetId="15" r:id="rId15"/>
+    <sheet name="C1167" sheetId="16" r:id="rId16"/>
+    <sheet name="C1218" sheetId="17" r:id="rId17"/>
+    <sheet name="C1291" sheetId="18" r:id="rId18"/>
+    <sheet name="C1095" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -273,6 +274,29 @@
 </comments>
 </file>
 
+<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Dheeraj Chougule</author>
+  </authors>
+  <commentList>
+    <comment ref="A11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>if team is there then need to add mail according to count</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
@@ -458,7 +482,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="167">
   <si>
     <t>Advantage Club - Testing</t>
   </si>
@@ -701,6 +725,12 @@
   </si>
   <si>
     <t>Awarded list</t>
+  </si>
+  <si>
+    <t>manager1.pearl@yopmail.co</t>
+  </si>
+  <si>
+    <t>Advantage</t>
   </si>
   <si>
     <t>TECH M</t>
@@ -1627,7 +1657,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1658,6 +1688,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2373,6 +2406,387 @@
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="29.4259259259259" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.1388888888889" customWidth="1"/>
+    <col min="3" max="3" width="31.5740740740741" customWidth="1"/>
+    <col min="4" max="4" width="30.287037037037" customWidth="1"/>
+    <col min="5" max="5" width="31.712962962963" customWidth="1"/>
+    <col min="6" max="6" width="12.287037037037" customWidth="1"/>
+    <col min="9" max="9" width="18.5740740740741" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="9:9">
+      <c r="I1" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:1">
+      <c r="A17" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="5">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:1">
+      <c r="A24" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:1">
+      <c r="A28" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:1">
+      <c r="A35" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:1">
+      <c r="A48" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C30" r:id="rId3" display="employeeactest3@yopmail.com"/>
+    <hyperlink ref="C52" r:id="rId4" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="D11" r:id="rId5" display="employee2.tf@yopmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -2390,7 +2804,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -2415,10 +2829,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -2485,13 +2899,13 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -2614,7 +3028,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -2681,7 +3095,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -2738,388 +3152,6 @@
     <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
     <hyperlink ref="D11" r:id="rId4" display="employee.ac8@yopmail.com"/>
     <hyperlink ref="E11" r:id="rId5" display="employee.ac9@yopmail.com"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I66"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="29.4259259259259" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.1388888888889" customWidth="1"/>
-    <col min="3" max="3" width="31.5740740740741" customWidth="1"/>
-    <col min="4" max="4" width="30.287037037037" customWidth="1"/>
-    <col min="5" max="5" width="31.712962962963" customWidth="1"/>
-    <col min="6" max="6" width="12.287037037037" customWidth="1"/>
-    <col min="8" max="8" width="10.712962962963" customWidth="1"/>
-    <col min="9" max="9" width="28.712962962963" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="9:9">
-      <c r="I1" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:1">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="5:5">
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="3:5">
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="1:1">
-      <c r="A17" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5">
-      <c r="D18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="5">
-        <v>2</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:1">
-      <c r="A24" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="1:1">
-      <c r="A28" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="1:1">
-      <c r="A35" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="1:1">
-      <c r="A48" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
-    <hyperlink ref="C11" r:id="rId4" display="approver.dp1@yopmail.com"/>
-    <hyperlink ref="D11" r:id="rId5" display="approver.dp2@yopmail.com"/>
-    <hyperlink ref="C30" r:id="rId6" display="manager.dp2@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -3151,7 +3183,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -3169,22 +3201,18 @@
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
+        <v>129</v>
+      </c>
     </row>
     <row r="5" spans="5:5">
       <c r="E5" s="3"/>
@@ -3250,14 +3278,12 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>136</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
@@ -3277,7 +3303,7 @@
         <v>25</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3311,9 +3337,7 @@
       <c r="D20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:5">
@@ -3321,14 +3345,12 @@
         <v>33</v>
       </c>
       <c r="B21" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="5">
-        <v>3</v>
-      </c>
+      <c r="E21" s="5"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
@@ -3362,7 +3384,9 @@
       <c r="D26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
@@ -3374,7 +3398,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>16</v>
@@ -3384,7 +3408,9 @@
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="7"/>
+      <c r="C30" s="7" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
@@ -3445,12 +3471,12 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -3505,8 +3531,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
-    <hyperlink ref="D11" r:id="rId4" display="sbc2@yopmail.com"/>
-    <hyperlink ref="E11" r:id="rId5" display="sbc3@yopmail.com"/>
+    <hyperlink ref="C11" r:id="rId4" display="approver.dp1@yopmail.com"/>
+    <hyperlink ref="D11" r:id="rId5" display="approver.dp2@yopmail.com"/>
+    <hyperlink ref="C30" r:id="rId6" display="manager.dp2@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -3538,7 +3565,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -3565,10 +3592,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="5"/>
@@ -3613,7 +3640,9 @@
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="I9" s="12"/>
     </row>
     <row r="10" spans="3:5">
@@ -3635,12 +3664,14 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E11" s="7"/>
+        <v>137</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
@@ -3660,7 +3691,7 @@
         <v>25</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3694,7 +3725,9 @@
       <c r="D20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:5">
@@ -3702,12 +3735,14 @@
         <v>33</v>
       </c>
       <c r="B21" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
@@ -3824,12 +3859,391 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="D11" r:id="rId4" display="sbc2@yopmail.com"/>
+    <hyperlink ref="E11" r:id="rId5" display="sbc3@yopmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="29.4259259259259" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.1388888888889" customWidth="1"/>
+    <col min="3" max="3" width="31.5740740740741" customWidth="1"/>
+    <col min="4" max="4" width="30.287037037037" customWidth="1"/>
+    <col min="5" max="5" width="31.712962962963" customWidth="1"/>
+    <col min="6" max="6" width="12.287037037037" customWidth="1"/>
+    <col min="8" max="8" width="10.712962962963" customWidth="1"/>
+    <col min="9" max="9" width="28.712962962963" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="9:9">
+      <c r="I1" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="5:5">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:1">
+      <c r="A17" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="5">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:1">
+      <c r="A24" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:1">
+      <c r="A28" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:1">
+      <c r="A35" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:1">
+      <c r="A48" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -3893,7 +4307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I66"/>
@@ -3917,7 +4331,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -3944,10 +4358,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="5"/>
@@ -4016,10 +4430,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E11" s="7"/>
     </row>
@@ -4212,7 +4626,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -4276,7 +4690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I66"/>
@@ -4300,7 +4714,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -4327,10 +4741,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="5"/>
@@ -4399,13 +4813,13 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -4597,7 +5011,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -4646,7 +5060,7 @@
         <v>63</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4662,7 +5076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I66"/>
@@ -4685,7 +5099,7 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="9:9">
       <c r="I1" s="10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
@@ -4711,10 +5125,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -4782,13 +5196,13 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -4796,13 +5210,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" ht="15.6" spans="9:9">
@@ -5054,7 +5468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I66"/>
@@ -5077,7 +5491,7 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="9:9">
       <c r="I1" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
@@ -5105,10 +5519,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -5425,7 +5839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I66"/>
@@ -5448,7 +5862,7 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="9:9">
       <c r="I1" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
@@ -5476,10 +5890,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -6230,7 +6644,448 @@
   <sheetPr/>
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="29.4259259259259" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.1388888888889" customWidth="1"/>
+    <col min="3" max="3" width="31.5740740740741" customWidth="1"/>
+    <col min="4" max="4" width="30.287037037037" customWidth="1"/>
+    <col min="5" max="5" width="31.712962962963" customWidth="1"/>
+    <col min="6" max="6" width="12.287037037037" customWidth="1"/>
+    <col min="8" max="8" width="10.712962962963" customWidth="1"/>
+    <col min="9" max="9" width="28.712962962963" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="9:9">
+      <c r="I1" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:1">
+      <c r="A17" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="5">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:1">
+      <c r="A24" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:1">
+      <c r="A28" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:1">
+      <c r="A35" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:1">
+      <c r="A48" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" ht="23.25" customHeight="1"/>
+    <row r="76" ht="39.75" customHeight="1" spans="1:5">
+      <c r="A76" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B79" t="s">
+        <v>76</v>
+      </c>
+      <c r="C79" t="s">
+        <v>77</v>
+      </c>
+      <c r="D79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A76:E76"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C11" r:id="rId3" display="lukecooper@yopmail.com"/>
+    <hyperlink ref="C52" r:id="rId4" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="E11" r:id="rId5" display="employee2@rewards-demo.com"/>
+    <hyperlink ref="B4" r:id="rId6" display="manager1.pearl@yopmail.co"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -6248,7 +7103,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -6273,10 +7128,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -6647,7 +7502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I83"/>
@@ -6670,7 +7525,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -6695,10 +7550,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -7069,7 +7924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I66"/>
@@ -7091,7 +7946,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -7116,10 +7971,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -7183,7 +8038,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -7193,7 +8048,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -7310,7 +8165,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -7318,7 +8173,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:1">
@@ -7379,7 +8234,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -7442,7 +8297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I66"/>
@@ -7464,7 +8319,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -7489,10 +8344,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -7558,13 +8413,13 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -7666,7 +8521,7 @@
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E26" s="5"/>
     </row>
@@ -7691,7 +8546,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -7758,7 +8613,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -7826,7 +8681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I66"/>
@@ -7849,7 +8704,7 @@
     <row r="1" ht="17.25" customHeight="1" spans="3:9">
       <c r="C1" s="16"/>
       <c r="I1" s="17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -7874,10 +8729,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -7943,10 +8798,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -7955,7 +8810,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -8068,7 +8923,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -8135,7 +8990,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -8200,7 +9055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I66"/>
@@ -8222,7 +9077,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -8247,10 +9102,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -8314,7 +9169,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -8324,7 +9179,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -8441,7 +9296,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -8454,7 +9309,7 @@
     </row>
     <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -8502,7 +9357,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -8510,7 +9365,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -8573,385 +9428,4 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I66"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="29.4259259259259" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.1388888888889" customWidth="1"/>
-    <col min="3" max="3" width="31.5740740740741" customWidth="1"/>
-    <col min="4" max="4" width="30.287037037037" customWidth="1"/>
-    <col min="5" max="5" width="31.712962962963" customWidth="1"/>
-    <col min="6" max="6" width="12.287037037037" customWidth="1"/>
-    <col min="9" max="9" width="18.5740740740741" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="9:9">
-      <c r="I1" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:1">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="5:5">
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5">
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="1:1">
-      <c r="A17" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5">
-      <c r="D18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="5">
-        <v>4</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:1">
-      <c r="A24" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="1:1">
-      <c r="A28" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="1:1">
-      <c r="A35" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="1:1">
-      <c r="A48" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C30" r:id="rId3" display="employeeactest3@yopmail.com"/>
-    <hyperlink ref="C52" r:id="rId4" display="employeeacte@yopmail.com"/>
-    <hyperlink ref="D11" r:id="rId5" display="employee2.tf@yopmail.com"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/RR/excel/Appriciate_Flow.xlsx
+++ b/RR/excel/Appriciate_Flow.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AC\git\RR_Web_Automation\RR\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A189F04-0846-4708-88CC-E258CCA3A1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C900" sheetId="2" r:id="rId1"/>
@@ -28,36 +34,23 @@
     <sheet name="C1095" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -68,19 +61,19 @@
 </file>
 
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -91,19 +84,19 @@
 </file>
 
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -114,19 +107,19 @@
 </file>
 
 <file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -137,19 +130,19 @@
 </file>
 
 <file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -160,19 +153,19 @@
 </file>
 
 <file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -183,19 +176,19 @@
 </file>
 
 <file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0E00-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -206,19 +199,19 @@
 </file>
 
 <file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -229,19 +222,19 @@
 </file>
 
 <file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -252,19 +245,19 @@
 </file>
 
 <file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1100-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -275,19 +268,19 @@
 </file>
 
 <file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -298,19 +291,19 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -321,19 +314,19 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -344,19 +337,19 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -367,19 +360,19 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -390,19 +383,19 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -413,19 +406,19 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -436,19 +429,19 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -459,19 +452,19 @@
 </file>
 
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -727,9 +720,6 @@
     <t>Awarded list</t>
   </si>
   <si>
-    <t>manager1.pearl@yopmail.co</t>
-  </si>
-  <si>
     <t>Advantage</t>
   </si>
   <si>
@@ -983,19 +973,16 @@
   </si>
   <si>
     <t>Advantage!1095</t>
+  </si>
+  <si>
+    <t>manager2.pearl@yopmail.co</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1006,7 +993,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1014,7 +1001,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1022,14 +1009,14 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1037,21 +1024,21 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1059,153 +1046,17 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1214,13 +1065,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1230,182 +1081,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1413,249 +1090,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1665,7 +1103,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="6" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1686,68 +1124,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2005,12 +1400,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2019,28 +1414,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.4259259259259" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.1388888888889" customWidth="1"/>
-    <col min="3" max="3" width="31.5740740740741" customWidth="1"/>
-    <col min="4" max="4" width="30.287037037037" customWidth="1"/>
-    <col min="5" max="5" width="31.712962962963" customWidth="1"/>
-    <col min="6" max="6" width="12.287037037037" customWidth="1"/>
-    <col min="8" max="8" width="10.712962962963" customWidth="1"/>
-    <col min="9" max="9" width="34.287037037037" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="9:9">
+    <row r="1" spans="1:9" ht="15" customHeight="1">
       <c r="I1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="1:9">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2054,7 +1449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -2066,10 +1461,10 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="5:5">
+    <row r="5" spans="1:9">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -2083,7 +1478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -2094,7 +1489,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -2109,7 +1504,7 @@
       <c r="C9" s="5"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="3:5">
+    <row r="10" spans="1:9">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -2120,7 +1515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -2137,7 +1532,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="1:9">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -2151,15 +1546,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="9:9">
+    <row r="13" spans="1:9" ht="15.6">
       <c r="I13" s="13"/>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:1">
+    <row r="17" spans="1:6" s="2" customFormat="1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="1:6">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -2201,7 +1596,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -2213,12 +1608,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:1">
+    <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="1:6">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -2232,7 +1627,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -2245,12 +1640,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:1">
+    <row r="28" spans="1:6" s="2" customFormat="1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -2261,7 +1656,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="1:6">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
@@ -2269,7 +1664,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="1:6">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
@@ -2277,12 +1672,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:1">
+    <row r="35" spans="1:3" s="1" customFormat="1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -2290,7 +1685,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -2320,12 +1715,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:1">
+    <row r="48" spans="1:3" s="1" customFormat="1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -2333,7 +1728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="1:3">
       <c r="B50" s="3" t="s">
         <v>52</v>
       </c>
@@ -2352,7 +1747,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -2360,7 +1755,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -2368,7 +1763,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -2386,23 +1781,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId3" display="manageractest1@yopmail.com"/>
-    <hyperlink ref="C11" r:id="rId4" display="employeeactest2@yopmail.com"/>
-    <hyperlink ref="C52" r:id="rId5" display="employeeacte@yopmail.com"/>
-    <hyperlink ref="D11" r:id="rId6" display="employeeactest3@yopmail.com"/>
-    <hyperlink ref="E11" r:id="rId7" display="employeeactest4@yopmail.com"/>
-    <hyperlink ref="C30" r:id="rId8" display="manageractest2@yopmail.com"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C52" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C30" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2411,26 +1804,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.4259259259259" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.1388888888889" customWidth="1"/>
-    <col min="3" max="3" width="31.5740740740741" customWidth="1"/>
-    <col min="4" max="4" width="30.287037037037" customWidth="1"/>
-    <col min="5" max="5" width="31.712962962963" customWidth="1"/>
-    <col min="6" max="6" width="12.287037037037" customWidth="1"/>
-    <col min="9" max="9" width="18.5740740740741" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:9">
+    <row r="1" spans="1:9">
       <c r="I1" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="1:9">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2442,21 +1835,21 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="5:5">
+    </row>
+    <row r="5" spans="1:9">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -2470,7 +1863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -2481,7 +1874,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -2489,7 +1882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -2497,7 +1890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="3:5">
+    <row r="10" spans="1:9">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -2508,7 +1901,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -2516,31 +1909,31 @@
         <v>20</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="1:9">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:1">
+    <row r="17" spans="1:6" s="2" customFormat="1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="1:6">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -2582,7 +1975,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -2594,12 +1987,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:1">
+    <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="1:6">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -2613,7 +2006,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -2626,12 +2019,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:1">
+    <row r="28" spans="1:6" s="2" customFormat="1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -2642,7 +2035,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="1:6">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
@@ -2650,7 +2043,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="1:6">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
@@ -2658,12 +2051,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:1">
+    <row r="35" spans="1:3" s="1" customFormat="1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -2671,7 +2064,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -2701,12 +2094,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:1">
+    <row r="48" spans="1:3" s="1" customFormat="1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -2716,7 +2109,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -2736,7 +2129,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -2744,7 +2137,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -2752,7 +2145,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -2770,20 +2163,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C30" r:id="rId3" display="employeeactest3@yopmail.com"/>
-    <hyperlink ref="C52" r:id="rId4" display="employeeacte@yopmail.com"/>
-    <hyperlink ref="D11" r:id="rId5" display="employee2.tf@yopmail.com"/>
+    <hyperlink ref="C30" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="C52" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
+    <hyperlink ref="D11" r:id="rId3" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2792,27 +2183,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.4259259259259" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.1388888888889" customWidth="1"/>
-    <col min="3" max="3" width="31.5740740740741" customWidth="1"/>
-    <col min="4" max="4" width="30.287037037037" customWidth="1"/>
-    <col min="5" max="5" width="31.712962962963" customWidth="1"/>
-    <col min="6" max="6" width="12.287037037037" customWidth="1"/>
-    <col min="8" max="8" width="10.712962962963" customWidth="1"/>
-    <col min="9" max="9" width="28.712962962963" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:9">
+    <row r="1" spans="1:9">
       <c r="I1" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="1:9">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2824,21 +2215,21 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="5:5">
+    </row>
+    <row r="5" spans="1:9">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -2852,7 +2243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -2863,7 +2254,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -2880,7 +2271,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="3:5">
+    <row r="10" spans="1:9">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -2891,7 +2282,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -2899,16 +2290,16 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -2916,12 +2307,12 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:1">
+    <row r="17" spans="1:6" s="2" customFormat="1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="1:6">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -2963,7 +2354,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -2975,12 +2366,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:1">
+    <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="1:6">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -2994,7 +2385,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -3007,12 +2398,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:1">
+    <row r="28" spans="1:6" s="2" customFormat="1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -3023,26 +2414,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="1:6">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:1">
+    <row r="35" spans="1:3" s="1" customFormat="1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -3050,7 +2441,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -3080,12 +2471,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:1">
+    <row r="48" spans="1:3" s="1" customFormat="1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -3095,7 +2486,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -3115,7 +2506,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -3123,7 +2514,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -3131,7 +2522,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -3149,20 +2540,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
-    <hyperlink ref="D11" r:id="rId4" display="employee.ac8@yopmail.com"/>
-    <hyperlink ref="E11" r:id="rId5" display="employee.ac9@yopmail.com"/>
+    <hyperlink ref="C52" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="D11" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
+    <hyperlink ref="E11" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3171,27 +2560,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.4259259259259" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.1388888888889" customWidth="1"/>
-    <col min="3" max="3" width="31.5740740740741" customWidth="1"/>
-    <col min="4" max="4" width="30.287037037037" customWidth="1"/>
-    <col min="5" max="5" width="31.712962962963" customWidth="1"/>
-    <col min="6" max="6" width="12.287037037037" customWidth="1"/>
-    <col min="8" max="8" width="10.712962962963" customWidth="1"/>
-    <col min="9" max="9" width="28.712962962963" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:9">
+    <row r="1" spans="1:9">
       <c r="I1" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="1:9">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3203,21 +2592,21 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="5:5">
+    </row>
+    <row r="5" spans="1:9">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -3231,7 +2620,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -3242,7 +2631,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -3259,7 +2648,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="3:5">
+    <row r="10" spans="1:9">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -3270,7 +2659,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -3278,14 +2667,14 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="1:9">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -3293,12 +2682,12 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:1">
+    <row r="17" spans="1:6" s="2" customFormat="1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="1:6">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -3340,7 +2729,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -3352,12 +2741,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:1">
+    <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="1:6">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -3371,7 +2760,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -3388,12 +2777,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:1">
+    <row r="28" spans="1:6" s="2" customFormat="1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -3404,26 +2793,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="1:6">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:1">
+    <row r="35" spans="1:3" s="1" customFormat="1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -3431,7 +2820,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -3461,12 +2850,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:1">
+    <row r="48" spans="1:3" s="1" customFormat="1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -3476,7 +2865,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -3496,7 +2885,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -3504,7 +2893,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -3512,7 +2901,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -3530,21 +2919,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
-    <hyperlink ref="C11" r:id="rId4" display="approver.dp1@yopmail.com"/>
-    <hyperlink ref="D11" r:id="rId5" display="approver.dp2@yopmail.com"/>
-    <hyperlink ref="C30" r:id="rId6" display="manager.dp2@yopmail.com"/>
+    <hyperlink ref="C52" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
+    <hyperlink ref="D11" r:id="rId3" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
+    <hyperlink ref="C30" r:id="rId4" xr:uid="{00000000-0004-0000-0B00-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3553,27 +2940,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.4259259259259" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.1388888888889" customWidth="1"/>
-    <col min="3" max="3" width="31.5740740740741" customWidth="1"/>
-    <col min="4" max="4" width="30.287037037037" customWidth="1"/>
-    <col min="5" max="5" width="31.712962962963" customWidth="1"/>
-    <col min="6" max="6" width="12.287037037037" customWidth="1"/>
-    <col min="8" max="8" width="10.712962962963" customWidth="1"/>
-    <col min="9" max="9" width="28.712962962963" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:9">
+    <row r="1" spans="1:9">
       <c r="I1" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="1:9">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3587,23 +2974,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="5:5">
+    <row r="5" spans="1:9">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -3617,7 +3004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -3628,7 +3015,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -3645,7 +3032,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="3:5">
+    <row r="10" spans="1:9">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -3656,7 +3043,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -3664,16 +3051,16 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -3681,12 +3068,12 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:1">
+    <row r="17" spans="1:6" s="2" customFormat="1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="1:6">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -3730,7 +3117,7 @@
       </c>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -3744,12 +3131,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:1">
+    <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="1:6">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -3763,7 +3150,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -3778,12 +3165,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:1">
+    <row r="28" spans="1:6" s="2" customFormat="1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -3794,24 +3181,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="1:6">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="1:6">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:1">
+    <row r="35" spans="1:3" s="1" customFormat="1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -3819,7 +3206,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -3849,12 +3236,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:1">
+    <row r="48" spans="1:3" s="1" customFormat="1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -3864,7 +3251,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -3884,7 +3271,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -3892,7 +3279,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -3900,7 +3287,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -3918,20 +3305,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
-    <hyperlink ref="D11" r:id="rId4" display="sbc2@yopmail.com"/>
-    <hyperlink ref="E11" r:id="rId5" display="sbc3@yopmail.com"/>
+    <hyperlink ref="C52" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="D11" r:id="rId2" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
+    <hyperlink ref="E11" r:id="rId3" xr:uid="{00000000-0004-0000-0C00-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3940,27 +3325,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.4259259259259" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.1388888888889" customWidth="1"/>
-    <col min="3" max="3" width="31.5740740740741" customWidth="1"/>
-    <col min="4" max="4" width="30.287037037037" customWidth="1"/>
-    <col min="5" max="5" width="31.712962962963" customWidth="1"/>
-    <col min="6" max="6" width="12.287037037037" customWidth="1"/>
-    <col min="8" max="8" width="10.712962962963" customWidth="1"/>
-    <col min="9" max="9" width="28.712962962963" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:9">
+    <row r="1" spans="1:9">
       <c r="I1" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="1:9">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3974,23 +3359,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="5:5">
+    <row r="5" spans="1:9">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -4004,7 +3389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -4015,7 +3400,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -4030,7 +3415,7 @@
       <c r="C9" s="5"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="3:5">
+    <row r="10" spans="1:9">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -4041,7 +3426,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -4049,14 +3434,14 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="1:9">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -4064,12 +3449,12 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:1">
+    <row r="17" spans="1:6" s="2" customFormat="1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="1:6">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -4111,7 +3496,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -4123,12 +3508,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:1">
+    <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="1:6">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -4142,7 +3527,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -4157,12 +3542,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:1">
+    <row r="28" spans="1:6" s="2" customFormat="1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -4173,24 +3558,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="1:6">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="1:6">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:1">
+    <row r="35" spans="1:3" s="1" customFormat="1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -4198,7 +3583,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -4228,12 +3613,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:1">
+    <row r="48" spans="1:3" s="1" customFormat="1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -4243,7 +3628,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -4263,7 +3648,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -4271,7 +3656,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -4279,7 +3664,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -4297,19 +3682,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
-    <hyperlink ref="D11" r:id="rId4" display="user2.ac@yopmail.com"/>
+    <hyperlink ref="C52" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
+    <hyperlink ref="D11" r:id="rId2" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4318,28 +3701,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.4259259259259" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.1388888888889" customWidth="1"/>
-    <col min="3" max="3" width="31.5740740740741" customWidth="1"/>
-    <col min="4" max="4" width="30.287037037037" customWidth="1"/>
-    <col min="5" max="5" width="31.712962962963" customWidth="1"/>
-    <col min="6" max="6" width="22.287037037037" customWidth="1"/>
-    <col min="7" max="7" width="21.287037037037" customWidth="1"/>
-    <col min="8" max="8" width="10.712962962963" customWidth="1"/>
-    <col min="9" max="9" width="28.712962962963" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:9">
+    <row r="1" spans="1:9">
       <c r="I1" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="1:9">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4353,23 +3736,23 @@
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="5:5">
+    <row r="5" spans="1:9">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -4383,7 +3766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -4394,7 +3777,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -4411,7 +3794,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="3:5">
+    <row r="10" spans="1:9">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -4422,7 +3805,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -4430,14 +3813,14 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>148</v>
-      </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="1:9">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -4445,12 +3828,12 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:1">
+    <row r="17" spans="1:6" s="2" customFormat="1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="1:6">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -4492,7 +3875,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -4504,12 +3887,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:1">
+    <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="1:6">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -4523,7 +3906,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -4540,12 +3923,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:1">
+    <row r="28" spans="1:6" s="2" customFormat="1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -4556,24 +3939,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="1:6">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="1:6">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:1">
+    <row r="35" spans="1:3" s="1" customFormat="1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -4581,7 +3964,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -4611,12 +3994,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:1">
+    <row r="48" spans="1:3" s="1" customFormat="1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -4626,7 +4009,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -4646,7 +4029,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -4654,7 +4037,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -4662,7 +4045,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -4680,19 +4063,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
-    <hyperlink ref="D11" r:id="rId4" display="user1.eclerx@yopmail.com"/>
+    <hyperlink ref="C52" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink ref="D11" r:id="rId2" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4701,28 +4082,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.4259259259259" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.1388888888889" customWidth="1"/>
-    <col min="3" max="3" width="31.5740740740741" customWidth="1"/>
-    <col min="4" max="4" width="30.287037037037" customWidth="1"/>
-    <col min="5" max="5" width="31.712962962963" customWidth="1"/>
-    <col min="6" max="6" width="22.287037037037" customWidth="1"/>
-    <col min="7" max="7" width="21.287037037037" customWidth="1"/>
-    <col min="8" max="8" width="10.712962962963" customWidth="1"/>
-    <col min="9" max="9" width="28.712962962963" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:9">
+    <row r="1" spans="1:9">
       <c r="I1" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="1:9">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4736,23 +4117,23 @@
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="5:5">
+    <row r="5" spans="1:9">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -4766,7 +4147,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -4777,7 +4158,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -4794,7 +4175,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="3:5">
+    <row r="10" spans="1:9">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -4805,7 +4186,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -4813,16 +4194,16 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -4830,12 +4211,12 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:1">
+    <row r="17" spans="1:6" s="2" customFormat="1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="1:6">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -4877,7 +4258,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -4889,12 +4270,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:1">
+    <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="1:6">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -4908,7 +4289,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -4925,12 +4306,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:1">
+    <row r="28" spans="1:6" s="2" customFormat="1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -4941,24 +4322,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="1:6">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="1:6">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:1">
+    <row r="35" spans="1:3" s="1" customFormat="1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -4966,7 +4347,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -4996,12 +4377,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:1">
+    <row r="48" spans="1:3" s="1" customFormat="1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -5011,7 +4392,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -5031,7 +4412,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -5039,7 +4420,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -5047,7 +4428,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -5060,25 +4441,23 @@
         <v>63</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
-    <hyperlink ref="D11" r:id="rId4" display="emp4mg1@yopmail.com"/>
-    <hyperlink ref="E11" r:id="rId5" display="emp5mg1@yopmail.com"/>
+    <hyperlink ref="C52" r:id="rId1" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
+    <hyperlink ref="D11" r:id="rId2" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
+    <hyperlink ref="E11" r:id="rId3" xr:uid="{00000000-0004-0000-0F00-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5087,28 +4466,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.4259259259259" style="3" customWidth="1"/>
-    <col min="2" max="2" width="35.287037037037" customWidth="1"/>
-    <col min="3" max="3" width="31.5740740740741" customWidth="1"/>
-    <col min="4" max="4" width="30.287037037037" customWidth="1"/>
-    <col min="5" max="5" width="31.712962962963" customWidth="1"/>
-    <col min="6" max="6" width="12.287037037037" customWidth="1"/>
-    <col min="8" max="8" width="10.712962962963" customWidth="1"/>
-    <col min="9" max="9" width="34.287037037037" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="9:9">
+    <row r="1" spans="1:9" ht="15" customHeight="1">
       <c r="I1" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="1:9">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -5120,22 +4499,22 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>158</v>
-      </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="5:5">
+    <row r="5" spans="1:9">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -5149,7 +4528,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -5160,7 +4539,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -5177,7 +4556,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="3:5">
+    <row r="10" spans="1:9">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -5188,7 +4567,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -5196,38 +4575,38 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" ht="15.6" spans="9:9">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.6">
       <c r="I13" s="13"/>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:1">
+    <row r="17" spans="1:6" s="2" customFormat="1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="1:6">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -5269,7 +4648,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -5281,12 +4660,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:1">
+    <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="1:6">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -5300,7 +4679,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -5313,12 +4692,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:1">
+    <row r="28" spans="1:6" s="2" customFormat="1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -5329,7 +4708,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="1:6">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
@@ -5337,7 +4716,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="1:6">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
@@ -5345,12 +4724,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:1">
+    <row r="35" spans="1:3" s="1" customFormat="1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -5358,7 +4737,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -5388,12 +4767,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:1">
+    <row r="48" spans="1:3" s="1" customFormat="1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -5401,7 +4780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="1:3">
       <c r="B50" s="3" t="s">
         <v>52</v>
       </c>
@@ -5420,7 +4799,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -5428,7 +4807,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -5436,7 +4815,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -5454,23 +4833,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId3" display="tl4.ainindia@yopmail.com"/>
-    <hyperlink ref="C11" r:id="rId4" display="tl1.ainindia@yopmail.com"/>
-    <hyperlink ref="C52" r:id="rId5" display="employeeacte@yopmail.com"/>
-    <hyperlink ref="C30" r:id="rId6" display="manageractest2@yopmail.com"/>
-    <hyperlink ref="D11" r:id="rId7" display="emp2.airindia@yopmail.com"/>
-    <hyperlink ref="E11" r:id="rId8" display="emp3.airindia@yopmail.com"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{00000000-0004-0000-1000-000001000000}"/>
+    <hyperlink ref="C52" r:id="rId3" xr:uid="{00000000-0004-0000-1000-000002000000}"/>
+    <hyperlink ref="C30" r:id="rId4" xr:uid="{00000000-0004-0000-1000-000003000000}"/>
+    <hyperlink ref="D11" r:id="rId5" xr:uid="{00000000-0004-0000-1000-000004000000}"/>
+    <hyperlink ref="E11" r:id="rId6" xr:uid="{00000000-0004-0000-1000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5479,28 +4856,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.4259259259259" style="3" customWidth="1"/>
-    <col min="2" max="2" width="35.287037037037" customWidth="1"/>
-    <col min="3" max="3" width="31.5740740740741" customWidth="1"/>
-    <col min="4" max="4" width="30.287037037037" customWidth="1"/>
-    <col min="5" max="5" width="31.712962962963" customWidth="1"/>
-    <col min="6" max="6" width="12.287037037037" customWidth="1"/>
-    <col min="8" max="8" width="10.712962962963" customWidth="1"/>
-    <col min="9" max="9" width="34.287037037037" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="9:9">
+    <row r="1" spans="1:9" ht="15" customHeight="1">
       <c r="I1" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="1:9">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -5514,22 +4891,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="5:5">
+    <row r="5" spans="1:9">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -5543,7 +4920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -5554,7 +4931,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -5571,7 +4948,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="3:5">
+    <row r="10" spans="1:9">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -5582,7 +4959,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -5593,7 +4970,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="1:9">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -5601,15 +4978,15 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" ht="15.6" spans="9:9">
+    <row r="13" spans="1:9" ht="15.6">
       <c r="I13" s="13"/>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:1">
+    <row r="17" spans="1:6" s="2" customFormat="1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="1:6">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -5651,7 +5028,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -5663,12 +5040,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:1">
+    <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="1:6">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -5682,7 +5059,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -5695,12 +5072,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:1">
+    <row r="28" spans="1:6" s="2" customFormat="1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -5711,24 +5088,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="1:6">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="1:6">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:1">
+    <row r="35" spans="1:3" s="1" customFormat="1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -5736,7 +5113,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -5766,12 +5143,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:1">
+    <row r="48" spans="1:3" s="1" customFormat="1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -5779,7 +5156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="1:3">
       <c r="B50" s="3" t="s">
         <v>52</v>
       </c>
@@ -5796,7 +5173,7 @@
       </c>
       <c r="C52" s="7"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -5804,7 +5181,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -5812,7 +5189,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -5830,18 +5207,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId3" display="superuser.igtph@yopmail.com" tooltip="mailto:superuser.igtph@yopmail.com"/>
+    <hyperlink ref="B4" r:id="rId1" tooltip="mailto:superuser.igtph@yopmail.com" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -5850,28 +5225,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.4259259259259" style="3" customWidth="1"/>
-    <col min="2" max="2" width="35.287037037037" customWidth="1"/>
-    <col min="3" max="3" width="31.5740740740741" customWidth="1"/>
-    <col min="4" max="4" width="30.287037037037" customWidth="1"/>
-    <col min="5" max="5" width="31.712962962963" customWidth="1"/>
-    <col min="6" max="6" width="12.287037037037" customWidth="1"/>
-    <col min="8" max="8" width="10.712962962963" customWidth="1"/>
-    <col min="9" max="9" width="34.287037037037" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="9:9">
+    <row r="1" spans="1:9" ht="15" customHeight="1">
       <c r="I1" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="1:9">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -5885,22 +5260,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>166</v>
-      </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="5:5">
+    <row r="5" spans="1:9">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -5914,7 +5289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -5925,7 +5300,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -5942,7 +5317,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="3:5">
+    <row r="10" spans="1:9">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -5953,7 +5328,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -5964,7 +5339,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="1:9">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -5972,15 +5347,15 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" ht="15.6" spans="9:9">
+    <row r="13" spans="1:9" ht="15.6">
       <c r="I13" s="13"/>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:1">
+    <row r="17" spans="1:6" s="2" customFormat="1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="1:6">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -6022,7 +5397,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -6034,12 +5409,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:1">
+    <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="1:6">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -6053,7 +5428,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -6066,12 +5441,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:1">
+    <row r="28" spans="1:6" s="2" customFormat="1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -6082,24 +5457,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="1:6">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="1:6">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:1">
+    <row r="35" spans="1:3" s="1" customFormat="1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -6107,7 +5482,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -6137,12 +5512,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:1">
+    <row r="48" spans="1:3" s="1" customFormat="1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -6150,7 +5525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="1:3">
       <c r="B50" s="3" t="s">
         <v>52</v>
       </c>
@@ -6167,7 +5542,7 @@
       </c>
       <c r="C52" s="7"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -6175,7 +5550,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -6183,7 +5558,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -6201,15 +5576,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6218,27 +5591,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.4259259259259" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.1388888888889" customWidth="1"/>
-    <col min="3" max="3" width="31.5740740740741" customWidth="1"/>
-    <col min="4" max="4" width="30.287037037037" customWidth="1"/>
-    <col min="5" max="5" width="31.712962962963" customWidth="1"/>
-    <col min="6" max="6" width="12.287037037037" customWidth="1"/>
-    <col min="8" max="8" width="10.712962962963" customWidth="1"/>
-    <col min="9" max="9" width="28.712962962963" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:9">
+    <row r="1" spans="1:9">
       <c r="I1" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:1">
+    <row r="2" spans="1:9" s="1" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="1:9">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -6250,7 +5623,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -6261,10 +5634,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="5:5">
+    <row r="5" spans="1:9">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -6278,7 +5651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -6289,7 +5662,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -6306,7 +5679,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="3:5">
+    <row r="10" spans="1:9">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -6317,7 +5690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -6334,7 +5707,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="1:9">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -6342,17 +5715,17 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="3:3">
+    <row r="13" spans="1:9">
       <c r="C13" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:1">
+    <row r="17" spans="1:6" s="2" customFormat="1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="1:6">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -6394,7 +5767,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -6406,12 +5779,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:1">
+    <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="1:6">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -6425,7 +5798,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -6438,12 +5811,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:1">
+    <row r="28" spans="1:6" s="2" customFormat="1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -6454,7 +5827,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="1:6">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
@@ -6462,18 +5835,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="1:6">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:1">
+    <row r="35" spans="1:3" s="1" customFormat="1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -6481,7 +5854,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -6511,12 +5884,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:1">
+    <row r="48" spans="1:3" s="1" customFormat="1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -6524,7 +5897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="1:3">
       <c r="B50" s="3" t="s">
         <v>52</v>
       </c>
@@ -6543,7 +5916,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -6551,7 +5924,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -6559,7 +5932,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -6567,7 +5940,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:5">
       <c r="A66" s="3" t="s">
         <v>63</v>
       </c>
@@ -6575,17 +5948,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" ht="23.25" customHeight="1"/>
-    <row r="76" ht="39.75" customHeight="1" spans="1:5">
-      <c r="A76" s="18" t="s">
+    <row r="71" spans="1:5" ht="23.25" customHeight="1"/>
+    <row r="76" spans="1:5" ht="39.75" customHeight="1">
+      <c r="A76" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="3" t="s">
         <v>74</v>
       </c>
@@ -6593,7 +5966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:5">
       <c r="A79" s="3" t="s">
         <v>75</v>
       </c>
@@ -6628,49 +6001,47 @@
     <mergeCell ref="A76:E76"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId3" display="lukecooper@yopmail.com"/>
-    <hyperlink ref="C52" r:id="rId4" display="employeeacte@yopmail.com"/>
-    <hyperlink ref="E11" r:id="rId5" display="employee2@rewards-demo.com"/>
+    <hyperlink ref="C11" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C52" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E11" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.4259259259259" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.1388888888889" customWidth="1"/>
-    <col min="3" max="3" width="31.5740740740741" customWidth="1"/>
-    <col min="4" max="4" width="30.287037037037" customWidth="1"/>
-    <col min="5" max="5" width="31.712962962963" customWidth="1"/>
-    <col min="6" max="6" width="12.287037037037" customWidth="1"/>
-    <col min="8" max="8" width="10.712962962963" customWidth="1"/>
-    <col min="9" max="9" width="28.712962962963" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:9">
+    <row r="1" spans="1:9">
       <c r="I1" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:1">
+    <row r="2" spans="1:9" s="1" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="1:9">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -6682,21 +6053,21 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="5:5">
+    </row>
+    <row r="5" spans="1:9">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -6710,7 +6081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -6721,7 +6092,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -6738,7 +6109,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="3:5">
+    <row r="10" spans="1:9">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -6749,7 +6120,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -6766,7 +6137,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="1:9">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -6774,17 +6145,17 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="3:3">
+    <row r="13" spans="1:9">
       <c r="C13" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:1">
+    <row r="17" spans="1:6" s="2" customFormat="1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="1:6">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -6826,7 +6197,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -6838,12 +6209,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:1">
+    <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="1:6">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -6857,7 +6228,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -6870,12 +6241,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:1">
+    <row r="28" spans="1:6" s="2" customFormat="1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -6886,7 +6257,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="1:6">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
@@ -6894,18 +6265,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="1:6">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:1">
+    <row r="35" spans="1:3" s="1" customFormat="1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -6913,7 +6284,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -6943,12 +6314,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:1">
+    <row r="48" spans="1:3" s="1" customFormat="1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -6956,7 +6327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="1:3">
       <c r="B50" s="3" t="s">
         <v>52</v>
       </c>
@@ -6975,7 +6346,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -6983,7 +6354,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -6991,7 +6362,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -6999,7 +6370,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:5">
       <c r="A66" s="3" t="s">
         <v>63</v>
       </c>
@@ -7007,17 +6378,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" ht="23.25" customHeight="1"/>
-    <row r="76" ht="39.75" customHeight="1" spans="1:5">
-      <c r="A76" s="18" t="s">
+    <row r="71" spans="1:5" ht="23.25" customHeight="1"/>
+    <row r="76" spans="1:5" ht="39.75" customHeight="1">
+      <c r="A76" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="3" t="s">
         <v>74</v>
       </c>
@@ -7025,15 +6396,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:5">
       <c r="A78" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B78" s="19">
+      <c r="B78" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:5">
       <c r="A79" s="3" t="s">
         <v>75</v>
       </c>
@@ -7068,21 +6439,19 @@
     <mergeCell ref="A76:E76"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId3" display="lukecooper@yopmail.com"/>
-    <hyperlink ref="C52" r:id="rId4" display="employeeacte@yopmail.com"/>
-    <hyperlink ref="E11" r:id="rId5" display="employee2@rewards-demo.com"/>
-    <hyperlink ref="B4" r:id="rId6" display="manager1.pearl@yopmail.co"/>
+    <hyperlink ref="C11" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C52" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="E11" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7091,27 +6460,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.4259259259259" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.1388888888889" customWidth="1"/>
-    <col min="3" max="3" width="31.5740740740741" customWidth="1"/>
-    <col min="4" max="4" width="30.287037037037" customWidth="1"/>
-    <col min="5" max="5" width="31.712962962963" customWidth="1"/>
-    <col min="6" max="6" width="12.287037037037" customWidth="1"/>
-    <col min="8" max="8" width="10.712962962963" customWidth="1"/>
-    <col min="9" max="9" width="28.712962962963" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:9">
+    <row r="1" spans="1:9">
       <c r="I1" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="1:9">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -7123,21 +6492,21 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="5:5">
+    </row>
+    <row r="5" spans="1:9">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -7151,7 +6520,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -7162,7 +6531,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -7179,7 +6548,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="3:5">
+    <row r="10" spans="1:9">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -7190,7 +6559,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -7201,7 +6570,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="1:9">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -7209,15 +6578,15 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="3:3">
+    <row r="13" spans="1:9">
       <c r="C13" s="5"/>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:1">
+    <row r="17" spans="1:6" s="2" customFormat="1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="1:6">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -7259,7 +6628,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -7271,12 +6640,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:1">
+    <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="1:6">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -7290,7 +6659,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -7303,12 +6672,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:1">
+    <row r="28" spans="1:6" s="2" customFormat="1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -7319,7 +6688,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="1:6">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
@@ -7327,18 +6696,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="1:6">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:1">
+    <row r="35" spans="1:3" s="1" customFormat="1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -7346,7 +6715,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -7376,12 +6745,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:1">
+    <row r="48" spans="1:3" s="1" customFormat="1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -7389,7 +6758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="1:3">
       <c r="B50" s="3" t="s">
         <v>52</v>
       </c>
@@ -7408,7 +6777,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -7416,7 +6785,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -7424,7 +6793,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -7432,7 +6801,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:5">
       <c r="A66" s="3" t="s">
         <v>63</v>
       </c>
@@ -7440,17 +6809,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" ht="23.25" customHeight="1"/>
-    <row r="76" ht="39.75" customHeight="1" spans="1:5">
-      <c r="A76" s="18" t="s">
+    <row r="71" spans="1:5" ht="23.25" customHeight="1"/>
+    <row r="76" spans="1:5" ht="39.75" customHeight="1">
+      <c r="A76" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="3" t="s">
         <v>74</v>
       </c>
@@ -7458,7 +6827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:5">
       <c r="A79" s="3" t="s">
         <v>75</v>
       </c>
@@ -7493,18 +6862,16 @@
     <mergeCell ref="A76:E76"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="C52" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7513,27 +6880,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.4259259259259" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.1388888888889" customWidth="1"/>
-    <col min="3" max="3" width="31.5740740740741" customWidth="1"/>
-    <col min="4" max="4" width="30.287037037037" customWidth="1"/>
-    <col min="5" max="5" width="31.712962962963" customWidth="1"/>
-    <col min="6" max="6" width="12.287037037037" customWidth="1"/>
-    <col min="8" max="8" width="10.712962962963" customWidth="1"/>
-    <col min="9" max="9" width="28.712962962963" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:9">
+    <row r="1" spans="1:9">
       <c r="I1" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="1:9">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -7545,21 +6912,21 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="5:5">
+    </row>
+    <row r="5" spans="1:9">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -7573,7 +6940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -7584,7 +6951,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -7601,7 +6968,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="3:5">
+    <row r="10" spans="1:9">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -7612,7 +6979,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -7623,7 +6990,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="1:9">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -7631,15 +6998,15 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="3:3">
+    <row r="13" spans="1:9">
       <c r="C13" s="5"/>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:1">
+    <row r="17" spans="1:6" s="2" customFormat="1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="1:6">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -7681,7 +7048,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -7693,12 +7060,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:1">
+    <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="1:6">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -7712,7 +7079,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -7725,12 +7092,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:1">
+    <row r="28" spans="1:6" s="2" customFormat="1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -7741,7 +7108,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="1:6">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
@@ -7749,18 +7116,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="1:6">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:1">
+    <row r="35" spans="1:3" s="1" customFormat="1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -7768,7 +7135,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -7798,12 +7165,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:1">
+    <row r="48" spans="1:3" s="1" customFormat="1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -7811,7 +7178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="1:3">
       <c r="B50" s="3" t="s">
         <v>52</v>
       </c>
@@ -7830,7 +7197,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -7838,7 +7205,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -7846,7 +7213,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -7854,7 +7221,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:5">
       <c r="A66" s="3" t="s">
         <v>63</v>
       </c>
@@ -7862,17 +7229,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" ht="23.25" customHeight="1"/>
-    <row r="76" ht="39.75" customHeight="1" spans="1:5">
-      <c r="A76" s="18" t="s">
+    <row r="71" spans="1:5" ht="23.25" customHeight="1"/>
+    <row r="76" spans="1:5" ht="39.75" customHeight="1">
+      <c r="A76" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="3" t="s">
         <v>74</v>
       </c>
@@ -7880,7 +7247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:5">
       <c r="A79" s="3" t="s">
         <v>75</v>
       </c>
@@ -7915,18 +7282,16 @@
     <mergeCell ref="A76:E76"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="C52" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7935,26 +7300,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.4259259259259" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.1388888888889" customWidth="1"/>
-    <col min="3" max="3" width="31.5740740740741" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="31.712962962963" customWidth="1"/>
-    <col min="6" max="6" width="12.287037037037" customWidth="1"/>
-    <col min="9" max="9" width="27.1388888888889" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:9">
+    <row r="1" spans="1:9">
       <c r="I1" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="1:9">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -7966,21 +7331,21 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="5:5">
+    </row>
+    <row r="5" spans="1:9">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -7994,7 +7359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -8005,7 +7370,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -8013,13 +7378,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="3:5">
+    <row r="10" spans="1:9">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -8030,7 +7395,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -8038,27 +7403,27 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="1:9">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:1">
+    <row r="17" spans="1:6" s="2" customFormat="1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="1:6">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -8098,7 +7463,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -8110,12 +7475,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:1">
+    <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="1:6">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -8129,7 +7494,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -8144,12 +7509,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:1">
+    <row r="28" spans="1:6" s="2" customFormat="1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -8160,28 +7525,28 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="1:6">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="1:1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="1" customFormat="1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -8189,7 +7554,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -8219,12 +7584,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:1">
+    <row r="48" spans="1:3" s="1" customFormat="1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -8234,7 +7599,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -8254,7 +7619,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -8262,7 +7627,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -8270,7 +7635,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -8288,18 +7653,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="C52" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8308,26 +7671,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.4259259259259" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.1388888888889" customWidth="1"/>
-    <col min="3" max="3" width="31.5740740740741" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="31.712962962963" customWidth="1"/>
-    <col min="6" max="6" width="12.287037037037" customWidth="1"/>
-    <col min="9" max="9" width="21.4259259259259" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:9">
+    <row r="1" spans="1:9">
       <c r="I1" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="1:9">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -8339,21 +7702,21 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="5:5">
+    </row>
+    <row r="5" spans="1:9">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -8367,7 +7730,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -8378,7 +7741,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -8386,7 +7749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -8394,7 +7757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="3:5">
+    <row r="10" spans="1:9">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -8405,7 +7768,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -8413,16 +7776,16 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -8430,12 +7793,12 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:1">
+    <row r="17" spans="1:6" s="2" customFormat="1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="1:6">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -8479,7 +7842,7 @@
       </c>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -8493,12 +7856,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:1">
+    <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="1:6">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -8512,7 +7875,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -8521,16 +7884,16 @@
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:1">
+    <row r="28" spans="1:6" s="2" customFormat="1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -8541,26 +7904,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="1:6">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:1">
+    <row r="35" spans="1:3" s="1" customFormat="1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -8568,7 +7931,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -8598,12 +7961,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:1">
+    <row r="48" spans="1:3" s="1" customFormat="1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -8613,7 +7976,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -8633,7 +7996,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -8641,7 +8004,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -8649,7 +8012,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -8667,23 +8030,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId3" display="manager1.ac@yopmail.com"/>
-    <hyperlink ref="C11" r:id="rId4" display="employee6.ac@yopmail.com"/>
-    <hyperlink ref="C30" r:id="rId5" display="employee5.ac@yopmail.com"/>
-    <hyperlink ref="C52" r:id="rId6" display="employeeacte@yopmail.com"/>
-    <hyperlink ref="D11" r:id="rId7" display="employee7.ac@yopmail.com"/>
-    <hyperlink ref="E11" r:id="rId8" display="employee8.ac@yopmail.com"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="C30" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="C52" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="D11" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="E11" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8692,27 +8053,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.4259259259259" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.1388888888889" customWidth="1"/>
-    <col min="3" max="3" width="31.5740740740741" customWidth="1"/>
-    <col min="4" max="4" width="30.8518518518519" customWidth="1"/>
-    <col min="5" max="5" width="31.712962962963" customWidth="1"/>
-    <col min="6" max="6" width="12.287037037037" customWidth="1"/>
-    <col min="9" max="9" width="21.712962962963" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1" spans="3:9">
+    <row r="1" spans="1:9" ht="17.25" customHeight="1">
       <c r="C1" s="16"/>
       <c r="I1" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="1:9">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -8724,21 +8085,21 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="5:5">
+    </row>
+    <row r="5" spans="1:9">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -8752,7 +8113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -8763,7 +8124,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -8771,7 +8132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -8779,7 +8140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="3:5">
+    <row r="10" spans="1:9">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -8790,7 +8151,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -8798,29 +8159,29 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="1:9">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:1">
+    <row r="17" spans="1:6" s="2" customFormat="1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="1:6">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -8860,7 +8221,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -8870,12 +8231,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:1">
+    <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="1:6">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -8889,7 +8250,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -8902,12 +8263,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:1">
+    <row r="28" spans="1:6" s="2" customFormat="1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -8918,26 +8279,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="1:6">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:1">
+    <row r="35" spans="1:3" s="1" customFormat="1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -8945,7 +8306,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -8975,12 +8336,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:1">
+    <row r="48" spans="1:3" s="1" customFormat="1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -8990,7 +8351,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -9010,7 +8371,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -9018,7 +8379,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -9026,7 +8387,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -9044,20 +8405,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
-    <hyperlink ref="C11" r:id="rId4" display="nominee1.satven@outlook.com"/>
-    <hyperlink ref="D11" r:id="rId5" display="nominee2.satven@outlook.com"/>
+    <hyperlink ref="C52" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="D11" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
@@ -9066,26 +8425,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.4259259259259" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.1388888888889" customWidth="1"/>
-    <col min="3" max="3" width="31.5740740740741" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="31.712962962963" customWidth="1"/>
-    <col min="6" max="6" width="12.287037037037" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:9">
+    <row r="1" spans="1:9">
       <c r="I1" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="1:9">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -9097,21 +8456,21 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="5:5">
+    </row>
+    <row r="5" spans="1:9">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -9125,7 +8484,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -9136,7 +8495,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -9144,13 +8503,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="3:5">
+    <row r="10" spans="1:9">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -9161,7 +8520,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -9169,27 +8528,27 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="1:9">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:1">
+    <row r="17" spans="1:6" s="2" customFormat="1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="1:6">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -9231,7 +8590,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -9243,12 +8602,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:1">
+    <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="1:6">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -9262,7 +8621,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -9275,12 +8634,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:1">
+    <row r="28" spans="1:6" s="2" customFormat="1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -9291,15 +8650,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="1:6">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
@@ -9307,12 +8666,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:1">
+    <row r="35" spans="1:3" s="1" customFormat="1">
       <c r="A35" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -9320,7 +8679,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -9350,14 +8709,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:1">
+    <row r="48" spans="1:3" s="1" customFormat="1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -9365,7 +8724,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -9385,7 +8744,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -9393,7 +8752,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -9401,7 +8760,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -9419,13 +8778,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
-    <hyperlink ref="C30" r:id="rId4" display="employee2.ac@yopmail.com"/>
-    <hyperlink ref="B4" r:id="rId5" display="nominatorsteel@ac.in"/>
+    <hyperlink ref="C52" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="C30" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/RR/excel/Appriciate_Flow.xlsx
+++ b/RR/excel/Appriciate_Flow.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AC\git\RR_Web_Automation\RR\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A189F04-0846-4708-88CC-E258CCA3A1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="C900" sheetId="2" r:id="rId1"/>
@@ -34,23 +28,36 @@
     <sheet name="C1095" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -61,19 +68,19 @@
 </file>
 
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -84,19 +91,19 @@
 </file>
 
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -107,19 +114,19 @@
 </file>
 
 <file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -130,19 +137,19 @@
 </file>
 
 <file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000001000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -153,19 +160,19 @@
 </file>
 
 <file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -176,19 +183,19 @@
 </file>
 
 <file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0E00-000001000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -199,19 +206,19 @@
 </file>
 
 <file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000001000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -222,19 +229,19 @@
 </file>
 
 <file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1000-000001000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -245,19 +252,19 @@
 </file>
 
 <file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1100-000001000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -268,19 +275,19 @@
 </file>
 
 <file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000001000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -291,19 +298,19 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -314,19 +321,19 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -337,19 +344,19 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -360,19 +367,19 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -383,19 +390,19 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -406,19 +413,19 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -429,19 +436,19 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -452,19 +459,19 @@
 </file>
 
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -475,7 +482,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="177">
   <si>
     <t>Advantage Club - Testing</t>
   </si>
@@ -720,9 +727,42 @@
     <t>Awarded list</t>
   </si>
   <si>
+    <t>Pearl testing</t>
+  </si>
+  <si>
+    <t>manager2.pearl@yopmail.co</t>
+  </si>
+  <si>
     <t>Advantage</t>
   </si>
   <si>
+    <t>employee2.pearl@yopmail.com</t>
+  </si>
+  <si>
+    <t>employee3.pearl@yopmail.com</t>
+  </si>
+  <si>
+    <t>employee1.pearl@yopmail.com</t>
+  </si>
+  <si>
+    <t>Employee 2</t>
+  </si>
+  <si>
+    <t>Thank you for your Effort123</t>
+  </si>
+  <si>
+    <t>manager4.pearl@yopmail.com</t>
+  </si>
+  <si>
+    <t>No data found</t>
+  </si>
+  <si>
+    <t>Please select the award</t>
+  </si>
+  <si>
+    <t>Please enter minimum number of characters</t>
+  </si>
+  <si>
     <t>TECH M</t>
   </si>
   <si>
@@ -973,16 +1013,19 @@
   </si>
   <si>
     <t>Advantage!1095</t>
-  </si>
-  <si>
-    <t>manager2.pearl@yopmail.co</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -993,7 +1036,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1001,7 +1044,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1009,14 +1052,14 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1024,21 +1067,21 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1046,17 +1089,153 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1065,13 +1244,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038483843"/>
+        <fgColor theme="7" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,8 +1260,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1090,10 +1455,249 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1103,7 +1707,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="6" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1124,25 +1728,68 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1400,12 +2047,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1414,28 +2061,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="34.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="34.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="9:9">
       <c r="I1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +2096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1461,10 +2108,10 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="5:5">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1478,7 +2125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1489,7 +2136,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1504,7 +2151,7 @@
       <c r="C9" s="5"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -1515,7 +2162,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -1532,7 +2179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1546,15 +2193,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.6">
+    <row r="13" ht="15.6" spans="9:9">
       <c r="I13" s="13"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -1596,7 +2243,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -1608,12 +2255,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -1627,7 +2274,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -1640,12 +2287,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -1656,7 +2303,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
@@ -1664,7 +2311,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
@@ -1672,12 +2319,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -1685,7 +2332,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -1715,12 +2362,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -1728,7 +2375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="2:3">
       <c r="B50" s="3" t="s">
         <v>52</v>
       </c>
@@ -1747,7 +2394,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -1755,7 +2402,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -1763,7 +2410,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -1781,21 +2428,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C52" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C30" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B4" r:id="rId3" display="manageractest1@yopmail.com"/>
+    <hyperlink ref="C11" r:id="rId4" display="employeeactest2@yopmail.com"/>
+    <hyperlink ref="C52" r:id="rId5" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="D11" r:id="rId6" display="employeeactest3@yopmail.com"/>
+    <hyperlink ref="E11" r:id="rId7" display="employeeactest4@yopmail.com"/>
+    <hyperlink ref="C30" r:id="rId8" display="manageractest2@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId7"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1804,26 +2453,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="18.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1835,21 +2484,21 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1863,7 +2512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1874,7 +2523,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1882,7 +2531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -1890,7 +2539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -1901,7 +2550,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -1909,31 +2558,31 @@
         <v>20</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -1975,7 +2624,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -1987,12 +2636,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -2006,7 +2655,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -2019,12 +2668,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -2035,7 +2684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
@@ -2043,7 +2692,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
@@ -2051,12 +2700,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -2064,7 +2713,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -2094,12 +2743,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -2109,7 +2758,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -2129,7 +2778,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -2137,7 +2786,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -2145,7 +2794,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -2163,18 +2812,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C30" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-    <hyperlink ref="C52" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
-    <hyperlink ref="D11" r:id="rId3" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
+    <hyperlink ref="C30" r:id="rId3" display="employeeactest3@yopmail.com"/>
+    <hyperlink ref="C52" r:id="rId4" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="D11" r:id="rId5" display="employee2.tf@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2183,27 +2834,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="28.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2215,21 +2866,21 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -2243,7 +2894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -2254,7 +2905,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -2271,7 +2922,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -2282,7 +2933,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -2290,16 +2941,16 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -2307,12 +2958,12 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -2354,7 +3005,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -2366,12 +3017,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -2385,7 +3036,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -2398,12 +3049,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -2414,26 +3065,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -2441,7 +3092,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -2471,12 +3122,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -2486,7 +3137,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -2506,7 +3157,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -2514,7 +3165,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -2522,7 +3173,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -2540,18 +3191,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C52" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-    <hyperlink ref="D11" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
-    <hyperlink ref="E11" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
+    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="D11" r:id="rId4" display="employee.ac8@yopmail.com"/>
+    <hyperlink ref="E11" r:id="rId5" display="employee.ac9@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2560,27 +3213,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="28.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2592,21 +3245,21 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -2620,7 +3273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -2631,7 +3284,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -2648,7 +3301,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -2659,7 +3312,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -2667,14 +3320,14 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -2682,12 +3335,12 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -2729,7 +3382,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -2741,12 +3394,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -2760,7 +3413,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -2777,12 +3430,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -2793,26 +3446,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -2820,7 +3473,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -2850,12 +3503,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -2865,7 +3518,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -2885,7 +3538,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -2893,7 +3546,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -2901,7 +3554,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -2919,19 +3572,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C52" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
-    <hyperlink ref="D11" r:id="rId3" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
-    <hyperlink ref="C30" r:id="rId4" xr:uid="{00000000-0004-0000-0B00-000003000000}"/>
+    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="C11" r:id="rId4" display="approver.dp1@yopmail.com"/>
+    <hyperlink ref="D11" r:id="rId5" display="approver.dp2@yopmail.com"/>
+    <hyperlink ref="C30" r:id="rId6" display="manager.dp2@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId5"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2940,27 +3595,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="28.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2974,23 +3629,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="5:5">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -3004,7 +3659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -3015,7 +3670,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -3032,7 +3687,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -3043,7 +3698,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -3051,16 +3706,16 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -3068,12 +3723,12 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -3117,7 +3772,7 @@
       </c>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -3131,12 +3786,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -3150,7 +3805,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -3165,12 +3820,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -3181,24 +3836,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -3206,7 +3861,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -3236,12 +3891,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -3251,7 +3906,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -3271,7 +3926,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -3279,7 +3934,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -3287,7 +3942,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -3305,18 +3960,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C52" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
-    <hyperlink ref="D11" r:id="rId2" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
-    <hyperlink ref="E11" r:id="rId3" xr:uid="{00000000-0004-0000-0C00-000002000000}"/>
+    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="D11" r:id="rId4" display="sbc2@yopmail.com"/>
+    <hyperlink ref="E11" r:id="rId5" display="sbc3@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3325,27 +3982,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="28.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3359,23 +4016,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="5:5">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -3389,7 +4046,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -3400,7 +4057,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -3415,7 +4072,7 @@
       <c r="C9" s="5"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -3426,7 +4083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -3434,14 +4091,14 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -3449,12 +4106,12 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -3496,7 +4153,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -3508,12 +4165,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -3527,7 +4184,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -3542,12 +4199,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -3558,24 +4215,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -3583,7 +4240,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -3613,12 +4270,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -3628,7 +4285,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -3648,7 +4305,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -3656,7 +4313,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -3664,7 +4321,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -3682,17 +4339,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C52" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
-    <hyperlink ref="D11" r:id="rId2" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
+    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="D11" r:id="rId4" display="user2.ac@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3701,28 +4360,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="22.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="21.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="28.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:7">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3736,23 +4395,23 @@
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="5:5">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -3766,7 +4425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -3777,7 +4436,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -3794,7 +4453,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -3805,7 +4464,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -3813,14 +4472,14 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -3828,12 +4487,12 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -3875,7 +4534,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -3887,12 +4546,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -3906,7 +4565,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -3923,12 +4582,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -3939,24 +4598,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -3964,7 +4623,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -3994,12 +4653,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -4009,7 +4668,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -4029,7 +4688,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -4037,7 +4696,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -4045,7 +4704,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -4063,17 +4722,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C52" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
-    <hyperlink ref="D11" r:id="rId2" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
+    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="D11" r:id="rId4" display="user1.eclerx@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4082,28 +4743,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="22.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="21.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="28.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:7">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4117,23 +4778,23 @@
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="5:5">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -4147,7 +4808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -4158,7 +4819,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -4175,7 +4836,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -4186,7 +4847,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -4194,16 +4855,16 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -4211,12 +4872,12 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -4258,7 +4919,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -4270,12 +4931,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -4289,7 +4950,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -4306,12 +4967,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -4322,24 +4983,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -4347,7 +5008,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -4377,12 +5038,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -4392,7 +5053,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -4412,7 +5073,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -4420,7 +5081,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -4428,7 +5089,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -4441,23 +5102,25 @@
         <v>63</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C52" r:id="rId1" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
-    <hyperlink ref="D11" r:id="rId2" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
-    <hyperlink ref="E11" r:id="rId3" xr:uid="{00000000-0004-0000-0F00-000002000000}"/>
+    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="D11" r:id="rId4" display="emp4mg1@yopmail.com"/>
+    <hyperlink ref="E11" r:id="rId5" display="emp5mg1@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4466,28 +5129,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="35.33203125" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="34.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="34.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="9:9">
       <c r="I1" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4499,22 +5162,22 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="5:5">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -4528,7 +5191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -4539,7 +5202,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -4556,7 +5219,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -4567,7 +5230,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -4575,38 +5238,38 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.6">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" ht="15.6" spans="9:9">
       <c r="I13" s="13"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -4648,7 +5311,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -4660,12 +5323,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -4679,7 +5342,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -4692,12 +5355,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -4708,7 +5371,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
@@ -4716,7 +5379,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
@@ -4724,12 +5387,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -4737,7 +5400,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -4767,12 +5430,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -4780,7 +5443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="2:3">
       <c r="B50" s="3" t="s">
         <v>52</v>
       </c>
@@ -4799,7 +5462,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -4807,7 +5470,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -4815,7 +5478,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -4833,21 +5496,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{00000000-0004-0000-1000-000001000000}"/>
-    <hyperlink ref="C52" r:id="rId3" xr:uid="{00000000-0004-0000-1000-000002000000}"/>
-    <hyperlink ref="C30" r:id="rId4" xr:uid="{00000000-0004-0000-1000-000003000000}"/>
-    <hyperlink ref="D11" r:id="rId5" xr:uid="{00000000-0004-0000-1000-000004000000}"/>
-    <hyperlink ref="E11" r:id="rId6" xr:uid="{00000000-0004-0000-1000-000005000000}"/>
+    <hyperlink ref="B4" r:id="rId3" display="tl4.ainindia@yopmail.com"/>
+    <hyperlink ref="C11" r:id="rId4" display="tl1.ainindia@yopmail.com"/>
+    <hyperlink ref="C52" r:id="rId5" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="C30" r:id="rId6" display="manageractest2@yopmail.com"/>
+    <hyperlink ref="D11" r:id="rId7" display="emp2.airindia@yopmail.com"/>
+    <hyperlink ref="E11" r:id="rId8" display="emp3.airindia@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId7"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4856,28 +5521,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="35.33203125" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="34.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="34.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="9:9">
       <c r="I1" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4891,22 +5556,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="5:5">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -4920,7 +5585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -4931,7 +5596,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -4948,7 +5613,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -4959,7 +5624,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -4970,7 +5635,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -4978,15 +5643,15 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6">
+    <row r="13" ht="15.6" spans="9:9">
       <c r="I13" s="13"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -5028,7 +5693,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -5040,12 +5705,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -5059,7 +5724,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -5072,12 +5737,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -5088,24 +5753,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -5113,7 +5778,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -5143,12 +5808,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -5156,7 +5821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="2:3">
       <c r="B50" s="3" t="s">
         <v>52</v>
       </c>
@@ -5173,7 +5838,7 @@
       </c>
       <c r="C52" s="7"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -5181,7 +5846,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -5189,7 +5854,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -5207,16 +5872,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" tooltip="mailto:superuser.igtph@yopmail.com" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId3" display="superuser.igtph@yopmail.com" tooltip="mailto:superuser.igtph@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -5225,28 +5892,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="35.33203125" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="34.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="34.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="9:9">
       <c r="I1" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -5260,22 +5927,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="5:5">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -5289,7 +5956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -5300,7 +5967,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -5317,7 +5984,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -5328,7 +5995,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -5339,7 +6006,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -5347,15 +6014,15 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6">
+    <row r="13" ht="15.6" spans="9:9">
       <c r="I13" s="13"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -5397,7 +6064,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -5409,12 +6076,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -5428,7 +6095,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -5441,12 +6108,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -5457,24 +6124,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -5482,7 +6149,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -5512,12 +6179,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -5525,7 +6192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="2:3">
       <c r="B50" s="3" t="s">
         <v>52</v>
       </c>
@@ -5542,7 +6209,7 @@
       </c>
       <c r="C52" s="7"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -5550,7 +6217,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -5558,7 +6225,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -5576,13 +6243,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5591,27 +6260,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="28.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
+    <row r="2" s="1" customFormat="1" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -5623,7 +6292,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -5634,10 +6303,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="5:5">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -5651,7 +6320,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -5662,7 +6331,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -5679,7 +6348,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -5690,7 +6359,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -5707,7 +6376,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -5715,17 +6384,17 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="3:3">
       <c r="C13" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -5767,7 +6436,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -5779,12 +6448,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -5798,7 +6467,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -5811,12 +6480,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -5827,7 +6496,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
@@ -5835,18 +6504,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -5854,7 +6523,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -5884,12 +6553,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -5897,7 +6566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="2:3">
       <c r="B50" s="3" t="s">
         <v>52</v>
       </c>
@@ -5916,7 +6585,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -5924,7 +6593,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -5932,7 +6601,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -5940,7 +6609,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:2">
       <c r="A66" s="3" t="s">
         <v>63</v>
       </c>
@@ -5948,17 +6617,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="23.25" customHeight="1"/>
-    <row r="76" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A76" s="19" t="s">
+    <row r="71" ht="23.25" customHeight="1"/>
+    <row r="76" ht="39.75" customHeight="1" spans="1:5">
+      <c r="A76" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" s="3" t="s">
         <v>74</v>
       </c>
@@ -5966,7 +6635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:4">
       <c r="A79" s="3" t="s">
         <v>75</v>
       </c>
@@ -6001,47 +6670,49 @@
     <mergeCell ref="A76:E76"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C52" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="E11" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C11" r:id="rId3" display="lukecooper@yopmail.com"/>
+    <hyperlink ref="C52" r:id="rId4" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="E11" r:id="rId5" display="employee2@rewards-demo.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="28.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -6053,21 +6724,21 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -6081,7 +6752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -6092,7 +6763,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -6105,11 +6776,11 @@
         <v>15</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -6120,7 +6791,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -6128,16 +6799,16 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -6145,17 +6816,17 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="3:3">
       <c r="C13" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -6197,7 +6868,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -6209,12 +6880,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -6228,25 +6899,27 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="D26" s="5" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -6257,26 +6930,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -6284,7 +6957,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -6314,12 +6987,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -6327,7 +7000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="2:3">
       <c r="B50" s="3" t="s">
         <v>52</v>
       </c>
@@ -6340,13 +7013,13 @@
         <v>54</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -6354,7 +7027,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -6362,33 +7035,33 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="23.25" customHeight="1"/>
-    <row r="76" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A76" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" ht="23.25" customHeight="1"/>
+    <row r="76" ht="39.75" customHeight="1" spans="1:5">
+      <c r="A76" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" s="3" t="s">
         <v>74</v>
       </c>
@@ -6396,15 +7069,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:2">
       <c r="A78" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B78" s="18">
+      <c r="B78" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:4">
       <c r="A79" s="3" t="s">
         <v>75</v>
       </c>
@@ -6439,19 +7112,23 @@
     <mergeCell ref="A76:E76"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C52" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="E11" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="C11" r:id="rId3" display="employee2.pearl@yopmail.com" tooltip="mailto:employee2.pearl@yopmail.com"/>
+    <hyperlink ref="C52" r:id="rId4" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="B4" r:id="rId5" display="manager2.pearl@yopmail.co"/>
+    <hyperlink ref="D11" r:id="rId6" display="employee3.pearl@yopmail.com" tooltip="mailto:employee3.pearl@yopmail.com"/>
+    <hyperlink ref="E11" r:id="rId7" display="employee1.pearl@yopmail.com" tooltip="mailto:employee1.pearl@yopmail.com"/>
+    <hyperlink ref="C30" r:id="rId8" display="manager4.pearl@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId5"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6460,27 +7137,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="28.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -6492,21 +7169,21 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -6520,7 +7197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -6531,7 +7208,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -6548,7 +7225,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -6559,7 +7236,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -6570,7 +7247,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -6578,15 +7255,15 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="3:3">
       <c r="C13" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -6628,7 +7305,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -6640,12 +7317,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -6659,7 +7336,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -6672,12 +7349,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -6688,7 +7365,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
@@ -6696,18 +7373,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -6715,7 +7392,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -6745,12 +7422,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -6758,7 +7435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="2:3">
       <c r="B50" s="3" t="s">
         <v>52</v>
       </c>
@@ -6777,7 +7454,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -6785,7 +7462,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -6793,7 +7470,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -6801,7 +7478,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:2">
       <c r="A66" s="3" t="s">
         <v>63</v>
       </c>
@@ -6809,17 +7486,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="23.25" customHeight="1"/>
-    <row r="76" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A76" s="19" t="s">
+    <row r="71" ht="23.25" customHeight="1"/>
+    <row r="76" ht="39.75" customHeight="1" spans="1:5">
+      <c r="A76" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" s="3" t="s">
         <v>74</v>
       </c>
@@ -6827,7 +7504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:4">
       <c r="A79" s="3" t="s">
         <v>75</v>
       </c>
@@ -6862,16 +7539,18 @@
     <mergeCell ref="A76:E76"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C52" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6880,27 +7559,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="28.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -6912,21 +7591,21 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -6940,7 +7619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -6951,7 +7630,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -6968,7 +7647,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -6979,7 +7658,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -6990,7 +7669,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -6998,15 +7677,15 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="3:3">
       <c r="C13" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -7048,7 +7727,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -7060,12 +7739,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -7079,7 +7758,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -7092,12 +7771,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -7108,7 +7787,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
@@ -7116,18 +7795,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -7135,7 +7814,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -7165,12 +7844,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -7178,7 +7857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="2:3">
       <c r="B50" s="3" t="s">
         <v>52</v>
       </c>
@@ -7197,7 +7876,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -7205,7 +7884,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -7213,7 +7892,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -7221,7 +7900,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:2">
       <c r="A66" s="3" t="s">
         <v>63</v>
       </c>
@@ -7229,17 +7908,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="23.25" customHeight="1"/>
-    <row r="76" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A76" s="19" t="s">
+    <row r="71" ht="23.25" customHeight="1"/>
+    <row r="76" ht="39.75" customHeight="1" spans="1:5">
+      <c r="A76" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" s="3" t="s">
         <v>74</v>
       </c>
@@ -7247,7 +7926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:4">
       <c r="A79" s="3" t="s">
         <v>75</v>
       </c>
@@ -7282,16 +7961,18 @@
     <mergeCell ref="A76:E76"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C52" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7300,26 +7981,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="27.109375" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="27.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -7331,21 +8012,21 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -7359,7 +8040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -7370,7 +8051,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -7378,13 +8059,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -7395,7 +8076,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -7403,27 +8084,27 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -7463,7 +8144,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -7475,12 +8156,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -7494,7 +8175,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -7509,12 +8190,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -7525,28 +8206,28 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -7554,7 +8235,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -7584,12 +8265,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -7599,7 +8280,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -7619,7 +8300,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -7627,7 +8308,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -7635,7 +8316,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -7653,16 +8334,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C52" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7671,26 +8354,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="21.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -7702,21 +8385,21 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -7730,7 +8413,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -7741,7 +8424,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -7749,7 +8432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -7757,7 +8440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -7768,7 +8451,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -7776,16 +8459,16 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -7793,12 +8476,12 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -7842,7 +8525,7 @@
       </c>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -7856,12 +8539,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -7875,7 +8558,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -7884,16 +8567,16 @@
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -7904,26 +8587,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -7931,7 +8614,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -7961,12 +8644,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -7976,7 +8659,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -7996,7 +8679,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -8004,7 +8687,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -8012,7 +8695,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -8030,21 +8713,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="C30" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="C52" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="D11" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="E11" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="B4" r:id="rId3" display="manager1.ac@yopmail.com"/>
+    <hyperlink ref="C11" r:id="rId4" display="employee6.ac@yopmail.com"/>
+    <hyperlink ref="C30" r:id="rId5" display="employee5.ac@yopmail.com"/>
+    <hyperlink ref="C52" r:id="rId6" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="D11" r:id="rId7" display="employee7.ac@yopmail.com"/>
+    <hyperlink ref="E11" r:id="rId8" display="employee8.ac@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId7"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8053,27 +8738,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="30.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="21.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" customHeight="1">
+    <row r="1" ht="17.25" customHeight="1" spans="3:9">
       <c r="C1" s="16"/>
       <c r="I1" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -8085,21 +8770,21 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -8113,7 +8798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -8124,7 +8809,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -8132,7 +8817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -8140,7 +8825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -8151,7 +8836,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -8159,29 +8844,29 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -8221,7 +8906,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -8231,12 +8916,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -8250,7 +8935,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -8263,12 +8948,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -8279,26 +8964,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -8306,7 +8991,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -8336,12 +9021,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -8351,7 +9036,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -8371,7 +9056,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -8379,7 +9064,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -8387,7 +9072,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -8405,18 +9090,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C52" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="D11" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="C11" r:id="rId4" display="nominee1.satven@outlook.com"/>
+    <hyperlink ref="D11" r:id="rId5" display="nominee2.satven@outlook.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
@@ -8425,26 +9112,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -8456,21 +9143,21 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -8484,7 +9171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -8495,7 +9182,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -8503,13 +9190,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -8520,7 +9207,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -8528,27 +9215,27 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -8590,7 +9277,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -8602,12 +9289,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -8621,7 +9308,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -8634,12 +9321,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -8650,15 +9337,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
@@ -8666,12 +9353,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -8679,7 +9366,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -8709,14 +9396,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -8724,7 +9411,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -8744,7 +9431,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -8752,7 +9439,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -8760,7 +9447,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -8778,12 +9465,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C52" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="C30" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="C30" r:id="rId4" display="employee2.ac@yopmail.com"/>
+    <hyperlink ref="B4" r:id="rId5" display="nominatorsteel@ac.in"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/RR/excel/Appriciate_Flow.xlsx
+++ b/RR/excel/Appriciate_Flow.xlsx
@@ -482,7 +482,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="179">
   <si>
     <t>Advantage Club - Testing</t>
   </si>
@@ -761,6 +761,12 @@
   </si>
   <si>
     <t>Please enter minimum number of characters</t>
+  </si>
+  <si>
+    <t>Point transfer Module</t>
+  </si>
+  <si>
+    <t>Inter budget transfer</t>
   </si>
   <si>
     <t>TECH M</t>
@@ -1699,7 +1705,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1733,6 +1739,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2464,7 +2473,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -2489,10 +2498,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -2558,10 +2567,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E11" s="7"/>
     </row>
@@ -2570,10 +2579,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -2758,7 +2767,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -2846,7 +2855,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -2871,10 +2880,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -2941,13 +2950,13 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -3070,7 +3079,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -3137,7 +3146,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -3225,7 +3234,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -3250,10 +3259,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -3320,10 +3329,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E11" s="7"/>
     </row>
@@ -3451,7 +3460,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -3518,7 +3527,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -3607,7 +3616,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -3634,10 +3643,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="5"/>
@@ -3706,13 +3715,13 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -3906,7 +3915,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -3994,7 +4003,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -4021,10 +4030,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="5"/>
@@ -4091,10 +4100,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E11" s="7"/>
     </row>
@@ -4285,7 +4294,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -4373,7 +4382,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -4400,10 +4409,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="5"/>
@@ -4472,10 +4481,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E11" s="7"/>
     </row>
@@ -4668,7 +4677,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -4756,7 +4765,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -4783,10 +4792,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="5"/>
@@ -4855,13 +4864,13 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -5053,7 +5062,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -5102,7 +5111,7 @@
         <v>63</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -5141,7 +5150,7 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="9:9">
       <c r="I1" s="10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
@@ -5167,10 +5176,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -5238,13 +5247,13 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -5252,13 +5261,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" ht="15.6" spans="9:9">
@@ -5533,7 +5542,7 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="9:9">
       <c r="I1" s="10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
@@ -5561,10 +5570,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -5904,7 +5913,7 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="9:9">
       <c r="I1" s="10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
@@ -5932,10 +5941,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -6684,10 +6693,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89:E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7107,9 +7116,38 @@
         <v>5</v>
       </c>
     </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="20"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="20"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A89:E91"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C11" r:id="rId3" display="employee2.pearl@yopmail.com" tooltip="mailto:employee2.pearl@yopmail.com"/>
@@ -7149,7 +7187,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -7174,10 +7212,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -7571,7 +7609,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -7596,10 +7634,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -7992,7 +8030,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -8017,10 +8055,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -8084,7 +8122,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -8094,7 +8132,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -8211,7 +8249,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -8219,7 +8257,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:1">
@@ -8280,7 +8318,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -8365,7 +8403,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -8390,10 +8428,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -8459,13 +8497,13 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -8567,7 +8605,7 @@
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E26" s="5"/>
     </row>
@@ -8592,7 +8630,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -8659,7 +8697,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -8750,7 +8788,7 @@
     <row r="1" ht="17.25" customHeight="1" spans="3:9">
       <c r="C1" s="16"/>
       <c r="I1" s="17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -8775,10 +8813,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -8844,10 +8882,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -8856,7 +8894,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -8969,7 +9007,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -9036,7 +9074,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -9123,7 +9161,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -9148,10 +9186,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -9215,7 +9253,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -9225,7 +9263,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -9342,7 +9380,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -9355,7 +9393,7 @@
     </row>
     <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -9403,7 +9441,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -9411,7 +9449,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>

--- a/RR/excel/Appriciate_Flow.xlsx
+++ b/RR/excel/Appriciate_Flow.xlsx
@@ -4,28 +4,29 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="C900" sheetId="2" r:id="rId1"/>
     <sheet name="C466" sheetId="10" r:id="rId2"/>
     <sheet name="C1307" sheetId="22" r:id="rId3"/>
-    <sheet name="C1170" sheetId="21" r:id="rId4"/>
-    <sheet name="C1328" sheetId="20" r:id="rId5"/>
-    <sheet name="C1214" sheetId="4" r:id="rId6"/>
-    <sheet name="C1127" sheetId="5" r:id="rId7"/>
-    <sheet name="C1270" sheetId="6" r:id="rId8"/>
-    <sheet name="C943" sheetId="7" r:id="rId9"/>
-    <sheet name="C1083" sheetId="9" r:id="rId10"/>
-    <sheet name="C841" sheetId="11" r:id="rId11"/>
-    <sheet name="C1045" sheetId="12" r:id="rId12"/>
-    <sheet name="C1207" sheetId="13" r:id="rId13"/>
-    <sheet name="C1030" sheetId="14" r:id="rId14"/>
-    <sheet name="C1151" sheetId="15" r:id="rId15"/>
-    <sheet name="C1167" sheetId="16" r:id="rId16"/>
-    <sheet name="C1218" sheetId="17" r:id="rId17"/>
-    <sheet name="C1291" sheetId="18" r:id="rId18"/>
-    <sheet name="C1095" sheetId="19" r:id="rId19"/>
+    <sheet name="C1474" sheetId="23" r:id="rId4"/>
+    <sheet name="C1170" sheetId="21" r:id="rId5"/>
+    <sheet name="C1328" sheetId="20" r:id="rId6"/>
+    <sheet name="C1214" sheetId="4" r:id="rId7"/>
+    <sheet name="C1127" sheetId="5" r:id="rId8"/>
+    <sheet name="C1270" sheetId="6" r:id="rId9"/>
+    <sheet name="C943" sheetId="7" r:id="rId10"/>
+    <sheet name="C1083" sheetId="9" r:id="rId11"/>
+    <sheet name="C841" sheetId="11" r:id="rId12"/>
+    <sheet name="C1045" sheetId="12" r:id="rId13"/>
+    <sheet name="C1207" sheetId="13" r:id="rId14"/>
+    <sheet name="C1030" sheetId="14" r:id="rId15"/>
+    <sheet name="C1151" sheetId="15" r:id="rId16"/>
+    <sheet name="C1167" sheetId="16" r:id="rId17"/>
+    <sheet name="C1218" sheetId="17" r:id="rId18"/>
+    <sheet name="C1291" sheetId="18" r:id="rId19"/>
+    <sheet name="C1095" sheetId="19" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -320,6 +321,29 @@
 </comments>
 </file>
 
+<file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Dheeraj Chougule</author>
+  </authors>
+  <commentList>
+    <comment ref="A11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>if team is there then need to add mail according to count</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
@@ -482,7 +506,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="180">
   <si>
     <t>Advantage Club - Testing</t>
   </si>
@@ -763,10 +787,13 @@
     <t>Please enter minimum number of characters</t>
   </si>
   <si>
-    <t>Point transfer Module</t>
-  </si>
-  <si>
-    <t>Inter budget transfer</t>
+    <t>Backroom</t>
+  </si>
+  <si>
+    <t>admin.ac@backroom.com</t>
+  </si>
+  <si>
+    <t>Advantage!1474</t>
   </si>
   <si>
     <t>TECH M</t>
@@ -2456,6 +2483,381 @@
   <sheetPr/>
   <dimension ref="A1:I66"/>
   <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="9:9">
+      <c r="I1" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:1">
+      <c r="A17" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:1">
+      <c r="A24" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:1">
+      <c r="A28" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:1">
+      <c r="A35" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:1">
+      <c r="A48" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="C30" r:id="rId4" display="employee2.ac@yopmail.com"/>
+    <hyperlink ref="B4" r:id="rId5" display="nominatorsteel@ac.in"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I66"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11:D12"/>
     </sheetView>
@@ -2473,7 +2875,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -2498,10 +2900,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -2567,10 +2969,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E11" s="7"/>
     </row>
@@ -2579,10 +2981,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -2767,7 +3169,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -2832,7 +3234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I66"/>
@@ -2855,7 +3257,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -2880,10 +3282,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -2950,13 +3352,13 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -3079,7 +3481,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -3146,7 +3548,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -3203,388 +3605,6 @@
     <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
     <hyperlink ref="D11" r:id="rId4" display="employee.ac8@yopmail.com"/>
     <hyperlink ref="E11" r:id="rId5" display="employee.ac9@yopmail.com"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I66"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="28.6666666666667" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="9:9">
-      <c r="I1" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:1">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="5:5">
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="3:5">
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="1:1">
-      <c r="A17" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5">
-      <c r="D18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="5">
-        <v>2</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:1">
-      <c r="A24" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="1:1">
-      <c r="A28" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="1:1">
-      <c r="A35" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="1:1">
-      <c r="A48" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
-    <hyperlink ref="C11" r:id="rId4" display="approver.dp1@yopmail.com"/>
-    <hyperlink ref="D11" r:id="rId5" display="approver.dp2@yopmail.com"/>
-    <hyperlink ref="C30" r:id="rId6" display="manager.dp2@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -3616,7 +3636,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -3634,22 +3654,18 @@
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
+        <v>142</v>
+      </c>
     </row>
     <row r="5" spans="5:5">
       <c r="E5" s="3"/>
@@ -3715,14 +3731,12 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>150</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
@@ -3742,7 +3756,7 @@
         <v>25</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3776,9 +3790,7 @@
       <c r="D20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:5">
@@ -3786,14 +3798,12 @@
         <v>33</v>
       </c>
       <c r="B21" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="5">
-        <v>3</v>
-      </c>
+      <c r="E21" s="5"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
@@ -3827,7 +3837,9 @@
       <c r="D26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
@@ -3839,7 +3851,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>16</v>
@@ -3849,7 +3861,9 @@
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="7"/>
+      <c r="C30" s="7" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
@@ -3910,12 +3924,12 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -3970,8 +3984,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
-    <hyperlink ref="D11" r:id="rId4" display="sbc2@yopmail.com"/>
-    <hyperlink ref="E11" r:id="rId5" display="sbc3@yopmail.com"/>
+    <hyperlink ref="C11" r:id="rId4" display="approver.dp1@yopmail.com"/>
+    <hyperlink ref="D11" r:id="rId5" display="approver.dp2@yopmail.com"/>
+    <hyperlink ref="C30" r:id="rId6" display="manager.dp2@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -4003,7 +4018,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -4030,10 +4045,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="5"/>
@@ -4078,7 +4093,9 @@
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="I9" s="12"/>
     </row>
     <row r="10" spans="3:5">
@@ -4100,12 +4117,14 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E11" s="7"/>
+        <v>150</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
@@ -4125,7 +4144,7 @@
         <v>25</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4159,7 +4178,9 @@
       <c r="D20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:5">
@@ -4167,12 +4188,14 @@
         <v>33</v>
       </c>
       <c r="B21" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
@@ -4289,12 +4312,391 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="D11" r:id="rId4" display="sbc2@yopmail.com"/>
+    <hyperlink ref="E11" r:id="rId5" display="sbc3@yopmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="28.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="9:9">
+      <c r="I1" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="5:5">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:1">
+      <c r="A17" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="5">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:1">
+      <c r="A24" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:1">
+      <c r="A28" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:1">
+      <c r="A35" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:1">
+      <c r="A48" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -4358,7 +4760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I66"/>
@@ -4382,7 +4784,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -4409,10 +4811,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="5"/>
@@ -4481,10 +4883,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E11" s="7"/>
     </row>
@@ -4677,7 +5079,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -4741,7 +5143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I66"/>
@@ -4765,7 +5167,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -4792,10 +5194,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="5"/>
@@ -4864,13 +5266,13 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -5062,7 +5464,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -5111,7 +5513,7 @@
         <v>63</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -5127,7 +5529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I66"/>
@@ -5150,7 +5552,7 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="9:9">
       <c r="I1" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
@@ -5176,10 +5578,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -5247,13 +5649,13 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -5261,13 +5663,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" ht="15.6" spans="9:9">
@@ -5519,7 +5921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I66"/>
@@ -5542,7 +5944,7 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="9:9">
       <c r="I1" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
@@ -5570,10 +5972,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -5883,374 +6285,6 @@
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId3" display="superuser.igtph@yopmail.com" tooltip="mailto:superuser.igtph@yopmail.com"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I66"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
-    <col min="2" max="2" width="35.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="34.3333333333333" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="9:9">
-      <c r="I1" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="5:5">
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="3:5">
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" ht="15.6" spans="9:9">
-      <c r="I13" s="13"/>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="1:1">
-      <c r="A17" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5">
-      <c r="D18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="9">
-        <v>4</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:1">
-      <c r="A24" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="1:1">
-      <c r="A28" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7"/>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="1:1">
-      <c r="A35" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="1:1">
-      <c r="A48" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" s="7"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
@@ -6690,13 +6724,381 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="34.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" customHeight="1" spans="9:9">
+      <c r="I1" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="5:5">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" ht="15.6" spans="9:9">
+      <c r="I13" s="13"/>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:1">
+      <c r="A17" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="9">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:1">
+      <c r="A24" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:1">
+      <c r="A28" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:1">
+      <c r="A35" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:1">
+      <c r="A48" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="7"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89:E91"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7117,9 +7519,7 @@
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="20" t="s">
-        <v>93</v>
-      </c>
+      <c r="A89" s="20"/>
       <c r="B89" s="20"/>
       <c r="C89" s="20"/>
       <c r="D89" s="20"/>
@@ -7138,11 +7538,6 @@
       <c r="C91" s="20"/>
       <c r="D91" s="20"/>
       <c r="E91" s="20"/>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="3" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7167,6 +7562,474 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:I91"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="28.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="9:9">
+      <c r="I1" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:1">
+      <c r="A17" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="5">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:1">
+      <c r="A24" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:1">
+      <c r="A28" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:1">
+      <c r="A35" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:1">
+      <c r="A48" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" ht="23.25" customHeight="1"/>
+    <row r="76" ht="39.75" customHeight="1" spans="1:5">
+      <c r="A76" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B79" t="s">
+        <v>76</v>
+      </c>
+      <c r="C79" t="s">
+        <v>77</v>
+      </c>
+      <c r="D79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="20"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="20"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="20"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A89:E91"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C11" r:id="rId3" display="employee2.pearl@yopmail.com" tooltip="mailto:employee2.pearl@yopmail.com"/>
+    <hyperlink ref="C52" r:id="rId4" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="D11" r:id="rId5" display="employee3.pearl@yopmail.com" tooltip="mailto:employee3.pearl@yopmail.com"/>
+    <hyperlink ref="E11" r:id="rId6" display="employee1.pearl@yopmail.com" tooltip="mailto:employee1.pearl@yopmail.com"/>
+    <hyperlink ref="C30" r:id="rId7" display="manager4.pearl@yopmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7187,7 +8050,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -7212,10 +8075,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -7586,7 +8449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I83"/>
@@ -7609,7 +8472,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -7634,10 +8497,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -8008,7 +8871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I66"/>
@@ -8030,7 +8893,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -8055,10 +8918,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -8122,7 +8985,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -8132,7 +8995,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -8249,7 +9112,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -8257,7 +9120,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:1">
@@ -8318,7 +9181,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -8381,7 +9244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I66"/>
@@ -8403,7 +9266,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -8428,10 +9291,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -8497,13 +9360,13 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -8605,7 +9468,7 @@
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E26" s="5"/>
     </row>
@@ -8630,7 +9493,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -8697,7 +9560,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -8765,7 +9628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I66"/>
@@ -8788,7 +9651,7 @@
     <row r="1" ht="17.25" customHeight="1" spans="3:9">
       <c r="C1" s="16"/>
       <c r="I1" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -8813,10 +9676,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -8882,10 +9745,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -8894,7 +9757,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -9007,7 +9870,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -9074,7 +9937,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -9137,379 +10000,4 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I66"/>
-  <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="9:9">
-      <c r="I1" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:1">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="5:5">
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="3:5">
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="1:1">
-      <c r="A17" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5">
-      <c r="D18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="5">
-        <v>2</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:1">
-      <c r="A24" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="1:1">
-      <c r="A28" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="1:1">
-      <c r="A35" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="1:1">
-      <c r="A48" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B49" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
-    <hyperlink ref="C30" r:id="rId4" display="employee2.ac@yopmail.com"/>
-    <hyperlink ref="B4" r:id="rId5" display="nominatorsteel@ac.in"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/RR/excel/Appriciate_Flow.xlsx
+++ b/RR/excel/Appriciate_Flow.xlsx
@@ -1,37 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AC\git\RR_Web_Automation\RR\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A189F04-0846-4708-88CC-E258CCA3A1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3722733-C034-42F6-B905-05F87B97B3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="1000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C900" sheetId="2" r:id="rId1"/>
-    <sheet name="C466" sheetId="10" r:id="rId2"/>
-    <sheet name="C1307" sheetId="22" r:id="rId3"/>
-    <sheet name="C1170" sheetId="21" r:id="rId4"/>
-    <sheet name="C1328" sheetId="20" r:id="rId5"/>
-    <sheet name="C1214" sheetId="4" r:id="rId6"/>
-    <sheet name="C1127" sheetId="5" r:id="rId7"/>
-    <sheet name="C1270" sheetId="6" r:id="rId8"/>
-    <sheet name="C943" sheetId="7" r:id="rId9"/>
-    <sheet name="C1083" sheetId="9" r:id="rId10"/>
-    <sheet name="C841" sheetId="11" r:id="rId11"/>
-    <sheet name="C1045" sheetId="12" r:id="rId12"/>
-    <sheet name="C1207" sheetId="13" r:id="rId13"/>
-    <sheet name="C1030" sheetId="14" r:id="rId14"/>
-    <sheet name="C1151" sheetId="15" r:id="rId15"/>
-    <sheet name="C1167" sheetId="16" r:id="rId16"/>
-    <sheet name="C1218" sheetId="17" r:id="rId17"/>
-    <sheet name="C1291" sheetId="18" r:id="rId18"/>
-    <sheet name="C1095" sheetId="19" r:id="rId19"/>
+    <sheet name="C1146" sheetId="23" r:id="rId2"/>
+    <sheet name="C466" sheetId="10" r:id="rId3"/>
+    <sheet name="C1307" sheetId="22" r:id="rId4"/>
+    <sheet name="C1170" sheetId="21" r:id="rId5"/>
+    <sheet name="C1328" sheetId="20" r:id="rId6"/>
+    <sheet name="C1214" sheetId="4" r:id="rId7"/>
+    <sheet name="C1127" sheetId="5" r:id="rId8"/>
+    <sheet name="C1270" sheetId="6" r:id="rId9"/>
+    <sheet name="C943" sheetId="7" r:id="rId10"/>
+    <sheet name="C1083" sheetId="9" r:id="rId11"/>
+    <sheet name="C841" sheetId="11" r:id="rId12"/>
+    <sheet name="C1045" sheetId="12" r:id="rId13"/>
+    <sheet name="C1207" sheetId="13" r:id="rId14"/>
+    <sheet name="C1030" sheetId="14" r:id="rId15"/>
+    <sheet name="C1151" sheetId="15" r:id="rId16"/>
+    <sheet name="C1167" sheetId="16" r:id="rId17"/>
+    <sheet name="C1218" sheetId="17" r:id="rId18"/>
+    <sheet name="C1291" sheetId="18" r:id="rId19"/>
+    <sheet name="C1095" sheetId="19" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
@@ -66,7 +67,7 @@
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -89,7 +90,7 @@
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -112,7 +113,7 @@
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -135,7 +136,7 @@
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000001000000}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -158,7 +159,7 @@
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -181,7 +182,7 @@
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0E00-000001000000}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -204,7 +205,7 @@
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000001000000}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0E00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -227,7 +228,7 @@
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1000-000001000000}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -250,7 +251,7 @@
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1100-000001000000}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -273,7 +274,7 @@
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000001000000}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -296,7 +297,30 @@
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{F228939C-1D38-41FC-8F64-F6DA79EF7B05}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>if team is there then need to add mail according to count</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dheeraj Chougule</author>
+  </authors>
+  <commentList>
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -319,7 +343,7 @@
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -342,7 +366,7 @@
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -365,7 +389,7 @@
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -388,7 +412,7 @@
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -411,7 +435,7 @@
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -434,7 +458,7 @@
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -457,7 +481,7 @@
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -475,7 +499,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="173">
   <si>
     <t>Advantage Club - Testing</t>
   </si>
@@ -976,13 +1000,31 @@
   </si>
   <si>
     <t>manager2.pearl@yopmail.co</t>
+  </si>
+  <si>
+    <t>manager3.pearl@yopmail.com</t>
+  </si>
+  <si>
+    <t>manager4.pearl@yopmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upload csv </t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>ph_requester2@yopmail.com</t>
+  </si>
+  <si>
+    <t>Advantage!1146</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1055,6 +1097,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1095,7 +1145,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1127,8 +1177,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1146,6 +1203,92 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1912620</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1767840</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B2BB3A8-8078-85C0-9AA5-6DB02CE3F13C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3931920" y="15979140"/>
+          <a:ext cx="4290060" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>TRANSFER POINTS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1409,7 +1552,7 @@
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1795,6 +1938,379 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:I66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="I1" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1">
+      <c r="A17" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="D18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="24" spans="1:6" s="1" customFormat="1">
+      <c r="A24" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="28" spans="1:6" s="2" customFormat="1">
+      <c r="A28" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="B31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="1" customFormat="1">
+      <c r="A35" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="1" customFormat="1">
+      <c r="A48" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C52" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="C30" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <legacyDrawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
@@ -2173,7 +2689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
@@ -2550,7 +3066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
@@ -2930,7 +3446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
@@ -3315,7 +3831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
@@ -3691,7 +4207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
@@ -4072,7 +4588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
@@ -4456,7 +4972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
@@ -4846,7 +5362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
@@ -5215,7 +5731,396 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC5523-1D2A-4475-B3BE-70A92203D812}">
+  <dimension ref="A1:I66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="34.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1">
+      <c r="I1" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.6">
+      <c r="I13" s="13"/>
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1">
+      <c r="A17" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="D18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="5">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="24" spans="1:6" s="1" customFormat="1">
+      <c r="A24" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="28" spans="1:6" s="2" customFormat="1">
+      <c r="A28" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="B31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="1" customFormat="1">
+      <c r="A35" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="1" customFormat="1">
+      <c r="A48" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="B50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{DDDD8B5F-E206-4430-A09B-8E2F2738B754}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{1223C616-2617-43B7-B4BD-B6E1110067CA}"/>
+    <hyperlink ref="C52" r:id="rId3" xr:uid="{18023AB1-21AD-4BBF-B851-5ADF98AC1D26}"/>
+    <hyperlink ref="D11" r:id="rId4" xr:uid="{72077003-8659-439A-AF40-CC36B76C839D}"/>
+    <hyperlink ref="E11" r:id="rId5" xr:uid="{104A2A23-03BC-43F5-8FD5-0B2CE1B263A7}"/>
+    <hyperlink ref="C30" r:id="rId6" xr:uid="{B0EBAE3C-7402-437F-BA4E-691A039BF791}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
@@ -5581,7 +6486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I83"/>
   <sheetViews>
@@ -5950,13 +6855,13 @@
     </row>
     <row r="71" spans="1:5" ht="23.25" customHeight="1"/>
     <row r="76" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="3" t="s">
@@ -6011,12 +6916,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:JN91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="131" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -6065,6 +6970,10 @@
       </c>
     </row>
     <row r="5" spans="1:9">
+      <c r="B5" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="19"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:9">
@@ -6380,13 +7289,13 @@
     </row>
     <row r="71" spans="1:5" ht="23.25" customHeight="1"/>
     <row r="76" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="3" t="s">
@@ -6418,7 +7327,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:274">
       <c r="A82" s="3" t="s">
         <v>79</v>
       </c>
@@ -6426,7 +7335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:274">
       <c r="A83" s="3" t="s">
         <v>80</v>
       </c>
@@ -6434,23 +7343,601 @@
         <v>5</v>
       </c>
     </row>
+    <row r="86" spans="1:274">
+      <c r="A86" s="21"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="22"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="22"/>
+      <c r="L86" s="22"/>
+      <c r="M86" s="22"/>
+      <c r="N86" s="22"/>
+      <c r="O86" s="22"/>
+      <c r="P86" s="22"/>
+      <c r="Q86" s="22"/>
+      <c r="R86" s="22"/>
+      <c r="S86" s="22"/>
+      <c r="T86" s="22"/>
+      <c r="U86" s="22"/>
+      <c r="V86" s="22"/>
+      <c r="W86" s="22"/>
+      <c r="X86" s="22"/>
+      <c r="Y86" s="22"/>
+      <c r="Z86" s="22"/>
+      <c r="AA86" s="22"/>
+      <c r="AB86" s="22"/>
+      <c r="AC86" s="22"/>
+      <c r="AD86" s="22"/>
+      <c r="AE86" s="22"/>
+      <c r="AF86" s="22"/>
+      <c r="AG86" s="22"/>
+      <c r="AH86" s="22"/>
+      <c r="AI86" s="22"/>
+      <c r="AJ86" s="22"/>
+      <c r="AK86" s="22"/>
+      <c r="AL86" s="22"/>
+      <c r="AM86" s="22"/>
+      <c r="AN86" s="22"/>
+      <c r="AO86" s="22"/>
+      <c r="AP86" s="22"/>
+      <c r="AQ86" s="22"/>
+      <c r="AR86" s="22"/>
+      <c r="AS86" s="22"/>
+      <c r="AT86" s="22"/>
+      <c r="AU86" s="22"/>
+      <c r="AV86" s="22"/>
+      <c r="AW86" s="22"/>
+      <c r="AX86" s="22"/>
+      <c r="AY86" s="22"/>
+      <c r="AZ86" s="22"/>
+      <c r="BA86" s="22"/>
+      <c r="BB86" s="22"/>
+      <c r="BC86" s="22"/>
+      <c r="BD86" s="22"/>
+      <c r="BE86" s="22"/>
+      <c r="BF86" s="22"/>
+      <c r="BG86" s="22"/>
+      <c r="BH86" s="22"/>
+      <c r="BI86" s="22"/>
+      <c r="BJ86" s="22"/>
+      <c r="BK86" s="22"/>
+      <c r="BL86" s="22"/>
+      <c r="BM86" s="22"/>
+      <c r="BN86" s="22"/>
+      <c r="BO86" s="22"/>
+      <c r="BP86" s="22"/>
+      <c r="BQ86" s="22"/>
+      <c r="BR86" s="22"/>
+      <c r="BS86" s="22"/>
+      <c r="BT86" s="22"/>
+      <c r="BU86" s="22"/>
+      <c r="BV86" s="22"/>
+      <c r="BW86" s="22"/>
+      <c r="BX86" s="22"/>
+      <c r="BY86" s="22"/>
+      <c r="BZ86" s="22"/>
+      <c r="CA86" s="22"/>
+      <c r="CB86" s="22"/>
+      <c r="CC86" s="22"/>
+      <c r="CD86" s="22"/>
+      <c r="CE86" s="22"/>
+      <c r="CF86" s="22"/>
+      <c r="CG86" s="22"/>
+      <c r="CH86" s="22"/>
+      <c r="CI86" s="22"/>
+      <c r="CJ86" s="22"/>
+      <c r="CK86" s="22"/>
+      <c r="CL86" s="22"/>
+      <c r="CM86" s="22"/>
+      <c r="CN86" s="22"/>
+      <c r="CO86" s="22"/>
+      <c r="CP86" s="22"/>
+      <c r="CQ86" s="22"/>
+      <c r="CR86" s="22"/>
+      <c r="CS86" s="22"/>
+      <c r="CT86" s="22"/>
+      <c r="CU86" s="22"/>
+      <c r="CV86" s="22"/>
+      <c r="CW86" s="22"/>
+      <c r="CX86" s="22"/>
+      <c r="CY86" s="22"/>
+      <c r="CZ86" s="22"/>
+      <c r="DA86" s="22"/>
+      <c r="DB86" s="22"/>
+      <c r="DC86" s="22"/>
+      <c r="DD86" s="22"/>
+      <c r="DE86" s="22"/>
+      <c r="DF86" s="22"/>
+      <c r="DG86" s="22"/>
+      <c r="DH86" s="22"/>
+      <c r="DI86" s="22"/>
+      <c r="DJ86" s="22"/>
+      <c r="DK86" s="22"/>
+      <c r="DL86" s="22"/>
+      <c r="DM86" s="22"/>
+      <c r="DN86" s="22"/>
+      <c r="DO86" s="22"/>
+      <c r="DP86" s="22"/>
+      <c r="DQ86" s="22"/>
+      <c r="DR86" s="22"/>
+      <c r="DS86" s="22"/>
+      <c r="DT86" s="22"/>
+      <c r="DU86" s="22"/>
+      <c r="DV86" s="22"/>
+      <c r="DW86" s="22"/>
+      <c r="DX86" s="22"/>
+      <c r="DY86" s="22"/>
+      <c r="DZ86" s="22"/>
+      <c r="EA86" s="22"/>
+      <c r="EB86" s="22"/>
+      <c r="EC86" s="22"/>
+      <c r="ED86" s="22"/>
+      <c r="EE86" s="22"/>
+      <c r="EF86" s="22"/>
+      <c r="EG86" s="22"/>
+      <c r="EH86" s="22"/>
+      <c r="EI86" s="22"/>
+      <c r="EJ86" s="22"/>
+      <c r="EK86" s="22"/>
+      <c r="EL86" s="22"/>
+      <c r="EM86" s="22"/>
+      <c r="EN86" s="22"/>
+      <c r="EO86" s="22"/>
+      <c r="EP86" s="22"/>
+      <c r="EQ86" s="22"/>
+      <c r="ER86" s="22"/>
+      <c r="ES86" s="22"/>
+      <c r="ET86" s="22"/>
+      <c r="EU86" s="22"/>
+      <c r="EV86" s="22"/>
+      <c r="EW86" s="22"/>
+      <c r="EX86" s="22"/>
+      <c r="EY86" s="22"/>
+      <c r="EZ86" s="22"/>
+      <c r="FA86" s="22"/>
+      <c r="FB86" s="22"/>
+      <c r="FC86" s="22"/>
+      <c r="FD86" s="22"/>
+      <c r="FE86" s="22"/>
+      <c r="FF86" s="22"/>
+      <c r="FG86" s="22"/>
+      <c r="FH86" s="22"/>
+      <c r="FI86" s="22"/>
+      <c r="FJ86" s="22"/>
+      <c r="FK86" s="22"/>
+      <c r="FL86" s="22"/>
+      <c r="FM86" s="22"/>
+      <c r="FN86" s="22"/>
+      <c r="FO86" s="22"/>
+      <c r="FP86" s="22"/>
+      <c r="FQ86" s="22"/>
+      <c r="FR86" s="22"/>
+      <c r="FS86" s="22"/>
+      <c r="FT86" s="22"/>
+      <c r="FU86" s="22"/>
+      <c r="FV86" s="22"/>
+      <c r="FW86" s="22"/>
+      <c r="FX86" s="22"/>
+      <c r="FY86" s="22"/>
+      <c r="FZ86" s="22"/>
+      <c r="GA86" s="22"/>
+      <c r="GB86" s="22"/>
+      <c r="GC86" s="22"/>
+      <c r="GD86" s="22"/>
+      <c r="GE86" s="22"/>
+      <c r="GF86" s="22"/>
+      <c r="GG86" s="22"/>
+      <c r="GH86" s="22"/>
+      <c r="GI86" s="22"/>
+      <c r="GJ86" s="22"/>
+      <c r="GK86" s="22"/>
+      <c r="GL86" s="22"/>
+      <c r="GM86" s="22"/>
+      <c r="GN86" s="22"/>
+      <c r="GO86" s="22"/>
+      <c r="GP86" s="22"/>
+      <c r="GQ86" s="22"/>
+      <c r="GR86" s="22"/>
+      <c r="GS86" s="22"/>
+      <c r="GT86" s="22"/>
+      <c r="GU86" s="22"/>
+      <c r="GV86" s="22"/>
+      <c r="GW86" s="22"/>
+      <c r="GX86" s="22"/>
+      <c r="GY86" s="22"/>
+      <c r="GZ86" s="22"/>
+      <c r="HA86" s="22"/>
+      <c r="HB86" s="22"/>
+      <c r="HC86" s="22"/>
+      <c r="HD86" s="22"/>
+      <c r="HE86" s="22"/>
+      <c r="HF86" s="22"/>
+      <c r="HG86" s="22"/>
+      <c r="HH86" s="22"/>
+      <c r="HI86" s="22"/>
+      <c r="HJ86" s="22"/>
+      <c r="HK86" s="22"/>
+      <c r="HL86" s="22"/>
+      <c r="HM86" s="22"/>
+      <c r="HN86" s="22"/>
+      <c r="HO86" s="22"/>
+      <c r="HP86" s="22"/>
+      <c r="HQ86" s="22"/>
+      <c r="HR86" s="22"/>
+      <c r="HS86" s="22"/>
+      <c r="HT86" s="22"/>
+      <c r="HU86" s="22"/>
+      <c r="HV86" s="22"/>
+      <c r="HW86" s="22"/>
+      <c r="HX86" s="22"/>
+      <c r="HY86" s="22"/>
+      <c r="HZ86" s="22"/>
+      <c r="IA86" s="22"/>
+      <c r="IB86" s="22"/>
+      <c r="IC86" s="22"/>
+      <c r="ID86" s="22"/>
+      <c r="IE86" s="22"/>
+      <c r="IF86" s="22"/>
+      <c r="IG86" s="22"/>
+      <c r="IH86" s="22"/>
+      <c r="II86" s="22"/>
+      <c r="IJ86" s="22"/>
+      <c r="IK86" s="22"/>
+      <c r="IL86" s="22"/>
+      <c r="IM86" s="22"/>
+      <c r="IN86" s="22"/>
+      <c r="IO86" s="22"/>
+      <c r="IP86" s="22"/>
+      <c r="IQ86" s="22"/>
+      <c r="IR86" s="22"/>
+      <c r="IS86" s="22"/>
+      <c r="IT86" s="22"/>
+      <c r="IU86" s="22"/>
+      <c r="IV86" s="22"/>
+      <c r="IW86" s="22"/>
+      <c r="IX86" s="22"/>
+      <c r="IY86" s="22"/>
+      <c r="IZ86" s="22"/>
+      <c r="JA86" s="22"/>
+      <c r="JB86" s="22"/>
+      <c r="JC86" s="22"/>
+      <c r="JD86" s="22"/>
+      <c r="JE86" s="22"/>
+      <c r="JF86" s="22"/>
+      <c r="JG86" s="22"/>
+      <c r="JH86" s="22"/>
+      <c r="JI86" s="22"/>
+      <c r="JJ86" s="22"/>
+      <c r="JK86" s="22"/>
+      <c r="JL86" s="22"/>
+      <c r="JM86" s="22"/>
+      <c r="JN86" s="22"/>
+    </row>
+    <row r="87" spans="1:274">
+      <c r="A87" s="22"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="22"/>
+      <c r="L87" s="22"/>
+      <c r="M87" s="22"/>
+      <c r="N87" s="22"/>
+      <c r="O87" s="22"/>
+      <c r="P87" s="22"/>
+      <c r="Q87" s="22"/>
+      <c r="R87" s="22"/>
+      <c r="S87" s="22"/>
+      <c r="T87" s="22"/>
+      <c r="U87" s="22"/>
+      <c r="V87" s="22"/>
+      <c r="W87" s="22"/>
+      <c r="X87" s="22"/>
+      <c r="Y87" s="22"/>
+      <c r="Z87" s="22"/>
+      <c r="AA87" s="22"/>
+      <c r="AB87" s="22"/>
+      <c r="AC87" s="22"/>
+      <c r="AD87" s="22"/>
+      <c r="AE87" s="22"/>
+      <c r="AF87" s="22"/>
+      <c r="AG87" s="22"/>
+      <c r="AH87" s="22"/>
+      <c r="AI87" s="22"/>
+      <c r="AJ87" s="22"/>
+      <c r="AK87" s="22"/>
+      <c r="AL87" s="22"/>
+      <c r="AM87" s="22"/>
+      <c r="AN87" s="22"/>
+      <c r="AO87" s="22"/>
+      <c r="AP87" s="22"/>
+      <c r="AQ87" s="22"/>
+      <c r="AR87" s="22"/>
+      <c r="AS87" s="22"/>
+      <c r="AT87" s="22"/>
+      <c r="AU87" s="22"/>
+      <c r="AV87" s="22"/>
+      <c r="AW87" s="22"/>
+      <c r="AX87" s="22"/>
+      <c r="AY87" s="22"/>
+      <c r="AZ87" s="22"/>
+      <c r="BA87" s="22"/>
+      <c r="BB87" s="22"/>
+      <c r="BC87" s="22"/>
+      <c r="BD87" s="22"/>
+      <c r="BE87" s="22"/>
+      <c r="BF87" s="22"/>
+      <c r="BG87" s="22"/>
+      <c r="BH87" s="22"/>
+      <c r="BI87" s="22"/>
+      <c r="BJ87" s="22"/>
+      <c r="BK87" s="22"/>
+      <c r="BL87" s="22"/>
+      <c r="BM87" s="22"/>
+      <c r="BN87" s="22"/>
+      <c r="BO87" s="22"/>
+      <c r="BP87" s="22"/>
+      <c r="BQ87" s="22"/>
+      <c r="BR87" s="22"/>
+      <c r="BS87" s="22"/>
+      <c r="BT87" s="22"/>
+      <c r="BU87" s="22"/>
+      <c r="BV87" s="22"/>
+      <c r="BW87" s="22"/>
+      <c r="BX87" s="22"/>
+      <c r="BY87" s="22"/>
+      <c r="BZ87" s="22"/>
+      <c r="CA87" s="22"/>
+      <c r="CB87" s="22"/>
+      <c r="CC87" s="22"/>
+      <c r="CD87" s="22"/>
+      <c r="CE87" s="22"/>
+      <c r="CF87" s="22"/>
+      <c r="CG87" s="22"/>
+      <c r="CH87" s="22"/>
+      <c r="CI87" s="22"/>
+      <c r="CJ87" s="22"/>
+      <c r="CK87" s="22"/>
+      <c r="CL87" s="22"/>
+      <c r="CM87" s="22"/>
+      <c r="CN87" s="22"/>
+      <c r="CO87" s="22"/>
+      <c r="CP87" s="22"/>
+      <c r="CQ87" s="22"/>
+      <c r="CR87" s="22"/>
+      <c r="CS87" s="22"/>
+      <c r="CT87" s="22"/>
+      <c r="CU87" s="22"/>
+      <c r="CV87" s="22"/>
+      <c r="CW87" s="22"/>
+      <c r="CX87" s="22"/>
+      <c r="CY87" s="22"/>
+      <c r="CZ87" s="22"/>
+      <c r="DA87" s="22"/>
+      <c r="DB87" s="22"/>
+      <c r="DC87" s="22"/>
+      <c r="DD87" s="22"/>
+      <c r="DE87" s="22"/>
+      <c r="DF87" s="22"/>
+      <c r="DG87" s="22"/>
+      <c r="DH87" s="22"/>
+      <c r="DI87" s="22"/>
+      <c r="DJ87" s="22"/>
+      <c r="DK87" s="22"/>
+      <c r="DL87" s="22"/>
+      <c r="DM87" s="22"/>
+      <c r="DN87" s="22"/>
+      <c r="DO87" s="22"/>
+      <c r="DP87" s="22"/>
+      <c r="DQ87" s="22"/>
+      <c r="DR87" s="22"/>
+      <c r="DS87" s="22"/>
+      <c r="DT87" s="22"/>
+      <c r="DU87" s="22"/>
+      <c r="DV87" s="22"/>
+      <c r="DW87" s="22"/>
+      <c r="DX87" s="22"/>
+      <c r="DY87" s="22"/>
+      <c r="DZ87" s="22"/>
+      <c r="EA87" s="22"/>
+      <c r="EB87" s="22"/>
+      <c r="EC87" s="22"/>
+      <c r="ED87" s="22"/>
+      <c r="EE87" s="22"/>
+      <c r="EF87" s="22"/>
+      <c r="EG87" s="22"/>
+      <c r="EH87" s="22"/>
+      <c r="EI87" s="22"/>
+      <c r="EJ87" s="22"/>
+      <c r="EK87" s="22"/>
+      <c r="EL87" s="22"/>
+      <c r="EM87" s="22"/>
+      <c r="EN87" s="22"/>
+      <c r="EO87" s="22"/>
+      <c r="EP87" s="22"/>
+      <c r="EQ87" s="22"/>
+      <c r="ER87" s="22"/>
+      <c r="ES87" s="22"/>
+      <c r="ET87" s="22"/>
+      <c r="EU87" s="22"/>
+      <c r="EV87" s="22"/>
+      <c r="EW87" s="22"/>
+      <c r="EX87" s="22"/>
+      <c r="EY87" s="22"/>
+      <c r="EZ87" s="22"/>
+      <c r="FA87" s="22"/>
+      <c r="FB87" s="22"/>
+      <c r="FC87" s="22"/>
+      <c r="FD87" s="22"/>
+      <c r="FE87" s="22"/>
+      <c r="FF87" s="22"/>
+      <c r="FG87" s="22"/>
+      <c r="FH87" s="22"/>
+      <c r="FI87" s="22"/>
+      <c r="FJ87" s="22"/>
+      <c r="FK87" s="22"/>
+      <c r="FL87" s="22"/>
+      <c r="FM87" s="22"/>
+      <c r="FN87" s="22"/>
+      <c r="FO87" s="22"/>
+      <c r="FP87" s="22"/>
+      <c r="FQ87" s="22"/>
+      <c r="FR87" s="22"/>
+      <c r="FS87" s="22"/>
+      <c r="FT87" s="22"/>
+      <c r="FU87" s="22"/>
+      <c r="FV87" s="22"/>
+      <c r="FW87" s="22"/>
+      <c r="FX87" s="22"/>
+      <c r="FY87" s="22"/>
+      <c r="FZ87" s="22"/>
+      <c r="GA87" s="22"/>
+      <c r="GB87" s="22"/>
+      <c r="GC87" s="22"/>
+      <c r="GD87" s="22"/>
+      <c r="GE87" s="22"/>
+      <c r="GF87" s="22"/>
+      <c r="GG87" s="22"/>
+      <c r="GH87" s="22"/>
+      <c r="GI87" s="22"/>
+      <c r="GJ87" s="22"/>
+      <c r="GK87" s="22"/>
+      <c r="GL87" s="22"/>
+      <c r="GM87" s="22"/>
+      <c r="GN87" s="22"/>
+      <c r="GO87" s="22"/>
+      <c r="GP87" s="22"/>
+      <c r="GQ87" s="22"/>
+      <c r="GR87" s="22"/>
+      <c r="GS87" s="22"/>
+      <c r="GT87" s="22"/>
+      <c r="GU87" s="22"/>
+      <c r="GV87" s="22"/>
+      <c r="GW87" s="22"/>
+      <c r="GX87" s="22"/>
+      <c r="GY87" s="22"/>
+      <c r="GZ87" s="22"/>
+      <c r="HA87" s="22"/>
+      <c r="HB87" s="22"/>
+      <c r="HC87" s="22"/>
+      <c r="HD87" s="22"/>
+      <c r="HE87" s="22"/>
+      <c r="HF87" s="22"/>
+      <c r="HG87" s="22"/>
+      <c r="HH87" s="22"/>
+      <c r="HI87" s="22"/>
+      <c r="HJ87" s="22"/>
+      <c r="HK87" s="22"/>
+      <c r="HL87" s="22"/>
+      <c r="HM87" s="22"/>
+      <c r="HN87" s="22"/>
+      <c r="HO87" s="22"/>
+      <c r="HP87" s="22"/>
+      <c r="HQ87" s="22"/>
+      <c r="HR87" s="22"/>
+      <c r="HS87" s="22"/>
+      <c r="HT87" s="22"/>
+      <c r="HU87" s="22"/>
+      <c r="HV87" s="22"/>
+      <c r="HW87" s="22"/>
+      <c r="HX87" s="22"/>
+      <c r="HY87" s="22"/>
+      <c r="HZ87" s="22"/>
+      <c r="IA87" s="22"/>
+      <c r="IB87" s="22"/>
+      <c r="IC87" s="22"/>
+      <c r="ID87" s="22"/>
+      <c r="IE87" s="22"/>
+      <c r="IF87" s="22"/>
+      <c r="IG87" s="22"/>
+      <c r="IH87" s="22"/>
+      <c r="II87" s="22"/>
+      <c r="IJ87" s="22"/>
+      <c r="IK87" s="22"/>
+      <c r="IL87" s="22"/>
+      <c r="IM87" s="22"/>
+      <c r="IN87" s="22"/>
+      <c r="IO87" s="22"/>
+      <c r="IP87" s="22"/>
+      <c r="IQ87" s="22"/>
+      <c r="IR87" s="22"/>
+      <c r="IS87" s="22"/>
+      <c r="IT87" s="22"/>
+      <c r="IU87" s="22"/>
+      <c r="IV87" s="22"/>
+      <c r="IW87" s="22"/>
+      <c r="IX87" s="22"/>
+      <c r="IY87" s="22"/>
+      <c r="IZ87" s="22"/>
+      <c r="JA87" s="22"/>
+      <c r="JB87" s="22"/>
+      <c r="JC87" s="22"/>
+      <c r="JD87" s="22"/>
+      <c r="JE87" s="22"/>
+      <c r="JF87" s="22"/>
+      <c r="JG87" s="22"/>
+      <c r="JH87" s="22"/>
+      <c r="JI87" s="22"/>
+      <c r="JJ87" s="22"/>
+      <c r="JK87" s="22"/>
+      <c r="JL87" s="22"/>
+      <c r="JM87" s="22"/>
+      <c r="JN87" s="22"/>
+    </row>
+    <row r="88" spans="1:274">
+      <c r="B88" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:274">
+      <c r="B89" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="90" spans="1:274">
+      <c r="B90" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="91" spans="1:274">
+      <c r="A91" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B91" t="s">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A86:JN87"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C11" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink ref="C52" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
     <hyperlink ref="E11" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
     <hyperlink ref="B4" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="B90" r:id="rId5" xr:uid="{813F70F5-5CD4-4A45-BFA0-8224E7E5D649}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId5"/>
+  <drawing r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I83"/>
   <sheetViews>
@@ -6811,13 +8298,13 @@
     </row>
     <row r="71" spans="1:5" ht="23.25" customHeight="1"/>
     <row r="76" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="3" t="s">
@@ -6870,7 +8357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I83"/>
   <sheetViews>
@@ -7231,13 +8718,13 @@
     </row>
     <row r="71" spans="1:5" ht="23.25" customHeight="1"/>
     <row r="76" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="3" t="s">
@@ -7290,7 +8777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
@@ -7661,7 +9148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
@@ -8043,7 +9530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
@@ -8413,377 +9900,4 @@
   <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId4"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:I66"/>
-  <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="I1" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="B12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
-      <c r="A17" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="D18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="5">
-        <v>2</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
-      <c r="A24" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="B25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
-      <c r="A28" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="B30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="B31" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
-      <c r="A35" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
-      <c r="A48" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B49" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C52" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="C30" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId4"/>
-</worksheet>
 </file>
--- a/RR/excel/Appriciate_Flow.xlsx
+++ b/RR/excel/Appriciate_Flow.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AC\git\RR_Web_Automation\RR\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15FA3E5-BE2A-4DAA-878A-088C49EBBC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="1000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9000" tabRatio="1000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="C900" sheetId="2" r:id="rId1"/>
@@ -35,23 +29,36 @@
     <sheet name="C1095" sheetId="19" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -62,19 +69,19 @@
 </file>
 
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -85,19 +92,19 @@
 </file>
 
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -108,19 +115,19 @@
 </file>
 
 <file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -131,19 +138,19 @@
 </file>
 
 <file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -154,19 +161,19 @@
 </file>
 
 <file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000001000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -177,19 +184,19 @@
 </file>
 
 <file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -200,19 +207,19 @@
 </file>
 
 <file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0E00-000001000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -223,19 +230,19 @@
 </file>
 
 <file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000001000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -246,19 +253,19 @@
 </file>
 
 <file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1000-000001000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -269,19 +276,19 @@
 </file>
 
 <file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1100-000001000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -292,19 +299,19 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{F228939C-1D38-41FC-8F64-F6DA79EF7B05}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -315,19 +322,19 @@
 </file>
 
 <file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000001000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -338,19 +345,19 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -361,19 +368,19 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -384,19 +391,19 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -407,19 +414,19 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -430,19 +437,19 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -453,19 +460,19 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -476,19 +483,19 @@
 </file>
 
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dheeraj Chougule</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>if team is there then need to add mail according to count</t>
         </r>
@@ -499,7 +506,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="179">
   <si>
     <t>Advantage Club - Testing</t>
   </si>
@@ -696,6 +703,15 @@
     <t>Please provide the message.</t>
   </si>
   <si>
+    <t>ph_requester2@yopmail.com</t>
+  </si>
+  <si>
+    <t>Advantage!1146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test 5 employee </t>
+  </si>
+  <si>
     <t>Reward Demo</t>
   </si>
   <si>
@@ -744,9 +760,39 @@
     <t>Awarded list</t>
   </si>
   <si>
+    <t>manager2.pearl@yopmail.co</t>
+  </si>
+  <si>
     <t>Advantage</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>employee1.pearl@yopmail.com</t>
+  </si>
+  <si>
+    <t>employee2.pearl@yopmail.com</t>
+  </si>
+  <si>
+    <t>employee3.pearl@yopmail.com</t>
+  </si>
+  <si>
+    <t>No data found</t>
+  </si>
+  <si>
+    <t>Please select the award</t>
+  </si>
+  <si>
+    <t>manager3.pearl@yopmail.com</t>
+  </si>
+  <si>
+    <t>manager4.pearl@yopmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upload csv </t>
+  </si>
+  <si>
     <t>TECH M</t>
   </si>
   <si>
@@ -997,37 +1043,19 @@
   </si>
   <si>
     <t>Advantage!1095</t>
-  </si>
-  <si>
-    <t>manager2.pearl@yopmail.co</t>
-  </si>
-  <si>
-    <t>manager3.pearl@yopmail.com</t>
-  </si>
-  <si>
-    <t>manager4.pearl@yopmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upload csv </t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>ph_requester2@yopmail.com</t>
-  </si>
-  <si>
-    <t>Advantage!1146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test 5 employee </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1038,7 +1066,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1046,7 +1074,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1054,14 +1082,14 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1069,21 +1097,21 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1091,32 +1119,168 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1125,13 +1289,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038483843"/>
+        <fgColor theme="7" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1141,8 +1305,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1150,10 +1500,249 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1163,7 +1752,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="6" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1184,40 +1773,83 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1231,20 +1863,14 @@
       <xdr:row>86</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B2BB3A8-8078-85C0-9AA5-6DB02CE3F13C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3931920" y="15979140"/>
+          <a:off x="3931920" y="15986760"/>
           <a:ext cx="4290060" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1288,6 +1914,12 @@
             </a:rPr>
             <a:t>TRANSFER POINTS</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1800" b="1" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1100"/>
@@ -1554,42 +2186,42 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="A1:XFD1048576"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="34.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="34.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="9:9">
       <c r="I1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1603,7 +2235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1615,10 +2247,10 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="5:5">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1632,7 +2264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1643,7 +2275,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1658,7 +2290,7 @@
       <c r="C9" s="5"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -1669,7 +2301,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -1686,7 +2318,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1700,15 +2332,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.6">
+    <row r="13" ht="15.6" spans="9:9">
       <c r="I13" s="13"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -1750,7 +2382,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -1762,12 +2394,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -1781,7 +2413,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -1794,12 +2426,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -1810,7 +2442,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
@@ -1818,7 +2450,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
@@ -1826,12 +2458,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -1839,7 +2471,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -1869,12 +2501,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -1882,7 +2514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="2:3">
       <c r="B50" s="3" t="s">
         <v>52</v>
       </c>
@@ -1901,7 +2533,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -1909,7 +2541,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -1917,7 +2549,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -1935,21 +2567,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C52" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C30" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B4" r:id="rId3" display="manageractest1@yopmail.com"/>
+    <hyperlink ref="C11" r:id="rId4" display="employeeactest2@yopmail.com"/>
+    <hyperlink ref="C52" r:id="rId5" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="D11" r:id="rId6" display="employeeactest3@yopmail.com"/>
+    <hyperlink ref="E11" r:id="rId7" display="employeeactest4@yopmail.com"/>
+    <hyperlink ref="C30" r:id="rId8" display="manageractest2@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId7"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
@@ -1958,26 +2592,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1989,21 +2623,21 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -2017,7 +2651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -2028,7 +2662,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -2036,13 +2670,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -2053,7 +2687,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -2061,27 +2695,27 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -2123,7 +2757,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -2135,12 +2769,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -2154,7 +2788,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -2167,12 +2801,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -2183,15 +2817,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
@@ -2199,12 +2833,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -2212,7 +2846,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -2242,14 +2876,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -2257,7 +2891,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -2277,7 +2911,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -2285,7 +2919,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -2293,7 +2927,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -2311,18 +2945,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C52" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="C30" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="C30" r:id="rId4" display="employee2.ac@yopmail.com"/>
+    <hyperlink ref="B4" r:id="rId5" display="nominatorsteel@ac.in"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2331,26 +2967,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="18.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2362,21 +2998,21 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -2390,7 +3026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -2401,7 +3037,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -2409,7 +3045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -2417,7 +3053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -2428,7 +3064,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -2436,31 +3072,31 @@
         <v>20</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -2502,7 +3138,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -2514,12 +3150,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -2533,7 +3169,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -2546,12 +3182,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -2562,7 +3198,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
@@ -2570,7 +3206,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
@@ -2578,12 +3214,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -2591,7 +3227,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -2621,12 +3257,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -2636,7 +3272,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -2656,7 +3292,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -2664,7 +3300,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -2672,7 +3308,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -2690,18 +3326,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C30" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-    <hyperlink ref="C52" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
-    <hyperlink ref="D11" r:id="rId3" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
+    <hyperlink ref="C30" r:id="rId3" display="employeeactest3@yopmail.com"/>
+    <hyperlink ref="C52" r:id="rId4" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="D11" r:id="rId5" display="employee2.tf@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2710,27 +3348,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="28.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2742,21 +3380,21 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -2770,7 +3408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -2781,7 +3419,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -2798,7 +3436,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -2809,7 +3447,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -2817,16 +3455,16 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -2834,12 +3472,12 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -2881,7 +3519,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -2893,12 +3531,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -2912,7 +3550,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -2925,12 +3563,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -2941,26 +3579,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -2968,7 +3606,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -2998,12 +3636,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -3013,7 +3651,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -3033,7 +3671,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -3041,7 +3679,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -3049,7 +3687,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -3067,18 +3705,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C52" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-    <hyperlink ref="D11" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
-    <hyperlink ref="E11" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
+    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="D11" r:id="rId4" display="employee.ac8@yopmail.com"/>
+    <hyperlink ref="E11" r:id="rId5" display="employee.ac9@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3087,27 +3727,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="28.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3119,21 +3759,21 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -3147,7 +3787,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -3158,7 +3798,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -3175,7 +3815,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -3186,7 +3826,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -3194,14 +3834,14 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -3209,12 +3849,12 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -3256,7 +3896,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -3268,12 +3908,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -3287,7 +3927,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -3304,12 +3944,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -3320,26 +3960,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -3347,7 +3987,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -3377,12 +4017,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -3392,7 +4032,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -3412,7 +4052,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -3420,7 +4060,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -3428,7 +4068,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -3446,19 +4086,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C52" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
-    <hyperlink ref="D11" r:id="rId3" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
-    <hyperlink ref="C30" r:id="rId4" xr:uid="{00000000-0004-0000-0B00-000003000000}"/>
+    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="C11" r:id="rId4" display="approver.dp1@yopmail.com"/>
+    <hyperlink ref="D11" r:id="rId5" display="approver.dp2@yopmail.com"/>
+    <hyperlink ref="C30" r:id="rId6" display="manager.dp2@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId5"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3467,27 +4109,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="28.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3501,23 +4143,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="5:5">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -3531,7 +4173,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -3542,7 +4184,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -3559,7 +4201,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -3570,7 +4212,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -3578,16 +4220,16 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -3595,12 +4237,12 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -3644,7 +4286,7 @@
       </c>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -3658,12 +4300,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -3677,7 +4319,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -3692,12 +4334,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -3708,24 +4350,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -3733,7 +4375,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -3763,12 +4405,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -3778,7 +4420,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -3798,7 +4440,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -3806,7 +4448,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -3814,7 +4456,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -3832,18 +4474,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C52" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
-    <hyperlink ref="D11" r:id="rId2" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
-    <hyperlink ref="E11" r:id="rId3" xr:uid="{00000000-0004-0000-0C00-000002000000}"/>
+    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="D11" r:id="rId4" display="sbc2@yopmail.com"/>
+    <hyperlink ref="E11" r:id="rId5" display="sbc3@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3852,27 +4496,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="28.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3886,23 +4530,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="5:5">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -3916,7 +4560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -3927,7 +4571,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -3942,7 +4586,7 @@
       <c r="C9" s="5"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -3953,7 +4597,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -3961,14 +4605,14 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -3976,12 +4620,12 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -4023,7 +4667,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -4035,12 +4679,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -4054,7 +4698,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -4069,12 +4713,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -4085,24 +4729,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -4110,7 +4754,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -4140,12 +4784,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -4155,7 +4799,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -4175,7 +4819,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -4183,7 +4827,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -4191,7 +4835,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -4209,17 +4853,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C52" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
-    <hyperlink ref="D11" r:id="rId2" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
+    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="D11" r:id="rId4" display="user2.ac@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4228,28 +4874,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="22.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="21.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="28.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:7">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4263,23 +4909,23 @@
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="5:5">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -4293,7 +4939,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -4304,7 +4950,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -4321,7 +4967,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -4332,7 +4978,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -4340,14 +4986,14 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -4355,12 +5001,12 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -4402,7 +5048,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -4414,12 +5060,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -4433,7 +5079,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -4450,12 +5096,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -4466,24 +5112,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -4491,7 +5137,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -4521,12 +5167,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -4536,7 +5182,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -4556,7 +5202,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -4564,7 +5210,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -4572,7 +5218,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -4590,17 +5236,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C52" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
-    <hyperlink ref="D11" r:id="rId2" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
+    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="D11" r:id="rId4" display="user1.eclerx@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4609,28 +5257,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="22.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="21.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="28.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:7">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4644,23 +5292,23 @@
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="5:5">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -4674,7 +5322,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -4685,7 +5333,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -4702,7 +5350,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -4713,7 +5361,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -4721,16 +5369,16 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -4738,12 +5386,12 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -4785,7 +5433,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -4797,12 +5445,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -4816,7 +5464,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -4833,12 +5481,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -4849,24 +5497,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -4874,7 +5522,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -4904,12 +5552,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -4919,7 +5567,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -4939,7 +5587,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -4947,7 +5595,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -4955,7 +5603,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -4968,23 +5616,25 @@
         <v>63</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C52" r:id="rId1" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
-    <hyperlink ref="D11" r:id="rId2" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
-    <hyperlink ref="E11" r:id="rId3" xr:uid="{00000000-0004-0000-0F00-000002000000}"/>
+    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="D11" r:id="rId4" display="emp4mg1@yopmail.com"/>
+    <hyperlink ref="E11" r:id="rId5" display="emp5mg1@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4993,28 +5643,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="35.33203125" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="34.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="34.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="9:9">
       <c r="I1" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -5026,22 +5676,22 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="5:5">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -5055,7 +5705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -5066,7 +5716,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -5083,7 +5733,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -5094,7 +5744,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -5102,38 +5752,38 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.6">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" ht="15.6" spans="9:9">
       <c r="I13" s="13"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -5175,7 +5825,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -5187,12 +5837,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -5206,7 +5856,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -5219,12 +5869,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -5235,7 +5885,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
@@ -5243,7 +5893,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
@@ -5251,12 +5901,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -5264,7 +5914,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -5294,12 +5944,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -5307,7 +5957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="2:3">
       <c r="B50" s="3" t="s">
         <v>52</v>
       </c>
@@ -5326,7 +5976,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -5334,7 +5984,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -5342,7 +5992,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -5360,21 +6010,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{00000000-0004-0000-1000-000001000000}"/>
-    <hyperlink ref="C52" r:id="rId3" xr:uid="{00000000-0004-0000-1000-000002000000}"/>
-    <hyperlink ref="C30" r:id="rId4" xr:uid="{00000000-0004-0000-1000-000003000000}"/>
-    <hyperlink ref="D11" r:id="rId5" xr:uid="{00000000-0004-0000-1000-000004000000}"/>
-    <hyperlink ref="E11" r:id="rId6" xr:uid="{00000000-0004-0000-1000-000005000000}"/>
+    <hyperlink ref="B4" r:id="rId3" display="tl4.ainindia@yopmail.com"/>
+    <hyperlink ref="C11" r:id="rId4" display="tl1.ainindia@yopmail.com"/>
+    <hyperlink ref="C52" r:id="rId5" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="C30" r:id="rId6" display="manageractest2@yopmail.com"/>
+    <hyperlink ref="D11" r:id="rId7" display="emp2.airindia@yopmail.com"/>
+    <hyperlink ref="E11" r:id="rId8" display="emp3.airindia@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId7"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5383,28 +6035,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="35.33203125" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="34.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="34.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="9:9">
       <c r="I1" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -5418,22 +6070,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="5:5">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -5447,7 +6099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -5458,7 +6110,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -5475,7 +6127,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -5486,7 +6138,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -5497,7 +6149,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -5505,15 +6157,15 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6">
+    <row r="13" ht="15.6" spans="9:9">
       <c r="I13" s="13"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -5555,7 +6207,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -5567,12 +6219,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -5586,7 +6238,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -5599,12 +6251,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -5615,24 +6267,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -5640,7 +6292,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -5670,12 +6322,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -5683,7 +6335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="2:3">
       <c r="B50" s="3" t="s">
         <v>52</v>
       </c>
@@ -5700,7 +6352,7 @@
       </c>
       <c r="C52" s="7"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -5708,7 +6360,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -5716,7 +6368,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -5734,16 +6386,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" tooltip="mailto:superuser.igtph@yopmail.com" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId3" display="superuser.igtph@yopmail.com" tooltip="mailto:superuser.igtph@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC5523-1D2A-4475-B3BE-70A92203D812}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5752,28 +6406,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="34.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="34.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="9:9">
       <c r="I1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -5787,22 +6441,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>171</v>
+        <v>65</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>172</v>
+        <v>66</v>
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="5:5">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -5816,7 +6470,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -5827,7 +6481,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -5842,7 +6496,7 @@
       <c r="C9" s="5"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -5853,7 +6507,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -5861,7 +6515,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>173</v>
+        <v>67</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>22</v>
@@ -5870,7 +6524,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -5882,15 +6536,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.6">
+    <row r="13" ht="15.6" spans="9:9">
       <c r="I13" s="13"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -5932,7 +6586,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -5944,12 +6598,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -5963,7 +6617,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -5976,12 +6630,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -5992,7 +6646,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
@@ -6000,7 +6654,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
@@ -6008,12 +6662,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -6021,7 +6675,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -6051,12 +6705,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -6064,7 +6718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="2:3">
       <c r="B50" s="3" t="s">
         <v>52</v>
       </c>
@@ -6083,7 +6737,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -6091,7 +6745,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -6099,7 +6753,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -6117,20 +6771,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{DDDD8B5F-E206-4430-A09B-8E2F2738B754}"/>
-    <hyperlink ref="C11" r:id="rId2" display="employeeactest2@yopmail.com" xr:uid="{1223C616-2617-43B7-B4BD-B6E1110067CA}"/>
-    <hyperlink ref="C52" r:id="rId3" xr:uid="{18023AB1-21AD-4BBF-B851-5ADF98AC1D26}"/>
-    <hyperlink ref="D11" r:id="rId4" xr:uid="{72077003-8659-439A-AF40-CC36B76C839D}"/>
-    <hyperlink ref="E11" r:id="rId5" xr:uid="{104A2A23-03BC-43F5-8FD5-0B2CE1B263A7}"/>
-    <hyperlink ref="C30" r:id="rId6" xr:uid="{B0EBAE3C-7402-437F-BA4E-691A039BF791}"/>
+    <hyperlink ref="B4" r:id="rId3" display="ph_requester2@yopmail.com"/>
+    <hyperlink ref="C11" r:id="rId4" display="test 5 employee "/>
+    <hyperlink ref="C52" r:id="rId5" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="D11" r:id="rId6" display="employeeactest3@yopmail.com"/>
+    <hyperlink ref="E11" r:id="rId7" display="employeeactest4@yopmail.com"/>
+    <hyperlink ref="C30" r:id="rId8" display="manageractest2@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId7"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -6139,28 +6795,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="35.33203125" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="34.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="34.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="9:9">
       <c r="I1" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -6174,22 +6830,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="5:5">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -6203,7 +6859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -6214,7 +6870,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -6231,7 +6887,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -6242,7 +6898,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -6253,7 +6909,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -6261,15 +6917,15 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6">
+    <row r="13" ht="15.6" spans="9:9">
       <c r="I13" s="13"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -6311,7 +6967,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -6323,12 +6979,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -6342,7 +6998,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -6355,12 +7011,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -6371,24 +7027,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -6396,7 +7052,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -6426,12 +7082,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -6439,7 +7095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="2:3">
       <c r="B50" s="3" t="s">
         <v>52</v>
       </c>
@@ -6456,7 +7112,7 @@
       </c>
       <c r="C52" s="7"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -6464,7 +7120,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -6472,7 +7128,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -6490,13 +7146,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6505,27 +7163,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="28.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -6537,21 +7195,21 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -6565,7 +7223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -6576,7 +7234,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -6593,7 +7251,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -6604,7 +7262,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -6612,16 +7270,16 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -6629,17 +7287,17 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="3:3">
       <c r="C13" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -6681,7 +7339,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -6693,12 +7351,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -6712,7 +7370,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -6725,12 +7383,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -6741,26 +7399,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -6768,7 +7426,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -6798,12 +7456,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -6811,7 +7469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="2:3">
       <c r="B50" s="3" t="s">
         <v>52</v>
       </c>
@@ -6830,7 +7488,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -6838,7 +7496,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -6846,7 +7504,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -6854,7 +7512,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:2">
       <c r="A66" s="3" t="s">
         <v>63</v>
       </c>
@@ -6862,41 +7520,41 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="23.25" customHeight="1"/>
-    <row r="76" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A76" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-    </row>
-    <row r="78" spans="1:5">
+    <row r="71" ht="23.25" customHeight="1"/>
+    <row r="76" ht="39.75" customHeight="1" spans="1:5">
+      <c r="A76" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B78">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:4">
       <c r="A79" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D79" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
@@ -6904,7 +7562,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
@@ -6915,47 +7573,49 @@
     <mergeCell ref="A76:E76"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C52" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="E11" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C11" r:id="rId3" display="lukecooper@yopmail.com"/>
+    <hyperlink ref="C52" r:id="rId4" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="E11" r:id="rId5" display="employee2@rewards-demo.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:JN91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="28.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -6967,25 +7627,25 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>166</v>
+        <v>84</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
       <c r="B5" s="19" t="s">
-        <v>170</v>
+        <v>86</v>
       </c>
       <c r="C5" s="19"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -6999,7 +7659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -7010,7 +7670,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -7027,7 +7687,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -7038,7 +7698,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -7046,16 +7706,16 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -7063,17 +7723,17 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="3:3">
       <c r="C13" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -7115,7 +7775,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -7127,12 +7787,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -7146,7 +7806,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -7159,12 +7819,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -7175,26 +7835,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -7202,7 +7862,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -7232,12 +7892,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -7245,7 +7905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="2:3">
       <c r="B50" s="3" t="s">
         <v>52</v>
       </c>
@@ -7258,13 +7918,13 @@
         <v>54</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -7272,7 +7932,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -7280,15 +7940,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" s="3" t="s">
         <v>63</v>
       </c>
@@ -7296,57 +7956,57 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="23.25" customHeight="1"/>
-    <row r="76" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A76" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-    </row>
-    <row r="77" spans="1:5">
+    <row r="71" ht="23.25" customHeight="1"/>
+    <row r="76" ht="39.75" customHeight="1" spans="1:5">
+      <c r="A76" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:2">
       <c r="A78" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B78" s="18">
+        <v>77</v>
+      </c>
+      <c r="B78" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:4">
       <c r="A79" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="82" spans="1:274">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:274">
+    <row r="83" spans="1:2">
       <c r="A83" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
@@ -7904,27 +8564,27 @@
       <c r="JM87" s="22"/>
       <c r="JN87" s="22"/>
     </row>
-    <row r="88" spans="1:274">
+    <row r="88" spans="2:2">
       <c r="B88" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:274">
+    <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="90" spans="1:274">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
       <c r="B90" s="19" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="91" spans="1:274">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" s="3" t="s">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>170</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -7933,21 +8593,24 @@
     <mergeCell ref="A86:JN87"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C52" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="E11" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="B90" r:id="rId5" xr:uid="{813F70F5-5CD4-4A45-BFA0-8224E7E5D649}"/>
+    <hyperlink ref="C11" r:id="rId4" display="employee1.pearl@yopmail.com" tooltip="mailto:employee1.pearl@yopmail.com"/>
+    <hyperlink ref="C52" r:id="rId5" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="B4" r:id="rId6" display="manager2.pearl@yopmail.co"/>
+    <hyperlink ref="B90" r:id="rId7" display="manager4.pearl@yopmail.com"/>
+    <hyperlink ref="D11" r:id="rId8" display="employee2.pearl@yopmail.com" tooltip="mailto:employee2.pearl@yopmail.com"/>
+    <hyperlink ref="E11" r:id="rId9" display="employee3.pearl@yopmail.com" tooltip="mailto:employee3.pearl@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId6"/>
-  <legacyDrawing r:id="rId7"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7956,27 +8619,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="28.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -7988,21 +8651,21 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -8016,7 +8679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -8027,7 +8690,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -8044,7 +8707,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -8055,7 +8718,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -8066,7 +8729,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -8074,15 +8737,15 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="3:3">
       <c r="C13" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -8124,7 +8787,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -8136,12 +8799,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -8155,7 +8818,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -8168,12 +8831,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -8184,26 +8847,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -8211,7 +8874,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -8241,12 +8904,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -8254,7 +8917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="2:3">
       <c r="B50" s="3" t="s">
         <v>52</v>
       </c>
@@ -8273,7 +8936,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -8281,7 +8944,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -8289,7 +8952,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -8297,7 +8960,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:2">
       <c r="A66" s="3" t="s">
         <v>63</v>
       </c>
@@ -8305,41 +8968,41 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="23.25" customHeight="1"/>
-    <row r="76" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A76" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-    </row>
-    <row r="78" spans="1:5">
+    <row r="71" ht="23.25" customHeight="1"/>
+    <row r="76" ht="39.75" customHeight="1" spans="1:5">
+      <c r="A76" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B78">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:4">
       <c r="A79" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D79" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
@@ -8347,7 +9010,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
@@ -8358,16 +9021,18 @@
     <mergeCell ref="A76:E76"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C52" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8376,27 +9041,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="28.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -8408,21 +9073,21 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -8436,7 +9101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -8447,7 +9112,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -8464,7 +9129,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -8475,7 +9140,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -8486,7 +9151,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -8494,15 +9159,15 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="3:3">
       <c r="C13" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -8544,7 +9209,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -8556,12 +9221,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -8575,7 +9240,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -8588,12 +9253,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -8604,26 +9269,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -8631,7 +9296,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -8661,12 +9326,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -8674,7 +9339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="2:3">
       <c r="B50" s="3" t="s">
         <v>52</v>
       </c>
@@ -8693,7 +9358,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -8701,7 +9366,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -8709,7 +9374,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -8717,7 +9382,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:2">
       <c r="A66" s="3" t="s">
         <v>63</v>
       </c>
@@ -8725,41 +9390,41 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="23.25" customHeight="1"/>
-    <row r="76" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A76" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-    </row>
-    <row r="78" spans="1:5">
+    <row r="71" ht="23.25" customHeight="1"/>
+    <row r="76" ht="39.75" customHeight="1" spans="1:5">
+      <c r="A76" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B78">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:4">
       <c r="A79" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D79" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
@@ -8767,7 +9432,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
@@ -8778,16 +9443,18 @@
     <mergeCell ref="A76:E76"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C52" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8796,26 +9463,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="27.109375" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="27.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -8827,21 +9494,21 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -8855,7 +9522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -8866,7 +9533,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -8874,13 +9541,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -8891,7 +9558,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -8899,27 +9566,27 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -8959,7 +9626,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -8971,12 +9638,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -8990,7 +9657,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -9005,12 +9672,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -9021,28 +9688,28 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -9050,7 +9717,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -9080,12 +9747,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -9095,7 +9762,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -9115,7 +9782,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -9123,7 +9790,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -9131,7 +9798,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -9149,16 +9816,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C52" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9167,26 +9836,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="21.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -9198,21 +9867,21 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -9226,7 +9895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -9237,7 +9906,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -9245,7 +9914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -9253,7 +9922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -9264,7 +9933,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -9272,16 +9941,16 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -9289,12 +9958,12 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -9338,7 +10007,7 @@
       </c>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -9352,12 +10021,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -9371,7 +10040,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -9380,16 +10049,16 @@
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -9400,26 +10069,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -9427,7 +10096,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -9457,12 +10126,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -9472,7 +10141,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -9492,7 +10161,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -9500,7 +10169,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -9508,7 +10177,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -9526,21 +10195,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="C30" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="C52" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="D11" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="E11" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="B4" r:id="rId3" display="manager1.ac@yopmail.com"/>
+    <hyperlink ref="C11" r:id="rId4" display="employee6.ac@yopmail.com"/>
+    <hyperlink ref="C30" r:id="rId5" display="employee5.ac@yopmail.com"/>
+    <hyperlink ref="C52" r:id="rId6" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="D11" r:id="rId7" display="employee7.ac@yopmail.com"/>
+    <hyperlink ref="E11" r:id="rId8" display="employee8.ac@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId7"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9549,27 +10220,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="31.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="30.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="31.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="21.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" customHeight="1">
+    <row r="1" ht="17.25" customHeight="1" spans="3:9">
       <c r="C1" s="16"/>
       <c r="I1" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -9581,21 +10252,21 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -9609,7 +10280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -9620,7 +10291,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -9628,7 +10299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -9636,7 +10307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="3:5">
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -9647,7 +10318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -9655,29 +10326,29 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="4:5">
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -9717,7 +10388,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -9727,12 +10398,12 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -9746,7 +10417,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -9759,12 +10430,12 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -9775,26 +10446,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -9802,7 +10473,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -9832,12 +10503,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1">
+    <row r="48" s="1" customFormat="1" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -9847,7 +10518,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -9867,7 +10538,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -9875,7 +10546,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -9883,7 +10554,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -9901,12 +10572,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C52" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="D11" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="C52" r:id="rId3" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="C11" r:id="rId4" display="nominee1.satven@outlook.com"/>
+    <hyperlink ref="D11" r:id="rId5" display="nominee2.satven@outlook.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/RR/excel/Appriciate_Flow.xlsx
+++ b/RR/excel/Appriciate_Flow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" tabRatio="1000" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9000" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="C900" sheetId="2" r:id="rId1"/>
@@ -506,7 +506,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="182">
   <si>
     <t>Advantage Club - Testing</t>
   </si>
@@ -703,10 +703,19 @@
     <t>Please provide the message.</t>
   </si>
   <si>
+    <t xml:space="preserve">value statement hidden </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes </t>
+  </si>
+  <si>
     <t>ph_requester2@yopmail.com</t>
   </si>
   <si>
     <t>Advantage!1146</t>
+  </si>
+  <si>
+    <t>afni_manager1.ac@yopmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">test 5 employee </t>
@@ -1055,7 +1064,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1126,6 +1135,29 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1280,7 +1312,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1302,6 +1334,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1617,134 +1655,134 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1786,7 +1824,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2603,7 +2647,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -2628,10 +2672,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -2695,7 +2739,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -2705,7 +2749,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -2822,7 +2866,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -2835,7 +2879,7 @@
     </row>
     <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2883,7 +2927,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -2891,7 +2935,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -2978,7 +3022,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -3003,10 +3047,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -3072,10 +3116,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E11" s="7"/>
     </row>
@@ -3084,10 +3128,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -3272,7 +3316,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -3360,7 +3404,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -3385,10 +3429,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -3455,13 +3499,13 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -3584,7 +3628,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -3651,7 +3695,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -3739,7 +3783,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -3764,10 +3808,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -3834,10 +3878,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E11" s="7"/>
     </row>
@@ -3965,7 +4009,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -4032,7 +4076,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -4121,7 +4165,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -4148,10 +4192,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="5"/>
@@ -4220,13 +4264,13 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -4420,7 +4464,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -4508,7 +4552,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -4535,10 +4579,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="5"/>
@@ -4605,10 +4649,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E11" s="7"/>
     </row>
@@ -4799,7 +4843,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -4887,7 +4931,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -4914,10 +4958,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="5"/>
@@ -4986,10 +5030,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E11" s="7"/>
     </row>
@@ -5182,7 +5226,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -5270,7 +5314,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -5297,10 +5341,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="5"/>
@@ -5369,13 +5413,13 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -5567,7 +5611,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -5616,7 +5660,7 @@
         <v>63</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -5655,7 +5699,7 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="9:9">
       <c r="I1" s="10" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
@@ -5681,10 +5725,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -5752,13 +5796,13 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -5766,13 +5810,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" ht="15.6" spans="9:9">
@@ -6047,7 +6091,7 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="9:9">
       <c r="I1" s="10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
@@ -6075,10 +6119,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -6400,8 +6444,8 @@
   <sheetPr/>
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -6427,7 +6471,7 @@
       </c>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:7">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -6439,21 +6483,33 @@
       </c>
       <c r="E3" s="5" t="s">
         <v>5</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>66</v>
+      <c r="B4" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>68</v>
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="5:5">
+    <row r="5" spans="2:5">
+      <c r="B5" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>68</v>
+      </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:4">
@@ -6514,8 +6570,8 @@
       <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>67</v>
+      <c r="C11" s="29" t="s">
+        <v>70</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>22</v>
@@ -6771,12 +6827,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId3" display="ph_requester2@yopmail.com"/>
-    <hyperlink ref="C11" r:id="rId4" display="test 5 employee "/>
-    <hyperlink ref="C52" r:id="rId5" display="employeeacte@yopmail.com"/>
-    <hyperlink ref="D11" r:id="rId6" display="employeeactest3@yopmail.com"/>
-    <hyperlink ref="E11" r:id="rId7" display="employeeactest4@yopmail.com"/>
-    <hyperlink ref="C30" r:id="rId8" display="manageractest2@yopmail.com"/>
+    <hyperlink ref="C11" r:id="rId3" display="test 5 employee "/>
+    <hyperlink ref="C52" r:id="rId4" display="employeeacte@yopmail.com"/>
+    <hyperlink ref="D11" r:id="rId5" display="employeeactest3@yopmail.com"/>
+    <hyperlink ref="E11" r:id="rId6" display="employeeactest4@yopmail.com"/>
+    <hyperlink ref="C30" r:id="rId7" display="manageractest2@yopmail.com"/>
+    <hyperlink ref="B4" r:id="rId8" display="ph_requester2@yopmail.com"/>
+    <hyperlink ref="B5" r:id="rId9" display="afni_manager1.ac@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -6807,7 +6864,7 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="9:9">
       <c r="I1" s="10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
@@ -6835,10 +6892,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -7175,7 +7232,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -7200,10 +7257,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -7270,13 +7327,13 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -7289,7 +7346,7 @@
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:1">
@@ -7404,7 +7461,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -7523,7 +7580,7 @@
     <row r="71" ht="23.25" customHeight="1"/>
     <row r="76" ht="39.75" customHeight="1" spans="1:5">
       <c r="A76" s="18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
@@ -7532,7 +7589,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B78">
         <v>3</v>
@@ -7540,21 +7597,21 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D79" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
@@ -7562,7 +7619,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
@@ -7589,8 +7646,8 @@
   <sheetPr/>
   <dimension ref="A1:JN91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7607,7 +7664,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -7632,15 +7689,15 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="19" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C5" s="19"/>
       <c r="E5" s="3"/>
@@ -7706,13 +7763,13 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -7725,7 +7782,7 @@
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:1">
@@ -7840,7 +7897,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -7918,7 +7975,7 @@
         <v>54</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>56</v>
@@ -7945,7 +8002,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -7959,7 +8016,7 @@
     <row r="71" ht="23.25" customHeight="1"/>
     <row r="76" ht="39.75" customHeight="1" spans="1:5">
       <c r="A76" s="18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
@@ -7968,7 +8025,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77" t="s">
         <v>26</v>
@@ -7976,7 +8033,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B78" s="20">
         <v>3</v>
@@ -7984,21 +8041,21 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D79" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
@@ -8006,7 +8063,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
@@ -8571,20 +8628,20 @@
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="19" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -8631,7 +8688,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -8656,10 +8713,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -8852,7 +8909,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -8971,7 +9028,7 @@
     <row r="71" ht="23.25" customHeight="1"/>
     <row r="76" ht="39.75" customHeight="1" spans="1:5">
       <c r="A76" s="18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
@@ -8980,7 +9037,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B78">
         <v>3</v>
@@ -8988,21 +9045,21 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D79" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
@@ -9010,7 +9067,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
@@ -9053,7 +9110,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -9078,10 +9135,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -9274,7 +9331,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -9393,7 +9450,7 @@
     <row r="71" ht="23.25" customHeight="1"/>
     <row r="76" ht="39.75" customHeight="1" spans="1:5">
       <c r="A76" s="18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
@@ -9402,7 +9459,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B78">
         <v>3</v>
@@ -9410,21 +9467,21 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D79" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
@@ -9432,7 +9489,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
@@ -9474,7 +9531,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -9499,10 +9556,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -9566,7 +9623,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -9576,7 +9633,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -9693,7 +9750,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -9701,7 +9758,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:1">
@@ -9762,7 +9819,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -9847,7 +9904,7 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -9872,10 +9929,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -9941,13 +9998,13 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -10049,7 +10106,7 @@
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E26" s="5"/>
     </row>
@@ -10074,7 +10131,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -10141,7 +10198,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>
@@ -10232,7 +10289,7 @@
     <row r="1" ht="17.25" customHeight="1" spans="3:9">
       <c r="C1" s="16"/>
       <c r="I1" s="17" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
@@ -10257,10 +10314,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -10326,10 +10383,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -10338,7 +10395,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -10451,7 +10508,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -10518,7 +10575,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>52</v>

--- a/RR/excel/Appriciate_Flow.xlsx
+++ b/RR/excel/Appriciate_Flow.xlsx
@@ -1064,7 +1064,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1135,29 +1135,6 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1312,7 +1289,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1334,12 +1311,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1655,134 +1626,134 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1824,13 +1795,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6445,7 +6414,7 @@
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -6504,10 +6473,10 @@
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="27" t="s">
+      <c r="B5" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="26" t="s">
         <v>68</v>
       </c>
       <c r="E5" s="3"/>
@@ -6570,7 +6539,7 @@
       <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="27" t="s">
         <v>70</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -6833,7 +6802,6 @@
     <hyperlink ref="E11" r:id="rId6" display="employeeactest4@yopmail.com"/>
     <hyperlink ref="C30" r:id="rId7" display="manageractest2@yopmail.com"/>
     <hyperlink ref="B4" r:id="rId8" display="ph_requester2@yopmail.com"/>
-    <hyperlink ref="B5" r:id="rId9" display="afni_manager1.ac@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/RR/excel/Appriciate_Flow.xlsx
+++ b/RR/excel/Appriciate_Flow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" tabRatio="1000" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9000" tabRatio="1000" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="C900" sheetId="2" r:id="rId1"/>
@@ -506,7 +506,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="182">
   <si>
     <t>Advantage Club - Testing</t>
   </si>
@@ -5650,8 +5650,8 @@
   <sheetPr/>
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -5687,7 +5687,9 @@
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
@@ -6413,7 +6415,7 @@
   <sheetPr/>
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -7614,8 +7616,8 @@
   <sheetPr/>
   <dimension ref="A1:JN91"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7650,7 +7652,9 @@
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
@@ -8620,7 +8624,7 @@
   <hyperlinks>
     <hyperlink ref="C11" r:id="rId4" display="employee1.pearl@yopmail.com" tooltip="mailto:employee1.pearl@yopmail.com"/>
     <hyperlink ref="C52" r:id="rId5" display="employeeacte@yopmail.com"/>
-    <hyperlink ref="B4" r:id="rId6" display="manager2.pearl@yopmail.co"/>
+    <hyperlink ref="B4" r:id="rId6" display="manager2.pearl@yopmail.co" tooltip="mailto:manager2.pearl@yopmail.co"/>
     <hyperlink ref="B90" r:id="rId7" display="manager4.pearl@yopmail.com"/>
     <hyperlink ref="D11" r:id="rId8" display="employee2.pearl@yopmail.com" tooltip="mailto:employee2.pearl@yopmail.com"/>
     <hyperlink ref="E11" r:id="rId9" display="employee3.pearl@yopmail.com" tooltip="mailto:employee3.pearl@yopmail.com"/>

--- a/RR/excel/Appriciate_Flow.xlsx
+++ b/RR/excel/Appriciate_Flow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" tabRatio="1000" activeTab="17"/>
+    <workbookView windowWidth="23040" windowHeight="9000" tabRatio="1000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="C900" sheetId="2" r:id="rId1"/>
@@ -506,7 +506,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="182">
   <si>
     <t>Advantage Club - Testing</t>
   </si>
@@ -5650,7 +5650,7 @@
   <sheetPr/>
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -7616,8 +7616,8 @@
   <sheetPr/>
   <dimension ref="A1:JN91"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7652,9 +7652,7 @@
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
